--- a/results/08-2024/beta/contributions-08-2024.xlsx
+++ b/results/08-2024/beta/contributions-08-2024.xlsx
@@ -22502,7 +22502,7 @@
         <v>-0.0693156328910721</v>
       </c>
       <c r="K212" t="n">
-        <v>0.177137701550076</v>
+        <v>0.0741498803344022</v>
       </c>
       <c r="L212" t="n">
         <v>-0.0270688625370975</v>
@@ -22556,19 +22556,19 @@
         <v>0.484238094099354</v>
       </c>
       <c r="AC212" t="n">
-        <v>-0.388743281231255</v>
+        <v>-0.491731102446929</v>
       </c>
       <c r="AD212" t="n">
         <v>-1.92399199208399</v>
       </c>
       <c r="AE212" t="n">
-        <v>-2.31273527331524</v>
+        <v>-2.41572309453092</v>
       </c>
       <c r="AF212" t="n">
-        <v>-2.18113067367194</v>
+        <v>-2.28411849488761</v>
       </c>
       <c r="AG212" t="n">
-        <v>-3.31972601810947</v>
+        <v>-3.34547297341339</v>
       </c>
     </row>
     <row r="213">
@@ -22603,7 +22603,7 @@
         <v>-0.0458112948011822</v>
       </c>
       <c r="K213" t="n">
-        <v>-0.00105986824363986</v>
+        <v>0.0487027730229569</v>
       </c>
       <c r="L213" t="n">
         <v>-0.0354874501603468</v>
@@ -22657,19 +22657,19 @@
         <v>0.808563910283312</v>
       </c>
       <c r="AC213" t="n">
-        <v>-0.305717395195126</v>
+        <v>-0.255954753928529</v>
       </c>
       <c r="AD213" t="n">
         <v>-0.76061473655181</v>
       </c>
       <c r="AE213" t="n">
-        <v>-1.06633213174694</v>
+        <v>-1.01656949048034</v>
       </c>
       <c r="AF213" t="n">
-        <v>-0.512620907904823</v>
+        <v>-0.462858266638226</v>
       </c>
       <c r="AG213" t="n">
-        <v>-2.70867395444716</v>
+        <v>-2.72198024943443</v>
       </c>
     </row>
     <row r="214">
@@ -22704,7 +22704,7 @@
         <v>-0.0735179907099432</v>
       </c>
       <c r="K214" t="n">
-        <v>0.366002994065305</v>
+        <v>0.336922051552256</v>
       </c>
       <c r="L214" t="n">
         <v>-0.0432723791101035</v>
@@ -22758,19 +22758,19 @@
         <v>0.398133923631737</v>
       </c>
       <c r="AC214" t="n">
-        <v>0.783677513807253</v>
+        <v>0.754596571294204</v>
       </c>
       <c r="AD214" t="n">
         <v>-1.21650791587402</v>
       </c>
       <c r="AE214" t="n">
-        <v>-0.432830402066765</v>
+        <v>-0.461911344579814</v>
       </c>
       <c r="AF214" t="n">
-        <v>0.0370018695411782</v>
+        <v>0.0079209270281293</v>
       </c>
       <c r="AG214" t="n">
-        <v>-1.79642520228685</v>
+        <v>-1.81700173290238</v>
       </c>
     </row>
     <row r="215">
@@ -22805,7 +22805,7 @@
         <v>-0.0807102079259223</v>
       </c>
       <c r="K215" t="n">
-        <v>0.327515505843772</v>
+        <v>0.231458644863923</v>
       </c>
       <c r="L215" t="n">
         <v>-0.035049267275973</v>
@@ -22859,19 +22859,19 @@
         <v>0.416254645782971</v>
       </c>
       <c r="AC215" t="n">
-        <v>0.787877726889778</v>
+        <v>0.691820865909929</v>
       </c>
       <c r="AD215" t="n">
         <v>-1.30802721817344</v>
       </c>
       <c r="AE215" t="n">
-        <v>-0.520149491283658</v>
+        <v>-0.616206352263507</v>
       </c>
       <c r="AF215" t="n">
-        <v>-0.298009008661158</v>
+        <v>-0.394065869641007</v>
       </c>
       <c r="AG215" t="n">
-        <v>-0.73868968017419</v>
+        <v>-0.783280426034684</v>
       </c>
     </row>
     <row r="216">
@@ -22906,7 +22906,7 @@
         <v>-0.0624934661906428</v>
       </c>
       <c r="K216" t="n">
-        <v>0.360932690669285</v>
+        <v>0.225633448790169</v>
       </c>
       <c r="L216" t="n">
         <v>-0.0252516595196035</v>
@@ -22960,19 +22960,19 @@
         <v>0.666087940951794</v>
       </c>
       <c r="AC216" t="n">
-        <v>0.561691062937481</v>
+        <v>0.426391821058365</v>
       </c>
       <c r="AD216" t="n">
         <v>-0.785582455785448</v>
       </c>
       <c r="AE216" t="n">
-        <v>-0.223891392847968</v>
+        <v>-0.359190634727083</v>
       </c>
       <c r="AF216" t="n">
-        <v>0.418356206382495</v>
+        <v>0.28305696450338</v>
       </c>
       <c r="AG216" t="n">
-        <v>-0.0888179601605809</v>
+        <v>-0.141486561186935</v>
       </c>
     </row>
     <row r="217">
@@ -23007,7 +23007,7 @@
         <v>-0.0675589446248614</v>
       </c>
       <c r="K217" t="n">
-        <v>0.332247401094521</v>
+        <v>0.0820832722155528</v>
       </c>
       <c r="L217" t="n">
         <v>-0.032773887709104</v>
@@ -23061,19 +23061,19 @@
         <v>0.267980369659746</v>
       </c>
       <c r="AC217" t="n">
-        <v>0.468980944594158</v>
+        <v>0.218816815715189</v>
       </c>
       <c r="AD217" t="n">
         <v>-0.755101335393128</v>
       </c>
       <c r="AE217" t="n">
-        <v>-0.286120390798971</v>
+        <v>-0.536284519677939</v>
       </c>
       <c r="AF217" t="n">
-        <v>0.153464264427214</v>
+        <v>-0.0966998644517549</v>
       </c>
       <c r="AG217" t="n">
-        <v>0.0777033329224284</v>
+        <v>-0.0499469606403176</v>
       </c>
     </row>
     <row r="218">
@@ -23108,7 +23108,7 @@
         <v>-0.0688246896024872</v>
       </c>
       <c r="K218" t="n">
-        <v>0.219326189098964</v>
+        <v>0.125414954817356</v>
       </c>
       <c r="L218" t="n">
         <v>-0.0283438253096952</v>
@@ -23162,19 +23162,19 @@
         <v>0.216380406217768</v>
       </c>
       <c r="AC218" t="n">
-        <v>0.601061145859427</v>
+        <v>0.50714991157782</v>
       </c>
       <c r="AD218" t="n">
         <v>-0.655658948873353</v>
       </c>
       <c r="AE218" t="n">
-        <v>-0.0545978030139257</v>
+        <v>-0.148509037295533</v>
       </c>
       <c r="AF218" t="n">
-        <v>-0.0970684355977569</v>
+        <v>-0.190979669879364</v>
       </c>
       <c r="AG218" t="n">
-        <v>0.0441857566376946</v>
+        <v>-0.099672109867191</v>
       </c>
     </row>
     <row r="219">
@@ -23188,94 +23188,94 @@
         <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>0.115426641109984</v>
+        <v>0.0766604627290297</v>
       </c>
       <c r="E219" t="n">
-        <v>0.0213495782472853</v>
+        <v>0.0207857182213548</v>
       </c>
       <c r="F219" t="n">
-        <v>-0.00841229468813802</v>
+        <v>-0.00665882688818371</v>
       </c>
       <c r="G219" t="n">
-        <v>0.0584823625448953</v>
+        <v>0.0294056849672384</v>
       </c>
       <c r="H219" t="n">
-        <v>0.144940665347356</v>
+        <v>0.144966917827707</v>
       </c>
       <c r="I219" t="n">
-        <v>0.15972952792049</v>
+        <v>0.143649707490815</v>
       </c>
       <c r="J219" t="n">
-        <v>-0.0611884308723989</v>
+        <v>-0.0641529524231259</v>
       </c>
       <c r="K219" t="n">
-        <v>0.0366848996418076</v>
+        <v>0.0942719107018211</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.026674928411006</v>
+        <v>-0.0221379441655739</v>
       </c>
       <c r="M219" t="n">
-        <v>0.0852360946995603</v>
+        <v>0.088311302808767</v>
       </c>
       <c r="N219" t="n">
-        <v>-0.0128650896726216</v>
+        <v>-0.0113206378342441</v>
       </c>
       <c r="O219" t="n">
         <v>0</v>
       </c>
       <c r="P219" t="n">
-        <v>-0.100997606137832</v>
+        <v>-0.100871325972164</v>
       </c>
       <c r="Q219" t="n">
-        <v>-0.000649913159199809</v>
+        <v>-0.000649617148145897</v>
       </c>
       <c r="R219" t="n">
-        <v>-0.000214903818299619</v>
+        <v>-0.00042409806772021</v>
       </c>
       <c r="S219" t="n">
-        <v>-0.286344488728305</v>
+        <v>-0.285958850337448</v>
       </c>
       <c r="T219" t="n">
-        <v>-0.0161214977570425</v>
+        <v>-0.0160696101422084</v>
       </c>
       <c r="U219" t="n">
-        <v>-0.03465134618762</v>
+        <v>-0.0346033091437773</v>
       </c>
       <c r="V219" t="n">
-        <v>-0.048521094442546</v>
+        <v>-0.0484744347011358</v>
       </c>
       <c r="W219" t="n">
-        <v>-0.0928440996488284</v>
+        <v>-0.0927763632456965</v>
       </c>
       <c r="X219" t="n">
-        <v>-0.00208859557768338</v>
+        <v>-0.00208659084282076</v>
       </c>
       <c r="Y219" t="n">
-        <v>-0.153950985412424</v>
+        <v>-0.148734325627204</v>
       </c>
       <c r="Z219" t="n">
-        <v>0.111490670073157</v>
+        <v>0.112419754787877</v>
       </c>
       <c r="AA219" t="n">
-        <v>0.128363924669132</v>
+        <v>0.0907873540622007</v>
       </c>
       <c r="AB219" t="n">
-        <v>0.045545078985748</v>
+        <v>0.0152787936340673</v>
       </c>
       <c r="AC219" t="n">
-        <v>0.253491733626249</v>
+        <v>0.296597639431644</v>
       </c>
       <c r="AD219" t="n">
-        <v>-0.552522855769686</v>
+        <v>-0.541238105465922</v>
       </c>
       <c r="AE219" t="n">
-        <v>-0.299031122143437</v>
+        <v>-0.244640466034278</v>
       </c>
       <c r="AF219" t="n">
-        <v>-0.125122118488558</v>
+        <v>-0.13857431833801</v>
       </c>
       <c r="AG219" t="n">
-        <v>0.0874074791808446</v>
+        <v>-0.0357992220414418</v>
       </c>
     </row>
     <row r="220">
@@ -23289,94 +23289,94 @@
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.313908433215255</v>
+        <v>-0.31394144435041</v>
       </c>
       <c r="E220" t="n">
-        <v>-0.000869151819026267</v>
+        <v>-0.000868451093185077</v>
       </c>
       <c r="F220" t="n">
-        <v>-0.0117593959094092</v>
+        <v>-0.0117499152727585</v>
       </c>
       <c r="G220" t="n">
-        <v>-0.0652202876618162</v>
+        <v>-0.0651095464043107</v>
       </c>
       <c r="H220" t="n">
-        <v>0.244644002822978</v>
+        <v>0.242112141923125</v>
       </c>
       <c r="I220" t="n">
-        <v>0.0672595774092722</v>
+        <v>0.0592340789840238</v>
       </c>
       <c r="J220" t="n">
-        <v>-0.0684125091264905</v>
+        <v>-0.0707754466555917</v>
       </c>
       <c r="K220" t="n">
-        <v>0.0330236790757609</v>
+        <v>-0.0919548004942133</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.020299912853077</v>
+        <v>-0.0152109150439531</v>
       </c>
       <c r="M220" t="n">
-        <v>0.136163822410147</v>
+        <v>0.132636036412279</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0570104570630233</v>
+        <v>0.0569543455536742</v>
       </c>
       <c r="O220" t="n">
         <v>0</v>
       </c>
       <c r="P220" t="n">
-        <v>-0.0982976945170488</v>
+        <v>-0.0982184451463754</v>
       </c>
       <c r="Q220" t="n">
-        <v>-0.000326616740142963</v>
+        <v>-0.000326353415847974</v>
       </c>
       <c r="R220" t="n">
-        <v>0.000151747919430693</v>
+        <v>0.000196514040270779</v>
       </c>
       <c r="S220" t="n">
-        <v>-0.25827984200125</v>
+        <v>-0.258071612143604</v>
       </c>
       <c r="T220" t="n">
-        <v>-0.0652441796008</v>
+        <v>-0.0651915785688137</v>
       </c>
       <c r="U220" t="n">
-        <v>-0.0333508636496132</v>
+        <v>-0.033323975583025</v>
       </c>
       <c r="V220" t="n">
-        <v>-0.042997208909558</v>
+        <v>-0.0429625437857874</v>
       </c>
       <c r="W220" t="n">
-        <v>-0.0545362702558077</v>
+        <v>-0.0544923021330772</v>
       </c>
       <c r="X220" t="n">
-        <v>-0.000531810458002735</v>
+        <v>-0.000531381702838931</v>
       </c>
       <c r="Y220" t="n">
-        <v>0.0876643750756439</v>
+        <v>0.0792902680615414</v>
       </c>
       <c r="Z220" t="n">
-        <v>0.0630987712178319</v>
+        <v>0.0587868939067887</v>
       </c>
       <c r="AA220" t="n">
-        <v>-0.32653698094369</v>
+        <v>-0.326559810716353</v>
       </c>
       <c r="AB220" t="n">
-        <v>-0.0525917399333808</v>
+        <v>-0.0524911800383672</v>
       </c>
       <c r="AC220" t="n">
-        <v>0.256214837328444</v>
+        <v>0.123405058713391</v>
       </c>
       <c r="AD220" t="n">
-        <v>-0.209475312446147</v>
+        <v>-0.225254134504816</v>
       </c>
       <c r="AE220" t="n">
-        <v>0.046739524882297</v>
+        <v>-0.101849075791425</v>
       </c>
       <c r="AF220" t="n">
-        <v>-0.332389195994774</v>
+        <v>-0.480900066546146</v>
       </c>
       <c r="AG220" t="n">
-        <v>-0.100278871413473</v>
+        <v>-0.226788479803823</v>
       </c>
     </row>
     <row r="221">
@@ -23390,94 +23390,94 @@
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.0305342243517596</v>
+        <v>-0.0305374353817931</v>
       </c>
       <c r="E221" t="n">
-        <v>0.0039476324119797</v>
+        <v>0.00394444975967197</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0106575548973042</v>
+        <v>0.0106489625847105</v>
       </c>
       <c r="G221" t="n">
-        <v>-0.0635269274178134</v>
+        <v>-0.0634190614135321</v>
       </c>
       <c r="H221" t="n">
-        <v>0.164907777239259</v>
+        <v>0.157759405298966</v>
       </c>
       <c r="I221" t="n">
-        <v>0.0444036445880666</v>
+        <v>0.0418394472298964</v>
       </c>
       <c r="J221" t="n">
-        <v>-0.0609782600982804</v>
+        <v>-0.0633458852449143</v>
       </c>
       <c r="K221" t="n">
-        <v>0.0315126258876201</v>
+        <v>-0.129325406864861</v>
       </c>
       <c r="L221" t="n">
-        <v>-0.00307385120014589</v>
+        <v>0.00193477168629317</v>
       </c>
       <c r="M221" t="n">
-        <v>0.147407125720034</v>
+        <v>0.143940722559598</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0672165194213655</v>
+        <v>0.0671526959836763</v>
       </c>
       <c r="O221" t="n">
         <v>0</v>
       </c>
       <c r="P221" t="n">
-        <v>-0.0970976254070241</v>
+        <v>-0.0970193435536684</v>
       </c>
       <c r="Q221" t="n">
-        <v>-0.00016757829739459</v>
+        <v>-0.000167443192754829</v>
       </c>
       <c r="R221" t="n">
-        <v>-0.00186153146073105</v>
+        <v>-0.00184379385646147</v>
       </c>
       <c r="S221" t="n">
-        <v>-0.102554999885348</v>
+        <v>-0.102472318198455</v>
       </c>
       <c r="T221" t="n">
-        <v>-0.0280540622996497</v>
+        <v>-0.028031444609652</v>
       </c>
       <c r="U221" t="n">
-        <v>-0.0214909189639352</v>
+        <v>-0.021473592598231</v>
       </c>
       <c r="V221" t="n">
-        <v>-0.025648747951922</v>
+        <v>-0.025628069469647</v>
       </c>
       <c r="W221" t="n">
-        <v>-0.0296418563843698</v>
+        <v>-0.0296179585862007</v>
       </c>
       <c r="X221" t="n">
-        <v>-0.000453562349358593</v>
+        <v>-0.00045319667922844</v>
       </c>
       <c r="Y221" t="n">
-        <v>0.0439473423981401</v>
+        <v>0.035745733832411</v>
       </c>
       <c r="Z221" t="n">
-        <v>0.186689335555981</v>
+        <v>0.182348250342362</v>
       </c>
       <c r="AA221" t="n">
-        <v>-0.0159290370424757</v>
+        <v>-0.0159440230374105</v>
       </c>
       <c r="AB221" t="n">
-        <v>-0.0781321147270974</v>
+        <v>-0.0780124737579146</v>
       </c>
       <c r="AC221" t="n">
-        <v>0.176771936416519</v>
+        <v>0.00886233210538041</v>
       </c>
       <c r="AD221" t="n">
-        <v>0.138289440095787</v>
+        <v>0.122480241973748</v>
       </c>
       <c r="AE221" t="n">
-        <v>0.315061376512307</v>
+        <v>0.131342574079129</v>
       </c>
       <c r="AF221" t="n">
-        <v>0.221000224742734</v>
+        <v>0.0373860772838035</v>
       </c>
       <c r="AG221" t="n">
-        <v>-0.0833948813345928</v>
+        <v>-0.193266994369934</v>
       </c>
     </row>
     <row r="222">
@@ -23491,94 +23491,94 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>0.024299391791382</v>
+        <v>0.0243019471560105</v>
       </c>
       <c r="E222" t="n">
-        <v>-0.295899036005608</v>
+        <v>-0.295660476876613</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.0121646904485173</v>
+        <v>-0.0121548830561139</v>
       </c>
       <c r="G222" t="n">
-        <v>-0.108177044215945</v>
+        <v>-0.107993364224042</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.124273035615861</v>
+        <v>-0.125652348260824</v>
       </c>
       <c r="I222" t="n">
-        <v>0.035602444026407</v>
+        <v>0.0316345951441389</v>
       </c>
       <c r="J222" t="n">
-        <v>-0.0512959082415676</v>
+        <v>-0.0536686802154184</v>
       </c>
       <c r="K222" t="n">
-        <v>0.0296947403154162</v>
+        <v>0.0276096340699694</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0122391281148436</v>
+        <v>0.0171747125917095</v>
       </c>
       <c r="M222" t="n">
-        <v>-0.0232939832085542</v>
+        <v>-0.0265238993235225</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0720868464412133</v>
+        <v>0.0720188422908294</v>
       </c>
       <c r="O222" t="n">
         <v>0</v>
       </c>
       <c r="P222" t="n">
-        <v>-0.0952514679541603</v>
+        <v>-0.0951746745061739</v>
       </c>
       <c r="Q222" t="n">
         <v>0</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.00301367257711218</v>
+        <v>-0.00299522431434623</v>
       </c>
       <c r="S222" t="n">
-        <v>-0.0563506600689776</v>
+        <v>-0.0563052291525208</v>
       </c>
       <c r="T222" t="n">
-        <v>-0.0275377254851806</v>
+        <v>-0.0275155240752168</v>
       </c>
       <c r="U222" t="n">
-        <v>-0.0144986071970724</v>
+        <v>-0.0144869181589759</v>
       </c>
       <c r="V222" t="n">
-        <v>-0.0102954109692436</v>
+        <v>-0.0102871106236033</v>
       </c>
       <c r="W222" t="n">
-        <v>-0.0295239785250686</v>
+        <v>-0.0295001757621516</v>
       </c>
       <c r="X222" t="n">
-        <v>-0.000659223834366407</v>
+        <v>-0.000658692356245144</v>
       </c>
       <c r="Y222" t="n">
-        <v>0.0492509261651869</v>
+        <v>0.0411794998817865</v>
       </c>
       <c r="Z222" t="n">
-        <v>0.0252999339428391</v>
+        <v>0.0211579625871522</v>
       </c>
       <c r="AA222" t="n">
-        <v>-0.283764334662744</v>
+        <v>-0.283513412776716</v>
       </c>
       <c r="AB222" t="n">
-        <v>0.199886682238181</v>
+        <v>0.199821995708685</v>
       </c>
       <c r="AC222" t="n">
-        <v>-0.0980326314007623</v>
+        <v>-0.102902086670425</v>
       </c>
       <c r="AD222" t="n">
-        <v>-0.113787023270497</v>
+        <v>-0.129091143512988</v>
       </c>
       <c r="AE222" t="n">
-        <v>-0.211819654671259</v>
+        <v>-0.231993230183413</v>
       </c>
       <c r="AF222" t="n">
-        <v>-0.295697307095822</v>
+        <v>-0.315684647251444</v>
       </c>
       <c r="AG222" t="n">
-        <v>-0.133052099209109</v>
+        <v>-0.224443238712954</v>
       </c>
     </row>
     <row r="223">
@@ -23592,94 +23592,94 @@
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0365744970629018</v>
+        <v>0.036578343298104</v>
       </c>
       <c r="E223" t="n">
-        <v>-0.125265387343713</v>
+        <v>-0.125164396133666</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.067135471028014</v>
+        <v>-0.067081345202836</v>
       </c>
       <c r="G223" t="n">
-        <v>-0.106660443474682</v>
+        <v>-0.106479338605938</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.120619097688418</v>
+        <v>-0.121872535792296</v>
       </c>
       <c r="I223" t="n">
-        <v>-0.0345535786835972</v>
+        <v>-0.0384268285593567</v>
       </c>
       <c r="J223" t="n">
-        <v>-0.0279153314881135</v>
+        <v>-0.0303059190717365</v>
       </c>
       <c r="K223" t="n">
-        <v>0.0285387808955819</v>
+        <v>0.184638161877988</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.00705478686092692</v>
+        <v>-0.00216153121913657</v>
       </c>
       <c r="M223" t="n">
-        <v>-0.0767446653051908</v>
+        <v>-0.0765131938392539</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0735981531099798</v>
+        <v>0.0726153668933907</v>
       </c>
       <c r="O223" t="n">
         <v>0</v>
       </c>
       <c r="P223" t="n">
-        <v>-0.0932923549751133</v>
+        <v>-0.0932171409992745</v>
       </c>
       <c r="Q223" t="n">
         <v>0</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.00299933644805748</v>
+        <v>-0.00291353376750992</v>
       </c>
       <c r="S223" t="n">
-        <v>-0.0926254229067949</v>
+        <v>-0.0925507466235943</v>
       </c>
       <c r="T223" t="n">
-        <v>-0.0262679255398634</v>
+        <v>-0.0262467478654718</v>
       </c>
       <c r="U223" t="n">
-        <v>-0.0132312567363527</v>
+        <v>-0.0132205894590099</v>
       </c>
       <c r="V223" t="n">
-        <v>-0.0098361796419076</v>
+        <v>-0.00982824953682954</v>
       </c>
       <c r="W223" t="n">
-        <v>-0.0233222261817445</v>
+        <v>-0.0233034233831978</v>
       </c>
       <c r="X223" t="n">
-        <v>-0.00136831817406632</v>
+        <v>-0.00136721501132473</v>
       </c>
       <c r="Y223" t="n">
-        <v>0.0118399973263489</v>
+        <v>0.00393016119583061</v>
       </c>
       <c r="Z223" t="n">
-        <v>-0.0209970154829942</v>
+        <v>-0.0250342171290537</v>
       </c>
       <c r="AA223" t="n">
-        <v>-0.155826361308825</v>
+        <v>-0.155667398038398</v>
       </c>
       <c r="AB223" t="n">
-        <v>0.0857404148970448</v>
+        <v>0.0857664027305639</v>
       </c>
       <c r="AC223" t="n">
-        <v>-0.161604013825474</v>
+        <v>-0.00812865276453787</v>
       </c>
       <c r="AD223" t="n">
-        <v>-0.275246550955756</v>
+        <v>-0.287649529525299</v>
       </c>
       <c r="AE223" t="n">
-        <v>-0.43685056478123</v>
+        <v>-0.295778182289837</v>
       </c>
       <c r="AF223" t="n">
-        <v>-0.506936511193011</v>
+        <v>-0.365679177597671</v>
       </c>
       <c r="AG223" t="n">
-        <v>-0.228505697385222</v>
+        <v>-0.281219453527869</v>
       </c>
     </row>
     <row r="224">
@@ -23693,94 +23693,94 @@
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0415794881180789</v>
+        <v>0.041583860686498</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.0263040693855434</v>
+        <v>-0.0262828625713328</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.0111646931728869</v>
+        <v>-0.0111556919962869</v>
       </c>
       <c r="G224" t="n">
-        <v>-0.120136388610983</v>
+        <v>-0.119932402164062</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.086844616536143</v>
+        <v>-0.0879007795113236</v>
       </c>
       <c r="I224" t="n">
-        <v>-0.0041767359145876</v>
+        <v>-0.0080411681361331</v>
       </c>
       <c r="J224" t="n">
-        <v>-0.0343815825808225</v>
+        <v>-0.0367678155594809</v>
       </c>
       <c r="K224" t="n">
-        <v>0.0273955825848601</v>
+        <v>0.184174016506965</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.00622935160938399</v>
+        <v>-0.00140751190133113</v>
       </c>
       <c r="M224" t="n">
-        <v>-0.0731881625126404</v>
+        <v>-0.0729640974639375</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0149357154821278</v>
+        <v>0.0149236740394639</v>
       </c>
       <c r="O224" t="n">
         <v>0</v>
       </c>
       <c r="P224" t="n">
-        <v>-0.000981885645918302</v>
+        <v>-0.000981094032036669</v>
       </c>
       <c r="Q224" t="n">
         <v>0</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.00225893407795521</v>
+        <v>-0.00220226125588451</v>
       </c>
       <c r="S224" t="n">
-        <v>-0.0699290028093466</v>
+        <v>-0.0698726247885631</v>
       </c>
       <c r="T224" t="n">
-        <v>-0.025720184855385</v>
+        <v>-0.0256994487793925</v>
       </c>
       <c r="U224" t="n">
-        <v>-0.013483111194417</v>
+        <v>-0.0134722408674768</v>
       </c>
       <c r="V224" t="n">
-        <v>-0.00833795310712187</v>
+        <v>-0.00833123089924417</v>
       </c>
       <c r="W224" t="n">
-        <v>0.000199468368744685</v>
+        <v>0.000199307553755382</v>
       </c>
       <c r="X224" t="n">
-        <v>-0.000344205447336323</v>
+        <v>-0.000343927942708999</v>
       </c>
       <c r="Y224" t="n">
-        <v>-0.0189019483614061</v>
+        <v>-0.0186933193287365</v>
       </c>
       <c r="Z224" t="n">
-        <v>-0.0235948340680401</v>
+        <v>-0.0234765710958901</v>
       </c>
       <c r="AA224" t="n">
-        <v>0.00411072555964858</v>
+        <v>0.00414530611887821</v>
       </c>
       <c r="AB224" t="n">
-        <v>-0.0826676260525528</v>
+        <v>-0.0824938475964426</v>
       </c>
       <c r="AC224" t="n">
-        <v>-0.104236704056077</v>
+        <v>0.0500567413986968</v>
       </c>
       <c r="AD224" t="n">
-        <v>-0.221605038228694</v>
+        <v>-0.220913834860651</v>
       </c>
       <c r="AE224" t="n">
-        <v>-0.325841742284772</v>
+        <v>-0.170857093461955</v>
       </c>
       <c r="AF224" t="n">
-        <v>-0.404398642777676</v>
+        <v>-0.249205634939519</v>
       </c>
       <c r="AG224" t="n">
-        <v>-0.246508059080948</v>
+        <v>-0.223295845626212</v>
       </c>
     </row>
     <row r="225">
@@ -23794,94 +23794,94 @@
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.0920980811365349</v>
+        <v>-0.0921077663245755</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.0774430158905091</v>
+        <v>-0.0773805799371276</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.0110141514755251</v>
+        <v>-0.0110052716683513</v>
       </c>
       <c r="G225" t="n">
-        <v>-0.121516010792419</v>
+        <v>-0.121309681806073</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.0987528844041498</v>
+        <v>-0.0997491315631203</v>
       </c>
       <c r="I225" t="n">
-        <v>0.00600930029416073</v>
+        <v>0.00216662542835763</v>
       </c>
       <c r="J225" t="n">
-        <v>-0.037590628547481</v>
+        <v>-0.039919361291572</v>
       </c>
       <c r="K225" t="n">
-        <v>0.026484632801658</v>
+        <v>0.072437072312061</v>
       </c>
       <c r="L225" t="n">
-        <v>0.000163112145754359</v>
+        <v>0.00488537222003025</v>
       </c>
       <c r="M225" t="n">
-        <v>-0.124160287189766</v>
+        <v>-0.123898784744375</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0153644787523048</v>
+        <v>0.0153520916329748</v>
       </c>
       <c r="O225" t="n">
         <v>0</v>
       </c>
       <c r="P225" t="n">
-        <v>-0.00096194640787223</v>
+        <v>-0.000961170869363215</v>
       </c>
       <c r="Q225" t="n">
         <v>0</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.00294997056796175</v>
+        <v>-0.00294690594049076</v>
       </c>
       <c r="S225" t="n">
-        <v>-0.0330468993720222</v>
+        <v>-0.0330202563669059</v>
       </c>
       <c r="T225" t="n">
-        <v>-0.00385567170798896</v>
+        <v>-0.00385256319605608</v>
       </c>
       <c r="U225" t="n">
-        <v>-0.0126689134276458</v>
+        <v>-0.0126586995216006</v>
       </c>
       <c r="V225" t="n">
-        <v>-0.00756131692022476</v>
+        <v>-0.00755522085042034</v>
       </c>
       <c r="W225" t="n">
-        <v>0.000144878056461202</v>
+        <v>0.000144761253164285</v>
       </c>
       <c r="X225" t="n">
-        <v>-0.000337176837475607</v>
+        <v>-0.000336904999440068</v>
       </c>
       <c r="Y225" t="n">
-        <v>-0.0022247603694305</v>
+        <v>-0.00205180205619755</v>
       </c>
       <c r="Z225" t="n">
-        <v>-0.0208832061511773</v>
+        <v>-0.0207785345090576</v>
       </c>
       <c r="AA225" t="n">
-        <v>-0.180555248502569</v>
+        <v>-0.180493617930054</v>
       </c>
       <c r="AB225" t="n">
-        <v>-0.0330588434263851</v>
+        <v>-0.032923830200594</v>
       </c>
       <c r="AC225" t="n">
-        <v>-0.103686467710058</v>
+        <v>-0.0601794228942433</v>
       </c>
       <c r="AD225" t="n">
-        <v>-0.193140792142799</v>
+        <v>-0.192563990167768</v>
       </c>
       <c r="AE225" t="n">
-        <v>-0.296827259852856</v>
+        <v>-0.252743413062012</v>
       </c>
       <c r="AF225" t="n">
-        <v>-0.510441351781811</v>
+        <v>-0.46616086119266</v>
       </c>
       <c r="AG225" t="n">
-        <v>-0.429368453212084</v>
+        <v>-0.349182580245328</v>
       </c>
     </row>
     <row r="226">
@@ -23895,94 +23895,94 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.0746870197015686</v>
+        <v>-0.07469487391331</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.0233745550027904</v>
+        <v>-0.0233557100158063</v>
       </c>
       <c r="F226" t="n">
-        <v>-0.0108986859205292</v>
+        <v>-0.0108898992037642</v>
       </c>
       <c r="G226" t="n">
-        <v>-0.108968234836966</v>
+        <v>-0.108783211437244</v>
       </c>
       <c r="H226" t="n">
-        <v>-0.0425885426858066</v>
+        <v>-0.0439793420105501</v>
       </c>
       <c r="I226" t="n">
-        <v>-0.00554683696068209</v>
+        <v>-0.0093477015188063</v>
       </c>
       <c r="J226" t="n">
-        <v>-0.0297231882173789</v>
+        <v>-0.0320059745072298</v>
       </c>
       <c r="K226" t="n">
-        <v>0.00934697351744783</v>
+        <v>0.313723948597613</v>
       </c>
       <c r="L226" t="n">
-        <v>0.00576385253565178</v>
+        <v>0.0103676430409256</v>
       </c>
       <c r="M226" t="n">
-        <v>-0.115098254758107</v>
+        <v>-0.114846670906137</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0157513506396879</v>
+        <v>0.0157386516172787</v>
       </c>
       <c r="O226" t="n">
         <v>0</v>
       </c>
       <c r="P226" t="n">
-        <v>-0.000943146729120787</v>
+        <v>-0.000942386347251175</v>
       </c>
       <c r="Q226" t="n">
         <v>0</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.00290424981115038</v>
+        <v>-0.00288809722678256</v>
       </c>
       <c r="S226" t="n">
-        <v>-0.015046457658202</v>
+        <v>-0.0150343269332025</v>
       </c>
       <c r="T226" t="n">
-        <v>-0.00264947645339668</v>
+        <v>-0.0026473403977895</v>
       </c>
       <c r="U226" t="n">
-        <v>-0.0141950026537342</v>
+        <v>-0.0141835583870854</v>
       </c>
       <c r="V226" t="n">
-        <v>-0.00698663352907316</v>
+        <v>-0.00698100077936296</v>
       </c>
       <c r="W226" t="n">
-        <v>-0.000138468617639899</v>
+        <v>-0.00013835698174793</v>
       </c>
       <c r="X226" t="n">
-        <v>-0.000330579870322486</v>
+        <v>-0.00033031335088061</v>
       </c>
       <c r="Y226" t="n">
-        <v>0.013918279571131</v>
+        <v>0.0140571692473519</v>
       </c>
       <c r="Z226" t="n">
-        <v>-0.0183145018781159</v>
+        <v>-0.0182227051984153</v>
       </c>
       <c r="AA226" t="n">
-        <v>-0.108960260624888</v>
+        <v>-0.108940483132881</v>
       </c>
       <c r="AB226" t="n">
-        <v>-0.0746949939136468</v>
+        <v>-0.0745376022176735</v>
       </c>
       <c r="AC226" t="n">
-        <v>-0.0627477418107679</v>
+        <v>0.238758573601953</v>
       </c>
       <c r="AD226" t="n">
-        <v>-0.146937141748043</v>
+        <v>-0.146418935644025</v>
       </c>
       <c r="AE226" t="n">
-        <v>-0.209684883558811</v>
+        <v>0.0923396379579282</v>
       </c>
       <c r="AF226" t="n">
-        <v>-0.393340138097346</v>
+        <v>-0.0911384473926259</v>
       </c>
       <c r="AG226" t="n">
-        <v>-0.453779160962465</v>
+        <v>-0.293046030280623</v>
       </c>
     </row>
     <row r="227">
@@ -23996,37 +23996,37 @@
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.0497108398868182</v>
+        <v>-0.049716067561774</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.0597633477876564</v>
+        <v>-0.0597151655009326</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.0108060048089205</v>
+        <v>-0.010797292813336</v>
       </c>
       <c r="G227" t="n">
-        <v>-0.117179251372649</v>
+        <v>-0.116980286018221</v>
       </c>
       <c r="H227" t="n">
-        <v>-0.0226108843483538</v>
+        <v>-0.0283413417484063</v>
       </c>
       <c r="I227" t="n">
-        <v>0.00384518734414033</v>
+        <v>0.00515061588158449</v>
       </c>
       <c r="J227" t="n">
-        <v>-0.0221787189559072</v>
+        <v>-0.0244179271970956</v>
       </c>
       <c r="K227" t="n">
-        <v>-0.0104849302831351</v>
+        <v>0.248710448586247</v>
       </c>
       <c r="L227" t="n">
-        <v>-0.00374578744773939</v>
+        <v>0.000775286355814814</v>
       </c>
       <c r="M227" t="n">
-        <v>-0.115466181419274</v>
+        <v>-0.115217076367406</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0160979014280874</v>
+        <v>0.0160849230101946</v>
       </c>
       <c r="O227" t="n">
         <v>0</v>
@@ -24038,52 +24038,52 @@
         <v>0</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.00286703835592285</v>
+        <v>-0.00281209941460832</v>
       </c>
       <c r="S227" t="n">
-        <v>-0.01110004654518</v>
+        <v>-0.011091097487855</v>
       </c>
       <c r="T227" t="n">
-        <v>-0.0022255109234593</v>
+        <v>-0.00222371667649372</v>
       </c>
       <c r="U227" t="n">
-        <v>-0.00976694957479406</v>
+        <v>-0.00975907528424225</v>
       </c>
       <c r="V227" t="n">
-        <v>-0.00641925978369675</v>
+        <v>-0.00641408446091277</v>
       </c>
       <c r="W227" t="n">
-        <v>-0.000173881133351712</v>
+        <v>-0.000173740947252152</v>
       </c>
       <c r="X227" t="n">
-        <v>-0.000324418629319224</v>
+        <v>-0.000324157077180747</v>
       </c>
       <c r="Y227" t="n">
-        <v>0.0295648955934678</v>
+        <v>0.0296712484168984</v>
       </c>
       <c r="Z227" t="n">
-        <v>-0.0158838550994337</v>
+        <v>-0.0158042414048496</v>
       </c>
       <c r="AA227" t="n">
-        <v>-0.120280192483395</v>
+        <v>-0.120228525876043</v>
       </c>
       <c r="AB227" t="n">
-        <v>-0.0466098987760724</v>
+        <v>-0.0464678277039521</v>
       </c>
       <c r="AC227" t="n">
-        <v>-0.0551751336909952</v>
+        <v>0.201877081878145</v>
       </c>
       <c r="AD227" t="n">
-        <v>-0.118564344442876</v>
+        <v>-0.118063117693708</v>
       </c>
       <c r="AE227" t="n">
-        <v>-0.173739478133871</v>
+        <v>0.0838139641844367</v>
       </c>
       <c r="AF227" t="n">
-        <v>-0.340629569393339</v>
+        <v>-0.082882389395558</v>
       </c>
       <c r="AG227" t="n">
-        <v>-0.412202425512547</v>
+        <v>-0.222346833230095</v>
       </c>
     </row>
     <row r="228">
@@ -24097,37 +24097,37 @@
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>-25.9966731038371</v>
+        <v>-25.9994069574028</v>
       </c>
       <c r="E228" t="n">
-        <v>-5.56807187177613</v>
+        <v>-5.56358279200808</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.983334287661941</v>
+        <v>-0.982541505859259</v>
       </c>
       <c r="G228" t="n">
-        <v>-43.9391830544531</v>
+        <v>-43.8645762018965</v>
       </c>
       <c r="H228" t="n">
-        <v>7.55932058078923</v>
+        <v>7.55568596947934</v>
       </c>
       <c r="I228" t="n">
-        <v>3.96968086440281</v>
+        <v>3.97463571453755</v>
       </c>
       <c r="J228" t="n">
-        <v>0.205130407450141</v>
+        <v>0.205179211925802</v>
       </c>
       <c r="K228" t="n">
-        <v>-1.9880218735606</v>
+        <v>-2.0233987421971</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0731107758763327</v>
+        <v>0.0726184192036503</v>
       </c>
       <c r="M228" t="n">
-        <v>-6.47874274540889</v>
+        <v>-6.47022245222973</v>
       </c>
       <c r="N228" t="n">
-        <v>-0.655333811041758</v>
+        <v>-0.65480546912732</v>
       </c>
       <c r="O228" t="n">
         <v>0</v>
@@ -24139,52 +24139,52 @@
         <v>0</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.0608108660150724</v>
+        <v>-0.0607618392002984</v>
       </c>
       <c r="S228" t="n">
-        <v>-0.0702813310806623</v>
+        <v>-0.0702246690064845</v>
       </c>
       <c r="T228" t="n">
-        <v>-0.0028229792848955</v>
+        <v>-0.00282070334818252</v>
       </c>
       <c r="U228" t="n">
-        <v>-0.00669093678269941</v>
+        <v>-0.00668554242902866</v>
       </c>
       <c r="V228" t="n">
-        <v>-0.00575410692962287</v>
+        <v>-0.00574946786504257</v>
       </c>
       <c r="W228" t="n">
-        <v>-0.00724266447627249</v>
+        <v>-0.00723682530980412</v>
       </c>
       <c r="X228" t="n">
-        <v>-0.000257331672680209</v>
+        <v>-0.000257124207253737</v>
       </c>
       <c r="Y228" t="n">
-        <v>-5.13333763467965</v>
+        <v>-5.12106404750091</v>
       </c>
       <c r="Z228" t="n">
-        <v>-0.992522805344507</v>
+        <v>-0.987548042794895</v>
       </c>
       <c r="AA228" t="n">
-        <v>-32.5480792632752</v>
+        <v>-32.5455312552701</v>
       </c>
       <c r="AB228" t="n">
-        <v>-37.3877768950151</v>
+        <v>-37.3184519040291</v>
       </c>
       <c r="AC228" t="n">
-        <v>9.81922075495791</v>
+        <v>9.78472057294924</v>
       </c>
       <c r="AD228" t="n">
-        <v>-13.4137972127167</v>
+        <v>-13.3873761830189</v>
       </c>
       <c r="AE228" t="n">
-        <v>-3.5945764577588</v>
+        <v>-3.6026556100697</v>
       </c>
       <c r="AF228" t="n">
-        <v>-73.530432616049</v>
+        <v>-73.4666387693689</v>
       </c>
       <c r="AG228" t="n">
-        <v>-18.6937109188304</v>
+        <v>-18.5267051168374</v>
       </c>
     </row>
     <row r="229">
@@ -24210,25 +24210,25 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>7.47973446485686</v>
+        <v>7.47613476254268</v>
       </c>
       <c r="I229" t="n">
-        <v>3.92999403038231</v>
+        <v>3.93491824764718</v>
       </c>
       <c r="J229" t="n">
-        <v>0.206150152450045</v>
+        <v>0.206194314755688</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0789964440333787</v>
+        <v>0.0785070722716954</v>
       </c>
       <c r="M229" t="n">
-        <v>-6.32988773307861</v>
+        <v>-6.32154955850699</v>
       </c>
       <c r="N229" t="n">
-        <v>-0.653240838253624</v>
+        <v>-0.652714183731521</v>
       </c>
       <c r="O229" t="n">
         <v>0</v>
@@ -24240,31 +24240,31 @@
         <v>0</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.0510219759138515</v>
+        <v>-0.0509808410784767</v>
       </c>
       <c r="S229" t="n">
-        <v>-0.0598823407630566</v>
+        <v>-0.0598340625420542</v>
       </c>
       <c r="T229" t="n">
-        <v>-0.000296511557720401</v>
+        <v>-0.000296272504765373</v>
       </c>
       <c r="U229" t="n">
-        <v>-0.00304652123165756</v>
+        <v>-0.00304406507140336</v>
       </c>
       <c r="V229" t="n">
-        <v>-0.00318928392646166</v>
+        <v>-0.00318671266835319</v>
       </c>
       <c r="W229" t="n">
-        <v>-0.00610453763212384</v>
+        <v>-0.00609961604400344</v>
       </c>
       <c r="X229" t="n">
-        <v>-0.000252487397195308</v>
+        <v>-0.000252283837310928</v>
       </c>
       <c r="Y229" t="n">
-        <v>-5.09664990509095</v>
+        <v>-5.08450831388733</v>
       </c>
       <c r="Z229" t="n">
-        <v>-0.980027182039327</v>
+        <v>-0.975115050553222</v>
       </c>
       <c r="AA229" t="n">
         <v>0</v>
@@ -24273,19 +24273,19 @@
         <v>0</v>
       </c>
       <c r="AC229" t="n">
-        <v>11.6948750917226</v>
+        <v>11.6957543972172</v>
       </c>
       <c r="AD229" t="n">
-        <v>-13.1835993168846</v>
+        <v>-13.1575809604254</v>
       </c>
       <c r="AE229" t="n">
-        <v>-1.48872422516198</v>
+        <v>-1.46182656320819</v>
       </c>
       <c r="AF229" t="n">
-        <v>-1.48872422516198</v>
+        <v>-1.46182656320819</v>
       </c>
       <c r="AG229" t="n">
-        <v>-18.9382816371754</v>
+        <v>-18.7756215423413</v>
       </c>
     </row>
     <row r="230">
@@ -24311,25 +24311,25 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>3.72482510910696</v>
+        <v>3.72308581198283</v>
       </c>
       <c r="I230" t="n">
-        <v>1.9506537733643</v>
+        <v>1.95308143128669</v>
       </c>
       <c r="J230" t="n">
-        <v>0.212751935398859</v>
+        <v>0.212788371360048</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>0.079005674539112</v>
+        <v>0.0785211596921631</v>
       </c>
       <c r="M230" t="n">
-        <v>-6.33727705385629</v>
+        <v>-6.32901901407193</v>
       </c>
       <c r="N230" t="n">
-        <v>-0.651385152314116</v>
+        <v>-0.650859993879419</v>
       </c>
       <c r="O230" t="n">
         <v>0</v>
@@ -24341,31 +24341,31 @@
         <v>0</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.0472192010288773</v>
+        <v>-0.0471811320590645</v>
       </c>
       <c r="S230" t="n">
-        <v>-0.05444325952377</v>
+        <v>-0.0543993663879659</v>
       </c>
       <c r="T230" t="n">
-        <v>-0.000290912229741492</v>
+        <v>-0.000290677691065468</v>
       </c>
       <c r="U230" t="n">
-        <v>-0.00135693190906252</v>
+        <v>-0.00135583792613273</v>
       </c>
       <c r="V230" t="n">
-        <v>-0.00180129352364007</v>
+        <v>-0.00179984128837811</v>
       </c>
       <c r="W230" t="n">
-        <v>-0.00565961112196649</v>
+        <v>-0.00565504824160724</v>
       </c>
       <c r="X230" t="n">
-        <v>-0.000247801333727411</v>
+        <v>-0.000247601551831748</v>
       </c>
       <c r="Y230" t="n">
-        <v>-5.06189693707436</v>
+        <v>-5.04988247725163</v>
       </c>
       <c r="Z230" t="n">
-        <v>-0.967934760351573</v>
+        <v>-0.963083238985681</v>
       </c>
       <c r="AA230" t="n">
         <v>0</v>
@@ -24374,19 +24374,19 @@
         <v>0</v>
       </c>
       <c r="AC230" t="n">
-        <v>5.96723649240923</v>
+        <v>5.96747677432173</v>
       </c>
       <c r="AD230" t="n">
-        <v>-13.1295129142671</v>
+        <v>-13.1037742293347</v>
       </c>
       <c r="AE230" t="n">
-        <v>-7.1622764218579</v>
+        <v>-7.13629745501298</v>
       </c>
       <c r="AF230" t="n">
-        <v>-7.1622764218579</v>
+        <v>-7.13629745501298</v>
       </c>
       <c r="AG230" t="n">
-        <v>-20.6305157081156</v>
+        <v>-20.5369112942464</v>
       </c>
     </row>
     <row r="231">
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>3.68004468798555</v>
+        <v>3.67829358822138</v>
       </c>
       <c r="I231" t="n">
-        <v>1.93323309366406</v>
+        <v>1.9356462771429</v>
       </c>
       <c r="J231" t="n">
-        <v>0.213535252856517</v>
+        <v>0.215714937252715</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0791029604714899</v>
+        <v>0.0743981649501476</v>
       </c>
       <c r="M231" t="n">
-        <v>-6.2373452305677</v>
+        <v>-6.22922613724164</v>
       </c>
       <c r="N231" t="n">
-        <v>-0.649712123759259</v>
+        <v>-0.649188314150298</v>
       </c>
       <c r="O231" t="n">
         <v>0</v>
@@ -24442,31 +24442,31 @@
         <v>0</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.0435151437635253</v>
+        <v>-0.0434800610713527</v>
       </c>
       <c r="S231" t="n">
-        <v>-0.049367648066053</v>
+        <v>-0.0493278469795669</v>
       </c>
       <c r="T231" t="n">
-        <v>-0.000285495110995738</v>
+        <v>-0.000285264939698356</v>
       </c>
       <c r="U231" t="n">
-        <v>-0.00102771247460543</v>
+        <v>-0.00102688391430963</v>
       </c>
       <c r="V231" t="n">
-        <v>-0.00152138976450238</v>
+        <v>-0.0015201631926893</v>
       </c>
       <c r="W231" t="n">
-        <v>-0.00522814235361085</v>
+        <v>-0.00522392733113907</v>
       </c>
       <c r="X231" t="n">
-        <v>-0.000243215000360488</v>
+        <v>-0.000243018916049339</v>
       </c>
       <c r="Y231" t="n">
-        <v>-5.02864566006922</v>
+        <v>-5.01675451359222</v>
       </c>
       <c r="Z231" t="n">
-        <v>-0.956160451735207</v>
+        <v>-0.951367946030454</v>
       </c>
       <c r="AA231" t="n">
         <v>0</v>
@@ -24475,19 +24475,19 @@
         <v>0</v>
       </c>
       <c r="AC231" t="n">
-        <v>5.90591599497762</v>
+        <v>5.90405296756714</v>
       </c>
       <c r="AD231" t="n">
-        <v>-12.973052212665</v>
+        <v>-12.9476440773594</v>
       </c>
       <c r="AE231" t="n">
-        <v>-7.06713621768742</v>
+        <v>-7.04359110979229</v>
       </c>
       <c r="AF231" t="n">
-        <v>-7.06713621768742</v>
+        <v>-7.04359110979229</v>
       </c>
       <c r="AG231" t="n">
-        <v>-22.3121423701891</v>
+        <v>-22.2770884743456</v>
       </c>
     </row>
     <row r="232">
@@ -24513,19 +24513,19 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>3.63709893264829</v>
+        <v>3.63533561076712</v>
       </c>
       <c r="I232" t="n">
-        <v>1.91579642081249</v>
+        <v>1.91819535810385</v>
       </c>
       <c r="J232" t="n">
-        <v>0.214454588855635</v>
+        <v>0.21664365747437</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0788012591304118</v>
+        <v>0.0737980772391478</v>
       </c>
       <c r="M232" t="n">
         <v>0</v>
@@ -24543,25 +24543,25 @@
         <v>0</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.0258857716469871</v>
+        <v>-0.0258649020719427</v>
       </c>
       <c r="S232" t="n">
-        <v>-0.0432609389738473</v>
+        <v>-0.0432260612261518</v>
       </c>
       <c r="T232" t="n">
-        <v>-0.000280217175542719</v>
+        <v>-0.000279991259411901</v>
       </c>
       <c r="U232" t="n">
-        <v>-0.0010130764988429</v>
+        <v>-0.00101225973833421</v>
       </c>
       <c r="V232" t="n">
-        <v>-0.00125887462261223</v>
+        <v>-0.0012578596952318</v>
       </c>
       <c r="W232" t="n">
-        <v>-0.00311411429267807</v>
+        <v>-0.00311160363768141</v>
       </c>
       <c r="X232" t="n">
-        <v>-0.0000816489444686262</v>
+        <v>-0.0000815831176199186</v>
       </c>
       <c r="Y232" t="n">
         <v>0</v>
@@ -24576,19 +24576,19 @@
         <v>0</v>
       </c>
       <c r="AC232" t="n">
-        <v>5.84615120144682</v>
+        <v>5.84397270358449</v>
       </c>
       <c r="AD232" t="n">
-        <v>-0.074894642154979</v>
+        <v>-0.0748342607463738</v>
       </c>
       <c r="AE232" t="n">
-        <v>5.77125655929184</v>
+        <v>5.76913844283811</v>
       </c>
       <c r="AF232" t="n">
-        <v>5.77125655929184</v>
+        <v>5.76913844283811</v>
       </c>
       <c r="AG232" t="n">
-        <v>-2.48672007635387</v>
+        <v>-2.46814417129384</v>
       </c>
     </row>
     <row r="233">
@@ -24614,19 +24614,19 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>3.59508129520808</v>
+        <v>3.59330575029825</v>
       </c>
       <c r="I233" t="n">
-        <v>1.89838206728357</v>
+        <v>1.90076801251147</v>
       </c>
       <c r="J233" t="n">
-        <v>0.214569204054454</v>
+        <v>0.216759442620338</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0779385158966828</v>
+        <v>0.0729901105581214</v>
       </c>
       <c r="M233" t="n">
         <v>0</v>
@@ -24644,25 +24644,25 @@
         <v>0</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.0142887150415562</v>
+        <v>-0.0142771952222935</v>
       </c>
       <c r="S233" t="n">
-        <v>-0.0440851341370034</v>
+        <v>-0.0440495919083319</v>
       </c>
       <c r="T233" t="n">
-        <v>0.000201198714492062</v>
+        <v>0.000201036504466872</v>
       </c>
       <c r="U233" t="n">
-        <v>-0.00100810594050651</v>
+        <v>-0.00100729318735142</v>
       </c>
       <c r="V233" t="n">
-        <v>-0.000244666063120219</v>
+        <v>-0.000244468808936154</v>
       </c>
       <c r="W233" t="n">
-        <v>-0.00172578465217914</v>
+        <v>-0.00172439329352851</v>
       </c>
       <c r="X233" t="n">
-        <v>-0.0000801694865757069</v>
+        <v>-0.0000801048524925828</v>
       </c>
       <c r="Y233" t="n">
         <v>0</v>
@@ -24677,19 +24677,19 @@
         <v>0</v>
       </c>
       <c r="AC233" t="n">
-        <v>5.78597108244278</v>
+        <v>5.78382331598819</v>
       </c>
       <c r="AD233" t="n">
-        <v>-0.0612313766064492</v>
+        <v>-0.0611820107684672</v>
       </c>
       <c r="AE233" t="n">
-        <v>5.72473970583633</v>
+        <v>5.72264130521972</v>
       </c>
       <c r="AF233" t="n">
-        <v>5.72473970583633</v>
+        <v>5.72264130521972</v>
       </c>
       <c r="AG233" t="n">
-        <v>-0.683354093604288</v>
+        <v>-0.672027204186864</v>
       </c>
     </row>
     <row r="234">
@@ -24715,19 +24715,19 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>3.59074278735199</v>
+        <v>3.58911068624398</v>
       </c>
       <c r="I234" t="n">
-        <v>1.87916390490552</v>
+        <v>1.88153531993181</v>
       </c>
       <c r="J234" t="n">
-        <v>0.214703735083194</v>
+        <v>0.216895346889235</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0771999785498347</v>
+        <v>0.0722984637904411</v>
       </c>
       <c r="M234" t="n">
         <v>0</v>
@@ -24745,25 +24745,25 @@
         <v>0</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.0140284435539684</v>
+        <v>-0.0140171335702639</v>
       </c>
       <c r="S234" t="n">
-        <v>-0.0428063087951099</v>
+        <v>-0.0427717975784478</v>
       </c>
       <c r="T234" t="n">
-        <v>0.000197576319552262</v>
+        <v>0.000197417029967074</v>
       </c>
       <c r="U234" t="n">
-        <v>-0.00101306252409431</v>
+        <v>-0.00101224577485231</v>
       </c>
       <c r="V234" t="n">
         <v>0</v>
       </c>
       <c r="W234" t="n">
-        <v>-0.0016943491775845</v>
+        <v>-0.00169298316277933</v>
       </c>
       <c r="X234" t="n">
-        <v>-0.0000787101594161419</v>
+        <v>-0.0000786467018688416</v>
       </c>
       <c r="Y234" t="n">
         <v>0</v>
@@ -24778,19 +24778,19 @@
         <v>0</v>
       </c>
       <c r="AC234" t="n">
-        <v>5.76181040589054</v>
+        <v>5.75983981685547</v>
       </c>
       <c r="AD234" t="n">
-        <v>-0.059423297890621</v>
+        <v>-0.0593753897582451</v>
       </c>
       <c r="AE234" t="n">
-        <v>5.70238710799992</v>
+        <v>5.70046442709722</v>
       </c>
       <c r="AF234" t="n">
-        <v>5.70238710799992</v>
+        <v>5.70046442709722</v>
       </c>
       <c r="AG234" t="n">
-        <v>2.53281178886017</v>
+        <v>2.53716326634069</v>
       </c>
     </row>
     <row r="235">
@@ -24816,19 +24816,19 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>3.54934725146897</v>
+        <v>3.54770116921256</v>
       </c>
       <c r="I235" t="n">
-        <v>1.86075849467218</v>
+        <v>1.86311329528518</v>
       </c>
       <c r="J235" t="n">
-        <v>0.214940017414792</v>
+        <v>0.217134041098518</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0764877178539065</v>
+        <v>0.0716314253391198</v>
       </c>
       <c r="M235" t="n">
         <v>0</v>
@@ -24846,25 +24846,25 @@
         <v>0</v>
       </c>
       <c r="R235" t="n">
-        <v>-0.0110395008863489</v>
+        <v>-0.0110306006420238</v>
       </c>
       <c r="S235" t="n">
-        <v>-0.0400219444374785</v>
+        <v>-0.0399896780254799</v>
       </c>
       <c r="T235" t="n">
-        <v>0.0001940648481137</v>
+        <v>0.000193908389539993</v>
       </c>
       <c r="U235" t="n">
-        <v>-0.000598146280302147</v>
+        <v>-0.000597664044004363</v>
       </c>
       <c r="V235" t="n">
         <v>0</v>
       </c>
       <c r="W235" t="n">
-        <v>-0.00133334601060838</v>
+        <v>-0.00133227104305447</v>
       </c>
       <c r="X235" t="n">
-        <v>-0.0000772765062044422</v>
+        <v>-0.0000772142044941669</v>
       </c>
       <c r="Y235" t="n">
         <v>0</v>
@@ -24879,19 +24879,19 @@
         <v>0</v>
       </c>
       <c r="AC235" t="n">
-        <v>5.70153348140985</v>
+        <v>5.69957993093539</v>
       </c>
       <c r="AD235" t="n">
-        <v>-0.0528761492728286</v>
+        <v>-0.0528335195695167</v>
       </c>
       <c r="AE235" t="n">
-        <v>5.64865733213702</v>
+        <v>5.64674641136587</v>
       </c>
       <c r="AF235" t="n">
-        <v>5.64865733213702</v>
+        <v>5.64674641136587</v>
       </c>
       <c r="AG235" t="n">
-        <v>5.71176017631628</v>
+        <v>5.70974764663023</v>
       </c>
     </row>
     <row r="236">
@@ -24923,13 +24923,13 @@
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>0.215115378206807</v>
+        <v>0.217311191904954</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0755112705638467</v>
+        <v>0.0707169738020887</v>
       </c>
       <c r="M236" t="n">
         <v>0</v>
@@ -24950,13 +24950,13 @@
         <v>0</v>
       </c>
       <c r="S236" t="n">
-        <v>-0.0315181732875364</v>
+        <v>-0.0314927627689064</v>
       </c>
       <c r="T236" t="n">
-        <v>0.000190531615948573</v>
+        <v>0.000190378005930235</v>
       </c>
       <c r="U236" t="n">
-        <v>-0.000596415516750555</v>
+        <v>-0.0005959346758255</v>
       </c>
       <c r="V236" t="n">
         <v>0</v>
@@ -24980,19 +24980,19 @@
         <v>0</v>
       </c>
       <c r="AC236" t="n">
-        <v>0.290626648770653</v>
+        <v>0.288028165707042</v>
       </c>
       <c r="AD236" t="n">
-        <v>-0.0319240571883384</v>
+        <v>-0.0318983194388017</v>
       </c>
       <c r="AE236" t="n">
-        <v>0.258702591582315</v>
+        <v>0.256129846268241</v>
       </c>
       <c r="AF236" t="n">
-        <v>0.258702591582315</v>
+        <v>0.256129846268241</v>
       </c>
       <c r="AG236" t="n">
-        <v>4.33362168438889</v>
+        <v>4.33149549748776</v>
       </c>
     </row>
     <row r="237">
@@ -25024,13 +25024,13 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>0.210647191454437</v>
+        <v>0.212797395648705</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0741600936690052</v>
+        <v>0.0694515846706251</v>
       </c>
       <c r="M237" t="n">
         <v>0</v>
@@ -25051,13 +25051,13 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>-0.0326375601420618</v>
+        <v>-0.0326112471536008</v>
       </c>
       <c r="T237" t="n">
-        <v>0.000440344750956803</v>
+        <v>0.000439989737092398</v>
       </c>
       <c r="U237" t="n">
-        <v>-0.000596950374205721</v>
+        <v>-0.000596469102068959</v>
       </c>
       <c r="V237" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="AC237" t="n">
-        <v>0.284807285123442</v>
+        <v>0.28224898031933</v>
       </c>
       <c r="AD237" t="n">
-        <v>-0.0327941657653108</v>
+        <v>-0.0327677265185774</v>
       </c>
       <c r="AE237" t="n">
-        <v>0.252013119358131</v>
+        <v>0.249481253800753</v>
       </c>
       <c r="AF237" t="n">
-        <v>0.252013119358131</v>
+        <v>0.249481253800753</v>
       </c>
       <c r="AG237" t="n">
-        <v>2.96544003776935</v>
+        <v>2.96320548463302</v>
       </c>
     </row>
     <row r="238">
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>0.206223551999921</v>
+        <v>0.208328601411715</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0724697447368776</v>
+        <v>0.0678685579216767</v>
       </c>
       <c r="M238" t="n">
         <v>0</v>
@@ -25152,13 +25152,13 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>-0.0315773023369114</v>
+        <v>-0.0315518441473775</v>
       </c>
       <c r="T238" t="n">
         <v>0</v>
       </c>
       <c r="U238" t="n">
-        <v>-0.00049846922648622</v>
+        <v>-0.000498067351623405</v>
       </c>
       <c r="V238" t="n">
         <v>0</v>
@@ -25182,19 +25182,19 @@
         <v>0</v>
       </c>
       <c r="AC238" t="n">
-        <v>0.278693296736799</v>
+        <v>0.276197159333392</v>
       </c>
       <c r="AD238" t="n">
-        <v>-0.0320757715633976</v>
+        <v>-0.0320499114990009</v>
       </c>
       <c r="AE238" t="n">
-        <v>0.246617525173401</v>
+        <v>0.244147247834391</v>
       </c>
       <c r="AF238" t="n">
-        <v>0.246617525173401</v>
+        <v>0.244147247834391</v>
       </c>
       <c r="AG238" t="n">
-        <v>1.60149764206272</v>
+        <v>1.59912618981731</v>
       </c>
     </row>
     <row r="239">
@@ -25226,13 +25226,13 @@
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>0.201857645924672</v>
+        <v>0.20391812987376</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0710623965627998</v>
+        <v>0.0665505638896133</v>
       </c>
       <c r="M239" t="n">
         <v>0</v>
@@ -25253,13 +25253,13 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>-0.0301440647686775</v>
+        <v>-0.0301197620810693</v>
       </c>
       <c r="T239" t="n">
         <v>0</v>
       </c>
       <c r="U239" t="n">
-        <v>-0.000393718029927075</v>
+        <v>-0.000393400607364442</v>
       </c>
       <c r="V239" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="AC239" t="n">
-        <v>0.272920042487471</v>
+        <v>0.270468693763373</v>
       </c>
       <c r="AD239" t="n">
-        <v>-0.0305377827986046</v>
+        <v>-0.0305131626884338</v>
       </c>
       <c r="AE239" t="n">
-        <v>0.242382259688867</v>
+        <v>0.239955531074939</v>
       </c>
       <c r="AF239" t="n">
-        <v>0.242382259688867</v>
+        <v>0.239955531074939</v>
       </c>
       <c r="AG239" t="n">
-        <v>0.249928873950678</v>
+        <v>0.247428469744576</v>
       </c>
     </row>
     <row r="240">
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>-0.00996221959120591</v>
+        <v>-0.00995418787045201</v>
       </c>
       <c r="T240" t="n">
         <v>0</v>
       </c>
       <c r="U240" t="n">
-        <v>-0.000291738721547649</v>
+        <v>-0.000291503516539055</v>
       </c>
       <c r="V240" t="n">
         <v>0</v>
@@ -25387,16 +25387,16 @@
         <v>0</v>
       </c>
       <c r="AD240" t="n">
-        <v>-0.0102539583127536</v>
+        <v>-0.0102456913869911</v>
       </c>
       <c r="AE240" t="n">
-        <v>-0.0102539583127536</v>
+        <v>-0.0102456913869911</v>
       </c>
       <c r="AF240" t="n">
-        <v>-0.0102539583127536</v>
+        <v>-0.0102456913869911</v>
       </c>
       <c r="AG240" t="n">
-        <v>0.18268973647691</v>
+        <v>0.180834585330768</v>
       </c>
     </row>
     <row r="241">
@@ -25455,13 +25455,13 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>-0.0102247440615036</v>
+        <v>-0.0102165006887964</v>
       </c>
       <c r="T241" t="n">
         <v>0</v>
       </c>
       <c r="U241" t="n">
-        <v>-0.000192543254273639</v>
+        <v>-0.000192388022436275</v>
       </c>
       <c r="V241" t="n">
         <v>0</v>
@@ -25488,16 +25488,16 @@
         <v>0</v>
       </c>
       <c r="AD241" t="n">
-        <v>-0.0104172873157773</v>
+        <v>-0.0104088887112326</v>
       </c>
       <c r="AE241" t="n">
-        <v>-0.0104172873157773</v>
+        <v>-0.0104088887112326</v>
       </c>
       <c r="AF241" t="n">
-        <v>-0.0104172873157773</v>
+        <v>-0.0104088887112326</v>
       </c>
       <c r="AG241" t="n">
-        <v>0.117082134808433</v>
+        <v>0.115862049702772</v>
       </c>
     </row>
     <row r="242">
@@ -25556,13 +25556,13 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>-0.00981214806642199</v>
+        <v>-0.00980423733603265</v>
       </c>
       <c r="T242" t="n">
         <v>0</v>
       </c>
       <c r="U242" t="n">
-        <v>-0.000096084728157171</v>
+        <v>-0.0000960072629198103</v>
       </c>
       <c r="V242" t="n">
         <v>0</v>
@@ -25589,16 +25589,16 @@
         <v>0</v>
       </c>
       <c r="AD242" t="n">
-        <v>-0.00990823279457916</v>
+        <v>-0.00990024459895246</v>
       </c>
       <c r="AE242" t="n">
-        <v>-0.00990823279457916</v>
+        <v>-0.00990024459895246</v>
       </c>
       <c r="AF242" t="n">
-        <v>-0.00990823279457916</v>
+        <v>-0.00990024459895246</v>
       </c>
       <c r="AG242" t="n">
-        <v>0.0529506953164382</v>
+        <v>0.0523501765944357</v>
       </c>
     </row>
     <row r="243">
@@ -25657,7 +25657,7 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>-0.00962810711024563</v>
+        <v>-0.0096203447569879</v>
       </c>
       <c r="T243" t="n">
         <v>0</v>
@@ -25690,16 +25690,16 @@
         <v>0</v>
       </c>
       <c r="AD243" t="n">
-        <v>-0.00962810711024563</v>
+        <v>-0.0096203447569879</v>
       </c>
       <c r="AE243" t="n">
-        <v>-0.00962810711024563</v>
+        <v>-0.0096203447569879</v>
       </c>
       <c r="AF243" t="n">
-        <v>-0.00962810711024563</v>
+        <v>-0.0096203447569879</v>
       </c>
       <c r="AG243" t="n">
-        <v>-0.0100518963833399</v>
+        <v>-0.0100437923635461</v>
       </c>
     </row>
     <row r="244">
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="AG244" t="n">
-        <v>-0.00748840680515151</v>
+        <v>-0.00748236951679831</v>
       </c>
     </row>
     <row r="245">
@@ -25901,7 +25901,7 @@
         <v>0</v>
       </c>
       <c r="AG245" t="n">
-        <v>-0.00488408497620719</v>
+        <v>-0.00488014733899015</v>
       </c>
     </row>
     <row r="246">
@@ -26002,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="AG246" t="n">
-        <v>-0.0024070267775624</v>
+        <v>-0.00240508618925203</v>
       </c>
     </row>
     <row r="247">
@@ -26103,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="AG247" t="n">
-        <v>-0.000000000000000990527104782757</v>
+        <v>-0.00000000000000506105574116233</v>
       </c>
     </row>
     <row r="248">
@@ -26204,7 +26204,7 @@
         <v>0</v>
       </c>
       <c r="AG248" t="n">
-        <v>-0.000000000000000990527104782757</v>
+        <v>-0.00000000000000506105574116233</v>
       </c>
     </row>
     <row r="249">
@@ -26305,7 +26305,7 @@
         <v>0</v>
       </c>
       <c r="AG249" t="n">
-        <v>-0.000000000000000990527104782757</v>
+        <v>-0.00000000000000506105574116233</v>
       </c>
     </row>
     <row r="250">
@@ -26406,7 +26406,7 @@
         <v>0</v>
       </c>
       <c r="AG250" t="n">
-        <v>-0.000000000000000990527104782757</v>
+        <v>-0.00000000000000506105574116233</v>
       </c>
     </row>
     <row r="251">
@@ -26507,7 +26507,7 @@
         <v>0</v>
       </c>
       <c r="AG251" t="n">
-        <v>-0.000000000000000990527104782757</v>
+        <v>-0.00000000000000506105574116233</v>
       </c>
     </row>
     <row r="252">
@@ -26608,7 +26608,7 @@
         <v>0</v>
       </c>
       <c r="AG252" t="n">
-        <v>-0.000000000000000990527104782757</v>
+        <v>-0.00000000000000506105574116233</v>
       </c>
     </row>
     <row r="253">
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="AG253" t="n">
-        <v>-0.000000000000000990527104782757</v>
+        <v>-0.00000000000000506105574116233</v>
       </c>
     </row>
     <row r="254">
@@ -26810,7 +26810,7 @@
         <v>0</v>
       </c>
       <c r="AG254" t="n">
-        <v>-0.000000000000000990527104782757</v>
+        <v>-0.00000000000000506105574116233</v>
       </c>
     </row>
     <row r="255">
@@ -26911,7 +26911,7 @@
         <v>0</v>
       </c>
       <c r="AG255" t="n">
-        <v>-0.000000000000000990527104782757</v>
+        <v>-0.00000000000000506105574116233</v>
       </c>
     </row>
     <row r="256">
@@ -27012,7 +27012,7 @@
         <v>0</v>
       </c>
       <c r="AG256" t="n">
-        <v>-0.000000000000000990527104782757</v>
+        <v>-0.00000000000000506105574116233</v>
       </c>
     </row>
     <row r="257">
@@ -27113,7 +27113,7 @@
         <v>0</v>
       </c>
       <c r="AG257" t="n">
-        <v>-0.000000000000000990527104782757</v>
+        <v>-0.00000000000000506105574116233</v>
       </c>
     </row>
     <row r="258">
@@ -27214,7 +27214,7 @@
         <v>0</v>
       </c>
       <c r="AG258" t="n">
-        <v>-0.000000000000000990527104782757</v>
+        <v>-0.00000000000000506105574116233</v>
       </c>
     </row>
     <row r="259">
@@ -27315,7 +27315,7 @@
         <v>0</v>
       </c>
       <c r="AG259" t="n">
-        <v>-0.000000000000000990527104782757</v>
+        <v>-0.00000000000000506105574116233</v>
       </c>
     </row>
     <row r="260">
@@ -27416,7 +27416,7 @@
         <v>0</v>
       </c>
       <c r="AG260" t="n">
-        <v>-0.000000000000000990527104782757</v>
+        <v>-0.00000000000000506105574116233</v>
       </c>
     </row>
   </sheetData>

--- a/results/08-2024/beta/contributions-08-2024.xlsx
+++ b/results/08-2024/beta/contributions-08-2024.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brookingsinstitution-my.sharepoint.com/personal/gnabors_brookings_edu/Documents/Documents/GitHub/fim/results/08-2024/beta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="11_B89231273CB969E78CB6AAC113DC08157AD8EB72" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F960055-D499-4571-855F-C94D8A3ED1DF}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="11_B89231273CB969E78CB6AAC113DC08157AD8EB72" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDA39169-13FB-4E00-8476-0D64573E21BB}"/>
   <bookViews>
     <workbookView xWindow="-28860" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="New" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="294">
   <si>
     <t>date</t>
   </si>
@@ -930,12 +932,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -950,8 +964,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1248,17 +1267,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG260"/>
+  <dimension ref="A1:AJ260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AD191" sqref="AD191"/>
+      <selection pane="bottomLeft" activeCell="AJ221" sqref="AJ221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="32" max="32" width="10.90625" style="2"/>
+    <col min="34" max="34" width="10.90625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1352,14 +1375,17 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="AG1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1370,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1464,11 +1490,14 @@
       <c r="AE3">
         <v>-4.8820680659279603</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="2">
         <v>-6.74292076780951</v>
       </c>
+      <c r="AH3" s="2">
+        <v>-6.74292076780951</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1562,11 +1591,14 @@
       <c r="AE4">
         <v>0.55286898490324698</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="2">
         <v>0.201423999284668</v>
       </c>
+      <c r="AH4" s="2">
+        <v>0.201423999284668</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1660,11 +1692,14 @@
       <c r="AE5">
         <v>0.80775866777175898</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="2">
         <v>0.113766380313492</v>
       </c>
+      <c r="AH5" s="2">
+        <v>0.113766380313492</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1758,14 +1793,17 @@
       <c r="AE6">
         <v>-4.4303525483899397</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="2">
         <v>-6.6185327122228701</v>
       </c>
       <c r="AG6">
         <v>-3.2615657751085601</v>
       </c>
+      <c r="AH6" s="2">
+        <v>-6.6185327122228701</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1859,14 +1897,17 @@
       <c r="AE7">
         <v>-4.4512386340920704</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="2">
         <v>-5.4128240017786604</v>
       </c>
       <c r="AG7">
         <v>-2.9290415836008399</v>
       </c>
+      <c r="AH7" s="2">
+        <v>-5.4128240017786604</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1960,14 +2001,17 @@
       <c r="AE8">
         <v>-4.4782777359641699</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="2">
         <v>-5.3504600521664196</v>
       </c>
       <c r="AG8">
         <v>-4.3170125964636199</v>
       </c>
+      <c r="AH8" s="2">
+        <v>-5.3504600521664196</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -2061,14 +2105,17 @@
       <c r="AE9">
         <v>-4.7117770459800603</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="2">
         <v>-6.1615765486793999</v>
       </c>
       <c r="AG9">
         <v>-5.8858483287118402</v>
       </c>
+      <c r="AH9" s="2">
+        <v>-6.1615765486793999</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2162,14 +2209,17 @@
       <c r="AE10">
         <v>-0.357322424744485</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="2">
         <v>-0.63176306487351397</v>
       </c>
       <c r="AG10">
         <v>-4.3891559168744996</v>
       </c>
+      <c r="AH10" s="2">
+        <v>-0.63176306487351397</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2263,14 +2313,17 @@
       <c r="AE11">
         <v>-1.0474657627826001</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="2">
         <v>-1.41528159782361</v>
       </c>
       <c r="AG11">
         <v>-3.3897703158857402</v>
       </c>
+      <c r="AH11" s="2">
+        <v>-1.41528159782361</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2364,14 +2417,17 @@
       <c r="AE12">
         <v>-0.662390221490463</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="2">
         <v>-3.0393577590944099</v>
       </c>
       <c r="AG12">
         <v>-2.8119947426177299</v>
       </c>
+      <c r="AH12" s="2">
+        <v>-3.0393577590944099</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -2465,14 +2521,17 @@
       <c r="AE13">
         <v>-0.23159447764822</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="2">
         <v>-0.159035881905356</v>
       </c>
       <c r="AG13">
         <v>-1.31135957592422</v>
       </c>
+      <c r="AH13" s="2">
+        <v>-0.159035881905356</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2566,14 +2625,17 @@
       <c r="AE14">
         <v>-0.25574323371992702</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="2">
         <v>-0.16267374735715701</v>
       </c>
       <c r="AG14">
         <v>-1.19408724654513</v>
       </c>
+      <c r="AH14" s="2">
+        <v>-0.16267374735715701</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2667,14 +2729,17 @@
       <c r="AE15">
         <v>0.15352792237938101</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="2">
         <v>-1.19793120936264</v>
       </c>
       <c r="AG15">
         <v>-1.13974964942989</v>
       </c>
+      <c r="AH15" s="2">
+        <v>-1.19793120936264</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -2768,14 +2833,17 @@
       <c r="AE16">
         <v>0.23225513479309201</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="2">
         <v>-1.54993929466123</v>
       </c>
       <c r="AG16">
         <v>-0.76739503332159598</v>
       </c>
+      <c r="AH16" s="2">
+        <v>-1.54993929466123</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2869,14 +2937,17 @@
       <c r="AE17">
         <v>-0.31947177759112599</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="2">
         <v>-0.390496876832785</v>
       </c>
       <c r="AG17">
         <v>-0.82526028205345303</v>
       </c>
+      <c r="AH17" s="2">
+        <v>-0.390496876832785</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2970,14 +3041,17 @@
       <c r="AE18">
         <v>0.39010832486156999</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="2">
         <v>1.1919362078542199</v>
       </c>
       <c r="AG18">
         <v>-0.48660779325060899</v>
       </c>
+      <c r="AH18" s="2">
+        <v>1.1919362078542199</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -3071,14 +3145,17 @@
       <c r="AE19">
         <v>0.60320246906877695</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="2">
         <v>0.29188531555126301</v>
       </c>
       <c r="AG19">
         <v>-0.11415366202213301</v>
       </c>
+      <c r="AH19" s="2">
+        <v>0.29188531555126301</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -3172,14 +3249,17 @@
       <c r="AE20">
         <v>0.63991166263521704</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="2">
         <v>5.59497619256588E-2</v>
       </c>
       <c r="AG20">
         <v>0.28731860212458799</v>
       </c>
+      <c r="AH20" s="2">
+        <v>5.59497619256588E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -3273,14 +3353,17 @@
       <c r="AE21">
         <v>1.02605456282415</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="2">
         <v>0.74669993358919295</v>
       </c>
       <c r="AG21">
         <v>0.57161780473008295</v>
       </c>
+      <c r="AH21" s="2">
+        <v>0.74669993358919295</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -3374,14 +3457,17 @@
       <c r="AE22">
         <v>1.67375828588079</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="2">
         <v>1.92160634822869</v>
       </c>
       <c r="AG22">
         <v>0.75403533982369997</v>
       </c>
+      <c r="AH22" s="2">
+        <v>1.92160634822869</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3475,14 +3561,17 @@
       <c r="AE23">
         <v>2.9857896785465301</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="2">
         <v>1.48312039358745</v>
       </c>
       <c r="AG23">
         <v>1.05184410933275</v>
       </c>
+      <c r="AH23" s="2">
+        <v>1.48312039358745</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -3576,14 +3665,17 @@
       <c r="AE24">
         <v>1.4810015548158799</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="2">
         <v>2.4945887871952102</v>
       </c>
       <c r="AG24">
         <v>1.66150386565013</v>
       </c>
+      <c r="AH24" s="2">
+        <v>2.4945887871952102</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -3677,14 +3769,17 @@
       <c r="AE25">
         <v>0.29604823954451098</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="2">
         <v>0.411803277552029</v>
       </c>
       <c r="AG25">
         <v>1.5777797016408399</v>
       </c>
+      <c r="AH25" s="2">
+        <v>0.411803277552029</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3778,14 +3873,17 @@
       <c r="AE26">
         <v>0.32785640698341501</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="2">
         <v>-0.21237652448870201</v>
       </c>
       <c r="AG26">
         <v>1.0442839834614901</v>
       </c>
+      <c r="AH26" s="2">
+        <v>-0.21237652448870201</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3879,14 +3977,17 @@
       <c r="AE27">
         <v>-0.33920859282840599</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="2">
         <v>-1.9921063300903501</v>
       </c>
       <c r="AG27">
         <v>0.17547730254204399</v>
       </c>
+      <c r="AH27" s="2">
+        <v>-1.9921063300903501</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3980,14 +4081,17 @@
       <c r="AE28">
         <v>2.01660891345645E-2</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" s="2">
         <v>-0.90983146813599503</v>
       </c>
       <c r="AG28">
         <v>-0.67562776129075597</v>
       </c>
+      <c r="AH28" s="2">
+        <v>-0.90983146813599503</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -4081,14 +4185,17 @@
       <c r="AE29">
         <v>-8.8527324769520702E-2</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" s="2">
         <v>-0.80383678281858295</v>
       </c>
       <c r="AG29">
         <v>-0.979537776383409</v>
       </c>
+      <c r="AH29" s="2">
+        <v>-0.80383678281858295</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -4182,14 +4289,17 @@
       <c r="AE30">
         <v>-0.36820804905662502</v>
       </c>
-      <c r="AF30">
+      <c r="AF30" s="2">
         <v>-0.31190304102406902</v>
       </c>
       <c r="AG30">
         <v>-1.00441940551725</v>
       </c>
+      <c r="AH30" s="2">
+        <v>-0.31190304102406902</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -4283,14 +4393,17 @@
       <c r="AE31">
         <v>-0.86160120421115205</v>
       </c>
-      <c r="AF31">
+      <c r="AF31" s="2">
         <v>-0.78133670552066004</v>
       </c>
       <c r="AG31">
         <v>-0.70172699937482796</v>
       </c>
+      <c r="AH31" s="2">
+        <v>-0.78133670552066004</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -4384,14 +4497,17 @@
       <c r="AE32">
         <v>-0.49210944315828598</v>
       </c>
-      <c r="AF32">
+      <c r="AF32" s="2">
         <v>-0.84238371918230504</v>
       </c>
       <c r="AG32">
         <v>-0.68486506213640497</v>
       </c>
+      <c r="AH32" s="2">
+        <v>-0.84238371918230504</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -4485,14 +4601,17 @@
       <c r="AE33">
         <v>-0.46905587312432501</v>
       </c>
-      <c r="AF33">
+      <c r="AF33" s="2">
         <v>-1.36228662832626</v>
       </c>
       <c r="AG33">
         <v>-0.82447752351332504</v>
       </c>
+      <c r="AH33" s="2">
+        <v>-1.36228662832626</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -4586,14 +4705,17 @@
       <c r="AE34">
         <v>-0.42859294516756302</v>
       </c>
-      <c r="AF34">
+      <c r="AF34" s="2">
         <v>-1.1297862210370799</v>
       </c>
       <c r="AG34">
         <v>-1.02894831851658</v>
       </c>
+      <c r="AH34" s="2">
+        <v>-1.1297862210370799</v>
+      </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -4687,14 +4809,17 @@
       <c r="AE35">
         <v>-0.62783817489567595</v>
       </c>
-      <c r="AF35">
+      <c r="AF35" s="2">
         <v>0.75601481362164902</v>
       </c>
       <c r="AG35">
         <v>-0.64461043873099999</v>
       </c>
+      <c r="AH35" s="2">
+        <v>0.75601481362164902</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -4788,14 +4913,17 @@
       <c r="AE36">
         <v>-0.50575452523388598</v>
       </c>
-      <c r="AF36">
+      <c r="AF36" s="2">
         <v>-0.44664720112485901</v>
       </c>
       <c r="AG36">
         <v>-0.54567630921663901</v>
       </c>
+      <c r="AH36" s="2">
+        <v>-0.44664720112485901</v>
+      </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -4889,14 +5017,17 @@
       <c r="AE37">
         <v>-0.43748491727157002</v>
       </c>
-      <c r="AF37">
+      <c r="AF37" s="2">
         <v>-0.43605655330614301</v>
       </c>
       <c r="AG37">
         <v>-0.31411879046160901</v>
       </c>
+      <c r="AH37" s="2">
+        <v>-0.43605655330614301</v>
+      </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -4990,14 +5121,17 @@
       <c r="AE38">
         <v>-0.31701434791435101</v>
       </c>
-      <c r="AF38">
+      <c r="AF38" s="2">
         <v>-1.8534676726922701</v>
       </c>
       <c r="AG38">
         <v>-0.49503915337540699</v>
       </c>
+      <c r="AH38" s="2">
+        <v>-1.8534676726922701</v>
+      </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -5091,14 +5225,17 @@
       <c r="AE39">
         <v>3.1880928280388E-2</v>
       </c>
-      <c r="AF39">
+      <c r="AF39" s="2">
         <v>0.12892236158069501</v>
       </c>
       <c r="AG39">
         <v>-0.65181226638564504</v>
       </c>
+      <c r="AH39" s="2">
+        <v>0.12892236158069501</v>
+      </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -5192,14 +5329,17 @@
       <c r="AE40">
         <v>6.1929800994181702E-2</v>
       </c>
-      <c r="AF40">
+      <c r="AF40" s="2">
         <v>-0.35184740102109602</v>
       </c>
       <c r="AG40">
         <v>-0.62811231635970499</v>
       </c>
+      <c r="AH40" s="2">
+        <v>-0.35184740102109602</v>
+      </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -5293,14 +5433,17 @@
       <c r="AE41">
         <v>0.13633777223609</v>
       </c>
-      <c r="AF41">
+      <c r="AF41" s="2">
         <v>6.0641562339421598E-2</v>
       </c>
       <c r="AG41">
         <v>-0.50393778744831397</v>
       </c>
+      <c r="AH41" s="2">
+        <v>6.0641562339421598E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -5394,14 +5537,17 @@
       <c r="AE42">
         <v>0.65341932519229795</v>
       </c>
-      <c r="AF42">
+      <c r="AF42" s="2">
         <v>1.33317259096175</v>
       </c>
       <c r="AG42">
         <v>0.292722278465191</v>
       </c>
+      <c r="AH42" s="2">
+        <v>1.33317259096175</v>
+      </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -5495,14 +5641,17 @@
       <c r="AE43">
         <v>0.73407928048892401</v>
       </c>
-      <c r="AF43">
+      <c r="AF43" s="2">
         <v>0.40674051799514599</v>
       </c>
       <c r="AG43">
         <v>0.36217681756880399</v>
       </c>
+      <c r="AH43" s="2">
+        <v>0.40674051799514599</v>
+      </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -5596,14 +5745,17 @@
       <c r="AE44">
         <v>1.00074729586238</v>
       </c>
-      <c r="AF44">
+      <c r="AF44" s="2">
         <v>-0.59521451285524096</v>
       </c>
       <c r="AG44">
         <v>0.30133503961026797</v>
       </c>
+      <c r="AH44" s="2">
+        <v>-0.59521451285524096</v>
+      </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -5697,14 +5849,17 @@
       <c r="AE45">
         <v>0.57577839823667198</v>
       </c>
-      <c r="AF45">
+      <c r="AF45" s="2">
         <v>9.7744057855468594E-2</v>
       </c>
       <c r="AG45">
         <v>0.31061066348927902</v>
       </c>
+      <c r="AH45" s="2">
+        <v>9.7744057855468594E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -5798,14 +5953,17 @@
       <c r="AE46">
         <v>-0.15039168256749899</v>
       </c>
-      <c r="AF46">
+      <c r="AF46" s="2">
         <v>0.48768950782043202</v>
       </c>
       <c r="AG46">
         <v>9.9239892703950103E-2</v>
       </c>
+      <c r="AH46" s="2">
+        <v>0.48768950782043202</v>
+      </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -5899,14 +6057,17 @@
       <c r="AE47">
         <v>-0.138313277921151</v>
       </c>
-      <c r="AF47">
+      <c r="AF47" s="2">
         <v>-0.50160003876436798</v>
       </c>
       <c r="AG47">
         <v>-0.12784524648592799</v>
       </c>
+      <c r="AH47" s="2">
+        <v>-0.50160003876436798</v>
+      </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -6000,14 +6161,17 @@
       <c r="AE48">
         <v>-0.198131301782633</v>
       </c>
-      <c r="AF48">
+      <c r="AF48" s="2">
         <v>-1.0609117637096299</v>
       </c>
       <c r="AG48">
         <v>-0.244269559199525</v>
       </c>
+      <c r="AH48" s="2">
+        <v>-1.0609117637096299</v>
+      </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -6101,14 +6265,17 @@
       <c r="AE49">
         <v>0.12392973676845</v>
       </c>
-      <c r="AF49">
+      <c r="AF49" s="2">
         <v>0.597530460782706</v>
       </c>
       <c r="AG49">
         <v>-0.119322958467716</v>
       </c>
+      <c r="AH49" s="2">
+        <v>0.597530460782706</v>
+      </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -6202,14 +6369,17 @@
       <c r="AE50">
         <v>0.25420110869002699</v>
       </c>
-      <c r="AF50">
+      <c r="AF50" s="2">
         <v>-0.44337467995769703</v>
       </c>
       <c r="AG50">
         <v>-0.35208900541224802</v>
       </c>
+      <c r="AH50" s="2">
+        <v>-0.44337467995769703</v>
+      </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -6303,14 +6473,17 @@
       <c r="AE51">
         <v>0.30850356180029798</v>
       </c>
-      <c r="AF51">
+      <c r="AF51" s="2">
         <v>6.5764013479251999E-3</v>
       </c>
       <c r="AG51">
         <v>-0.22504489538417499</v>
       </c>
+      <c r="AH51" s="2">
+        <v>6.5764013479251999E-3</v>
+      </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -6404,14 +6577,17 @@
       <c r="AE52">
         <v>0.58114877324890601</v>
       </c>
-      <c r="AF52">
+      <c r="AF52" s="2">
         <v>0.62145820951436503</v>
       </c>
       <c r="AG52">
         <v>0.195547597921823</v>
       </c>
+      <c r="AH52" s="2">
+        <v>0.62145820951436503</v>
+      </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -6505,14 +6681,17 @@
       <c r="AE53">
         <v>0.94729885155273796</v>
       </c>
-      <c r="AF53">
+      <c r="AF53" s="2">
         <v>1.6326354172442601</v>
       </c>
       <c r="AG53">
         <v>0.45432383703721202</v>
       </c>
+      <c r="AH53" s="2">
+        <v>1.6326354172442601</v>
+      </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -6606,14 +6785,17 @@
       <c r="AE54">
         <v>1.0411108546394601</v>
       </c>
-      <c r="AF54">
+      <c r="AF54" s="2">
         <v>1.2174218244267301</v>
       </c>
       <c r="AG54">
         <v>0.869522963133319</v>
       </c>
+      <c r="AH54" s="2">
+        <v>1.2174218244267301</v>
+      </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -6707,14 +6889,17 @@
       <c r="AE55">
         <v>0.67142695593317203</v>
       </c>
-      <c r="AF55">
+      <c r="AF55" s="2">
         <v>0.70272170476316198</v>
       </c>
       <c r="AG55">
         <v>1.0435592889871299</v>
       </c>
+      <c r="AH55" s="2">
+        <v>0.70272170476316198</v>
+      </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -6808,14 +6993,17 @@
       <c r="AE56">
         <v>0.39158492574341802</v>
       </c>
-      <c r="AF56">
+      <c r="AF56" s="2">
         <v>1.2000189971531301</v>
       </c>
       <c r="AG56">
         <v>1.1881994858968199</v>
       </c>
+      <c r="AH56" s="2">
+        <v>1.2000189971531301</v>
+      </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>89</v>
       </c>
@@ -6909,14 +7097,17 @@
       <c r="AE57">
         <v>-0.16908323923062399</v>
       </c>
-      <c r="AF57">
+      <c r="AF57" s="2">
         <v>-2.2369340641802098</v>
       </c>
       <c r="AG57">
         <v>0.22080711554070201</v>
       </c>
+      <c r="AH57" s="2">
+        <v>-2.2369340641802098</v>
+      </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>90</v>
       </c>
@@ -7010,14 +7201,17 @@
       <c r="AE58">
         <v>-0.30331042781246098</v>
       </c>
-      <c r="AF58">
+      <c r="AF58" s="2">
         <v>-0.13051586356839801</v>
       </c>
       <c r="AG58">
         <v>-0.11617730645808</v>
       </c>
+      <c r="AH58" s="2">
+        <v>-0.13051586356839801</v>
+      </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>91</v>
       </c>
@@ -7111,14 +7305,17 @@
       <c r="AE59">
         <v>-0.386609585837842</v>
       </c>
-      <c r="AF59">
+      <c r="AF59" s="2">
         <v>0.67681772560861697</v>
       </c>
       <c r="AG59">
         <v>-0.122653301246716</v>
       </c>
+      <c r="AH59" s="2">
+        <v>0.67681772560861697</v>
+      </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -7212,14 +7409,17 @@
       <c r="AE60">
         <v>-0.42555432563699502</v>
       </c>
-      <c r="AF60">
+      <c r="AF60" s="2">
         <v>-0.48748261025192802</v>
       </c>
       <c r="AG60">
         <v>-0.54452870309797996</v>
       </c>
+      <c r="AH60" s="2">
+        <v>-0.48748261025192802</v>
+      </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -7313,14 +7513,17 @@
       <c r="AE61">
         <v>-0.46032391546680901</v>
       </c>
-      <c r="AF61">
+      <c r="AF61" s="2">
         <v>0.53382849871803195</v>
       </c>
       <c r="AG61">
         <v>0.14816193762658</v>
       </c>
+      <c r="AH61" s="2">
+        <v>0.53382849871803195</v>
+      </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -7414,14 +7617,17 @@
       <c r="AE62">
         <v>-0.65250510130739903</v>
       </c>
-      <c r="AF62">
+      <c r="AF62" s="2">
         <v>-0.48378680951915298</v>
       </c>
       <c r="AG62">
         <v>5.9844201138890801E-2</v>
       </c>
+      <c r="AH62" s="2">
+        <v>-0.48378680951915298</v>
+      </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>95</v>
       </c>
@@ -7515,14 +7721,17 @@
       <c r="AE63">
         <v>-7.9629230053660197E-2</v>
       </c>
-      <c r="AF63">
+      <c r="AF63" s="2">
         <v>1.0224944759794801</v>
       </c>
       <c r="AG63">
         <v>0.14626338873160799</v>
       </c>
+      <c r="AH63" s="2">
+        <v>1.0224944759794801</v>
+      </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -7616,14 +7825,17 @@
       <c r="AE64">
         <v>-0.27452823008190802</v>
       </c>
-      <c r="AF64">
+      <c r="AF64" s="2">
         <v>0.90945939923154395</v>
       </c>
       <c r="AG64">
         <v>0.49549889110247602</v>
       </c>
+      <c r="AH64" s="2">
+        <v>0.90945939923154395</v>
+      </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -7717,14 +7929,17 @@
       <c r="AE65">
         <v>-0.59191375452541695</v>
       </c>
-      <c r="AF65">
+      <c r="AF65" s="2">
         <v>-0.99351415150245603</v>
       </c>
       <c r="AG65">
         <v>0.113663228547354</v>
       </c>
+      <c r="AH65" s="2">
+        <v>-0.99351415150245603</v>
+      </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>98</v>
       </c>
@@ -7818,14 +8033,17 @@
       <c r="AE66">
         <v>-0.20248752029711201</v>
       </c>
-      <c r="AF66">
+      <c r="AF66" s="2">
         <v>-0.25724171185848199</v>
       </c>
       <c r="AG66">
         <v>0.170299502962521</v>
       </c>
+      <c r="AH66" s="2">
+        <v>-0.25724171185848199</v>
+      </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>99</v>
       </c>
@@ -7919,14 +8137,17 @@
       <c r="AE67">
         <v>-0.18564478960617301</v>
       </c>
-      <c r="AF67">
+      <c r="AF67" s="2">
         <v>0.848618093814274</v>
       </c>
       <c r="AG67">
         <v>0.12683040742121901</v>
       </c>
+      <c r="AH67" s="2">
+        <v>0.848618093814274</v>
+      </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>100</v>
       </c>
@@ -8020,14 +8241,17 @@
       <c r="AE68">
         <v>-4.8619888752160403E-2</v>
       </c>
-      <c r="AF68">
+      <c r="AF68" s="2">
         <v>1.0983499386570299</v>
       </c>
       <c r="AG68">
         <v>0.174053042277591</v>
       </c>
+      <c r="AH68" s="2">
+        <v>1.0983499386570299</v>
+      </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>101</v>
       </c>
@@ -8121,14 +8345,17 @@
       <c r="AE69">
         <v>-0.17824371802112099</v>
       </c>
-      <c r="AF69">
+      <c r="AF69" s="2">
         <v>-1.2507354051471999</v>
       </c>
       <c r="AG69">
         <v>0.10974772886640401</v>
       </c>
+      <c r="AH69" s="2">
+        <v>-1.2507354051471999</v>
+      </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>102</v>
       </c>
@@ -8222,14 +8449,17 @@
       <c r="AE70">
         <v>0.135653500326752</v>
       </c>
-      <c r="AF70">
+      <c r="AF70" s="2">
         <v>-7.0370158104876804E-2</v>
       </c>
       <c r="AG70">
         <v>0.15646561730480499</v>
       </c>
+      <c r="AH70" s="2">
+        <v>-7.0370158104876804E-2</v>
+      </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -8323,14 +8553,17 @@
       <c r="AE71">
         <v>-0.67651554899507405</v>
       </c>
-      <c r="AF71">
+      <c r="AF71" s="2">
         <v>-0.69418628838112195</v>
       </c>
       <c r="AG71">
         <v>-0.229235478244044</v>
       </c>
+      <c r="AH71" s="2">
+        <v>-0.69418628838112195</v>
+      </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -8424,14 +8657,17 @@
       <c r="AE72">
         <v>-0.428560986137971</v>
       </c>
-      <c r="AF72">
+      <c r="AF72" s="2">
         <v>-1.01771492616113</v>
       </c>
       <c r="AG72">
         <v>-0.75825169444858498</v>
       </c>
+      <c r="AH72" s="2">
+        <v>-1.01771492616113</v>
+      </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>105</v>
       </c>
@@ -8525,14 +8761,17 @@
       <c r="AE73">
         <v>-0.261663259324799</v>
       </c>
-      <c r="AF73">
+      <c r="AF73" s="2">
         <v>0.33951247542817198</v>
       </c>
       <c r="AG73">
         <v>-0.360689724304741</v>
       </c>
+      <c r="AH73" s="2">
+        <v>0.33951247542817198</v>
+      </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>106</v>
       </c>
@@ -8626,14 +8865,17 @@
       <c r="AE74">
         <v>-0.27101869188554101</v>
       </c>
-      <c r="AF74">
+      <c r="AF74" s="2">
         <v>-1.6438225002664899</v>
       </c>
       <c r="AG74">
         <v>-0.754052809845145</v>
       </c>
+      <c r="AH74" s="2">
+        <v>-1.6438225002664899</v>
+      </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -8727,14 +8969,17 @@
       <c r="AE75">
         <v>-0.16122684044164301</v>
       </c>
-      <c r="AF75">
+      <c r="AF75" s="2">
         <v>-0.56614293803712701</v>
       </c>
       <c r="AG75">
         <v>-0.72204197225914601</v>
       </c>
+      <c r="AH75" s="2">
+        <v>-0.56614293803712701</v>
+      </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>108</v>
       </c>
@@ -8828,14 +9073,17 @@
       <c r="AE76">
         <v>-6.3404416014146606E-2</v>
       </c>
-      <c r="AF76">
+      <c r="AF76" s="2">
         <v>-0.69612336189868096</v>
       </c>
       <c r="AG76">
         <v>-0.641644081193534</v>
       </c>
+      <c r="AH76" s="2">
+        <v>-0.69612336189868096</v>
+      </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -8929,14 +9177,17 @@
       <c r="AE77">
         <v>-0.126219559496449</v>
       </c>
-      <c r="AF77">
+      <c r="AF77" s="2">
         <v>0.83344663107724104</v>
       </c>
       <c r="AG77">
         <v>-0.51816054228126596</v>
       </c>
+      <c r="AH77" s="2">
+        <v>0.83344663107724104</v>
+      </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>110</v>
       </c>
@@ -9030,14 +9281,17 @@
       <c r="AE78">
         <v>-0.30431287732099199</v>
       </c>
-      <c r="AF78">
+      <c r="AF78" s="2">
         <v>-1.3008739828001801</v>
       </c>
       <c r="AG78">
         <v>-0.432423412914688</v>
       </c>
+      <c r="AH78" s="2">
+        <v>-1.3008739828001801</v>
+      </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>111</v>
       </c>
@@ -9131,14 +9385,17 @@
       <c r="AE79">
         <v>7.0326365899232093E-2</v>
       </c>
-      <c r="AF79">
+      <c r="AF79" s="2">
         <v>0.70375855565762502</v>
       </c>
       <c r="AG79">
         <v>-0.11494803949100001</v>
       </c>
+      <c r="AH79" s="2">
+        <v>0.70375855565762502</v>
+      </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>112</v>
       </c>
@@ -9232,14 +9489,17 @@
       <c r="AE80">
         <v>-3.1258505225906501E-2</v>
       </c>
-      <c r="AF80">
+      <c r="AF80" s="2">
         <v>0.16601351203329801</v>
       </c>
       <c r="AG80">
         <v>0.100586178991995</v>
       </c>
+      <c r="AH80" s="2">
+        <v>0.16601351203329801</v>
+      </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -9333,14 +9593,17 @@
       <c r="AE81">
         <v>0.27333954984738701</v>
       </c>
-      <c r="AF81">
+      <c r="AF81" s="2">
         <v>6.1533147869810199E-2</v>
       </c>
       <c r="AG81">
         <v>-9.2392191809862897E-2</v>
       </c>
+      <c r="AH81" s="2">
+        <v>6.1533147869810199E-2</v>
+      </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>114</v>
       </c>
@@ -9434,14 +9697,17 @@
       <c r="AE82">
         <v>0.31583939484693502</v>
       </c>
-      <c r="AF82">
+      <c r="AF82" s="2">
         <v>1.03403203157951</v>
       </c>
       <c r="AG82">
         <v>0.49133431178505999</v>
       </c>
+      <c r="AH82" s="2">
+        <v>1.03403203157951</v>
+      </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -9535,14 +9801,17 @@
       <c r="AE83">
         <v>0.195630125144199</v>
       </c>
-      <c r="AF83">
+      <c r="AF83" s="2">
         <v>-0.27416085688290298</v>
       </c>
       <c r="AG83">
         <v>0.246854458649928</v>
       </c>
+      <c r="AH83" s="2">
+        <v>-0.27416085688290298</v>
+      </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -9636,14 +9905,17 @@
       <c r="AE84">
         <v>0.330457036437659</v>
       </c>
-      <c r="AF84">
+      <c r="AF84" s="2">
         <v>-0.11209637099189</v>
       </c>
       <c r="AG84">
         <v>0.17732698789363099</v>
       </c>
+      <c r="AH84" s="2">
+        <v>-0.11209637099189</v>
+      </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>117</v>
       </c>
@@ -9737,14 +10009,17 @@
       <c r="AE85">
         <v>0.53898338522086597</v>
       </c>
-      <c r="AF85">
+      <c r="AF85" s="2">
         <v>0.55853487913560995</v>
       </c>
       <c r="AG85">
         <v>0.30157742071008098</v>
       </c>
+      <c r="AH85" s="2">
+        <v>0.55853487913560995</v>
+      </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>118</v>
       </c>
@@ -9838,14 +10113,17 @@
       <c r="AE86">
         <v>0.76530248425022496</v>
       </c>
-      <c r="AF86">
+      <c r="AF86" s="2">
         <v>0.73071922793102795</v>
       </c>
       <c r="AG86">
         <v>0.22574921979796</v>
       </c>
+      <c r="AH86" s="2">
+        <v>0.73071922793102795</v>
+      </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>119</v>
       </c>
@@ -9939,14 +10217,17 @@
       <c r="AE87">
         <v>0.89419271720246396</v>
       </c>
-      <c r="AF87">
+      <c r="AF87" s="2">
         <v>0.70926622436271602</v>
       </c>
       <c r="AG87">
         <v>0.47160599010936499</v>
       </c>
+      <c r="AH87" s="2">
+        <v>0.70926622436271602</v>
+      </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>120</v>
       </c>
@@ -10040,14 +10321,17 @@
       <c r="AE88">
         <v>0.74893179630495899</v>
       </c>
-      <c r="AF88">
+      <c r="AF88" s="2">
         <v>-3.3564760845876699E-3</v>
       </c>
       <c r="AG88">
         <v>0.49879096383618998</v>
       </c>
+      <c r="AH88" s="2">
+        <v>-3.3564760845876699E-3</v>
+      </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>121</v>
       </c>
@@ -10141,14 +10425,17 @@
       <c r="AE89">
         <v>0.84617695725516395</v>
       </c>
-      <c r="AF89">
+      <c r="AF89" s="2">
         <v>-0.27640549700455103</v>
       </c>
       <c r="AG89">
         <v>0.29005586980115</v>
       </c>
+      <c r="AH89" s="2">
+        <v>-0.27640549700455103</v>
+      </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>122</v>
       </c>
@@ -10242,14 +10529,17 @@
       <c r="AE90">
         <v>1.0722309678053199</v>
       </c>
-      <c r="AF90">
+      <c r="AF90" s="2">
         <v>1.31251561554461</v>
       </c>
       <c r="AG90">
         <v>0.43550496670454603</v>
       </c>
+      <c r="AH90" s="2">
+        <v>1.31251561554461</v>
+      </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>123</v>
       </c>
@@ -10343,14 +10633,17 @@
       <c r="AE91">
         <v>0.91530415135888998</v>
       </c>
-      <c r="AF91">
+      <c r="AF91" s="2">
         <v>0.25315176356705699</v>
       </c>
       <c r="AG91">
         <v>0.32147635150563197</v>
       </c>
+      <c r="AH91" s="2">
+        <v>0.25315176356705699</v>
+      </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>124</v>
       </c>
@@ -10444,14 +10737,17 @@
       <c r="AE92">
         <v>0.72043231408102804</v>
       </c>
-      <c r="AF92">
+      <c r="AF92" s="2">
         <v>0.75064717670456405</v>
       </c>
       <c r="AG92">
         <v>0.50997726470291904</v>
       </c>
+      <c r="AH92" s="2">
+        <v>0.75064717670456405</v>
+      </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>125</v>
       </c>
@@ -10545,14 +10841,17 @@
       <c r="AE93">
         <v>0.35538018567750101</v>
       </c>
-      <c r="AF93">
+      <c r="AF93" s="2">
         <v>-0.155068350871119</v>
       </c>
       <c r="AG93">
         <v>0.54031155123627705</v>
       </c>
+      <c r="AH93" s="2">
+        <v>-0.155068350871119</v>
+      </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>126</v>
       </c>
@@ -10646,14 +10945,17 @@
       <c r="AE94">
         <v>0.40184299718043798</v>
       </c>
-      <c r="AF94">
+      <c r="AF94" s="2">
         <v>-1.11504885050665</v>
       </c>
       <c r="AG94">
         <v>-6.6579565276537495E-2</v>
       </c>
+      <c r="AH94" s="2">
+        <v>-1.11504885050665</v>
+      </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>127</v>
       </c>
@@ -10747,14 +11049,17 @@
       <c r="AE95">
         <v>0.14881855652242401</v>
       </c>
-      <c r="AF95">
+      <c r="AF95" s="2">
         <v>-0.35000322551072299</v>
       </c>
       <c r="AG95">
         <v>-0.21736831254598199</v>
       </c>
+      <c r="AH95" s="2">
+        <v>-0.35000322551072299</v>
+      </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>128</v>
       </c>
@@ -10848,14 +11153,17 @@
       <c r="AE96">
         <v>2.09318864250162E-2</v>
       </c>
-      <c r="AF96">
+      <c r="AF96" s="2">
         <v>-0.36775514499033901</v>
       </c>
       <c r="AG96">
         <v>-0.49696889296970798</v>
       </c>
+      <c r="AH96" s="2">
+        <v>-0.36775514499033901</v>
+      </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>129</v>
       </c>
@@ -10949,14 +11257,17 @@
       <c r="AE97">
         <v>-9.9309076178858105E-2</v>
       </c>
-      <c r="AF97">
+      <c r="AF97" s="2">
         <v>-0.32536588033319602</v>
       </c>
       <c r="AG97">
         <v>-0.53954327533522795</v>
       </c>
+      <c r="AH97" s="2">
+        <v>-0.32536588033319602</v>
+      </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>130</v>
       </c>
@@ -11050,14 +11361,17 @@
       <c r="AE98">
         <v>-0.287231878964052</v>
       </c>
-      <c r="AF98">
+      <c r="AF98" s="2">
         <v>-1.7795799372996099</v>
       </c>
       <c r="AG98">
         <v>-0.70567604703346698</v>
       </c>
+      <c r="AH98" s="2">
+        <v>-1.7795799372996099</v>
+      </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>131</v>
       </c>
@@ -11151,14 +11465,17 @@
       <c r="AE99">
         <v>-0.339873948306047</v>
       </c>
-      <c r="AF99">
+      <c r="AF99" s="2">
         <v>-0.45131474183147802</v>
       </c>
       <c r="AG99">
         <v>-0.73100392611365606</v>
       </c>
+      <c r="AH99" s="2">
+        <v>-0.45131474183147802</v>
+      </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>132</v>
       </c>
@@ -11252,14 +11569,17 @@
       <c r="AE100">
         <v>-0.32791664610638399</v>
       </c>
-      <c r="AF100">
+      <c r="AF100" s="2">
         <v>0.47076726656631201</v>
       </c>
       <c r="AG100">
         <v>-0.52137332322449303</v>
       </c>
+      <c r="AH100" s="2">
+        <v>0.47076726656631201</v>
+      </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>133</v>
       </c>
@@ -11353,14 +11673,17 @@
       <c r="AE101">
         <v>-9.9011074573102403E-2</v>
       </c>
-      <c r="AF101">
+      <c r="AF101" s="2">
         <v>-1.2890139497117099</v>
       </c>
       <c r="AG101">
         <v>-0.76228534056912101</v>
       </c>
+      <c r="AH101" s="2">
+        <v>-1.2890139497117099</v>
+      </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>134</v>
       </c>
@@ -11454,14 +11777,17 @@
       <c r="AE102">
         <v>-0.126982608161293</v>
       </c>
-      <c r="AF102">
+      <c r="AF102" s="2">
         <v>-0.35656678579249701</v>
       </c>
       <c r="AG102">
         <v>-0.40653205269234399</v>
       </c>
+      <c r="AH102" s="2">
+        <v>-0.35656678579249701</v>
+      </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>135</v>
       </c>
@@ -11555,14 +11881,17 @@
       <c r="AE103">
         <v>-5.2711127282346601E-2</v>
       </c>
-      <c r="AF103">
+      <c r="AF103" s="2">
         <v>-0.30218344360669103</v>
       </c>
       <c r="AG103">
         <v>-0.36924922813614702</v>
       </c>
+      <c r="AH103" s="2">
+        <v>-0.30218344360669103</v>
+      </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>136</v>
       </c>
@@ -11656,14 +11985,17 @@
       <c r="AE104">
         <v>-1.5253633342282901E-2</v>
       </c>
-      <c r="AF104">
+      <c r="AF104" s="2">
         <v>-0.73618190073051004</v>
       </c>
       <c r="AG104">
         <v>-0.67098651996035297</v>
       </c>
+      <c r="AH104" s="2">
+        <v>-0.73618190073051004</v>
+      </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>137</v>
       </c>
@@ -11757,14 +12089,17 @@
       <c r="AE105">
         <v>-0.27782147563717502</v>
       </c>
-      <c r="AF105">
+      <c r="AF105" s="2">
         <v>-1.5962375836050999</v>
       </c>
       <c r="AG105">
         <v>-0.74779242843370097</v>
       </c>
+      <c r="AH105" s="2">
+        <v>-1.5962375836050999</v>
+      </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>138</v>
       </c>
@@ -11858,14 +12193,17 @@
       <c r="AE106">
         <v>-0.33108280966520198</v>
       </c>
-      <c r="AF106">
+      <c r="AF106" s="2">
         <v>-0.35987792335709401</v>
       </c>
       <c r="AG106">
         <v>-0.74862021282485003</v>
       </c>
+      <c r="AH106" s="2">
+        <v>-0.35987792335709401</v>
+      </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>139</v>
       </c>
@@ -11959,14 +12297,17 @@
       <c r="AE107">
         <v>-0.25902978069903998</v>
       </c>
-      <c r="AF107">
+      <c r="AF107" s="2">
         <v>0.116127201090414</v>
       </c>
       <c r="AG107">
         <v>-0.644042551650574</v>
       </c>
+      <c r="AH107" s="2">
+        <v>0.116127201090414</v>
+      </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>140</v>
       </c>
@@ -12060,14 +12401,17 @@
       <c r="AE108">
         <v>-0.35197867175365799</v>
       </c>
-      <c r="AF108">
+      <c r="AF108" s="2">
         <v>-0.92892685901936001</v>
       </c>
       <c r="AG108">
         <v>-0.69222879122278702</v>
       </c>
+      <c r="AH108" s="2">
+        <v>-0.92892685901936001</v>
+      </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>141</v>
       </c>
@@ -12161,14 +12505,17 @@
       <c r="AE109">
         <v>-0.146541218220898</v>
       </c>
-      <c r="AF109">
+      <c r="AF109" s="2">
         <v>-0.25106580659751299</v>
       </c>
       <c r="AG109">
         <v>-0.35593584697088998</v>
       </c>
+      <c r="AH109" s="2">
+        <v>-0.25106580659751299</v>
+      </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>142</v>
       </c>
@@ -12262,14 +12609,17 @@
       <c r="AE110">
         <v>-0.45910118744668299</v>
       </c>
-      <c r="AF110">
+      <c r="AF110" s="2">
         <v>-1.4847003925408</v>
       </c>
       <c r="AG110">
         <v>-0.63714146426681495</v>
       </c>
+      <c r="AH110" s="2">
+        <v>-1.4847003925408</v>
+      </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>143</v>
       </c>
@@ -12363,14 +12713,17 @@
       <c r="AE111">
         <v>-0.70580864176786595</v>
       </c>
-      <c r="AF111">
+      <c r="AF111" s="2">
         <v>-0.42209335615495502</v>
       </c>
       <c r="AG111">
         <v>-0.77169660357815695</v>
       </c>
+      <c r="AH111" s="2">
+        <v>-0.42209335615495502</v>
+      </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>144</v>
       </c>
@@ -12464,14 +12817,17 @@
       <c r="AE112">
         <v>-0.60121266881471702</v>
       </c>
-      <c r="AF112">
+      <c r="AF112" s="2">
         <v>-0.95939426416188001</v>
       </c>
       <c r="AG112">
         <v>-0.779313454863787</v>
       </c>
+      <c r="AH112" s="2">
+        <v>-0.95939426416188001</v>
+      </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>145</v>
       </c>
@@ -12565,14 +12921,17 @@
       <c r="AE113">
         <v>-0.56642466932236002</v>
       </c>
-      <c r="AF113">
+      <c r="AF113" s="2">
         <v>-0.90917193274843999</v>
       </c>
       <c r="AG113">
         <v>-0.943839986401519</v>
       </c>
+      <c r="AH113" s="2">
+        <v>-0.90917193274843999</v>
+      </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>146</v>
       </c>
@@ -12666,14 +13025,17 @@
       <c r="AE114">
         <v>-0.71271773338867395</v>
       </c>
-      <c r="AF114">
+      <c r="AF114" s="2">
         <v>-1.69236829553734</v>
       </c>
       <c r="AG114">
         <v>-0.99575696215065601</v>
       </c>
+      <c r="AH114" s="2">
+        <v>-1.69236829553734</v>
+      </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>147</v>
       </c>
@@ -12767,14 +13129,17 @@
       <c r="AE115">
         <v>-0.57334329021943697</v>
       </c>
-      <c r="AF115">
+      <c r="AF115" s="2">
         <v>-6.9495798202550696E-2</v>
       </c>
       <c r="AG115">
         <v>-0.90760757266255498</v>
       </c>
+      <c r="AH115" s="2">
+        <v>-6.9495798202550696E-2</v>
+      </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>148</v>
       </c>
@@ -12868,14 +13233,17 @@
       <c r="AE116">
         <v>-0.61797251039295997</v>
       </c>
-      <c r="AF116">
+      <c r="AF116" s="2">
         <v>-0.83691290308202204</v>
       </c>
       <c r="AG116">
         <v>-0.87698723239259102</v>
       </c>
+      <c r="AH116" s="2">
+        <v>-0.83691290308202204</v>
+      </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>149</v>
       </c>
@@ -12969,14 +13337,17 @@
       <c r="AE117">
         <v>-0.56772342632944095</v>
       </c>
-      <c r="AF117">
+      <c r="AF117" s="2">
         <v>-0.91323117065958104</v>
       </c>
       <c r="AG117">
         <v>-0.878002041870376</v>
       </c>
+      <c r="AH117" s="2">
+        <v>-0.91323117065958104</v>
+      </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>150</v>
       </c>
@@ -13070,14 +13441,17 @@
       <c r="AE118">
         <v>-0.40976917662443801</v>
       </c>
-      <c r="AF118">
+      <c r="AF118" s="2">
         <v>-0.67840346139225904</v>
       </c>
       <c r="AG118">
         <v>-0.62451083333410395</v>
       </c>
+      <c r="AH118" s="2">
+        <v>-0.67840346139225904</v>
+      </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>151</v>
       </c>
@@ -13171,14 +13545,17 @@
       <c r="AE119">
         <v>-0.26543888144250399</v>
       </c>
-      <c r="AF119">
+      <c r="AF119" s="2">
         <v>-0.78885892475095598</v>
       </c>
       <c r="AG119">
         <v>-0.804351614971206</v>
       </c>
+      <c r="AH119" s="2">
+        <v>-0.78885892475095598</v>
+      </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>152</v>
       </c>
@@ -13272,14 +13649,17 @@
       <c r="AE120">
         <v>-0.22471197876291299</v>
       </c>
-      <c r="AF120">
+      <c r="AF120" s="2">
         <v>-0.13981115339719</v>
       </c>
       <c r="AG120">
         <v>-0.63007617754999801</v>
       </c>
+      <c r="AH120" s="2">
+        <v>-0.13981115339719</v>
+      </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>153</v>
       </c>
@@ -13373,14 +13753,17 @@
       <c r="AE121">
         <v>-0.30640665971313102</v>
       </c>
-      <c r="AF121">
+      <c r="AF121" s="2">
         <v>2.7327265163892601E-2</v>
       </c>
       <c r="AG121">
         <v>-0.39493656859412901</v>
       </c>
+      <c r="AH121" s="2">
+        <v>2.7327265163892601E-2</v>
+      </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>154</v>
       </c>
@@ -13474,14 +13857,17 @@
       <c r="AE122">
         <v>-0.47249251582088803</v>
       </c>
-      <c r="AF122">
+      <c r="AF122" s="2">
         <v>-1.77641362164075</v>
       </c>
       <c r="AG122">
         <v>-0.669439108656252</v>
       </c>
+      <c r="AH122" s="2">
+        <v>-1.77641362164075</v>
+      </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>155</v>
       </c>
@@ -13575,14 +13961,17 @@
       <c r="AE123">
         <v>-0.23817134443433899</v>
       </c>
-      <c r="AF123">
+      <c r="AF123" s="2">
         <v>-0.28525914206428699</v>
       </c>
       <c r="AG123">
         <v>-0.54353916298458504</v>
       </c>
+      <c r="AH123" s="2">
+        <v>-0.28525914206428699</v>
+      </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>156</v>
       </c>
@@ -13676,14 +14065,17 @@
       <c r="AE124">
         <v>-3.2246021528070101E-2</v>
       </c>
-      <c r="AF124">
+      <c r="AF124" s="2">
         <v>-1.04399668590397</v>
       </c>
       <c r="AG124">
         <v>-0.76958554611128005</v>
       </c>
+      <c r="AH124" s="2">
+        <v>-1.04399668590397</v>
+      </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>157</v>
       </c>
@@ -13777,14 +14169,17 @@
       <c r="AE125">
         <v>2.0659358522360199E-2</v>
       </c>
-      <c r="AF125">
+      <c r="AF125" s="2">
         <v>-0.20445397670052701</v>
       </c>
       <c r="AG125">
         <v>-0.82753085657738501</v>
       </c>
+      <c r="AH125" s="2">
+        <v>-0.20445397670052701</v>
+      </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>158</v>
       </c>
@@ -13878,14 +14273,17 @@
       <c r="AE126">
         <v>0.22568594120082699</v>
       </c>
-      <c r="AF126">
+      <c r="AF126" s="2">
         <v>0.72147895899032</v>
       </c>
       <c r="AG126">
         <v>-0.20305771141961701</v>
       </c>
+      <c r="AH126" s="2">
+        <v>0.72147895899032</v>
+      </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>159</v>
       </c>
@@ -13979,14 +14377,17 @@
       <c r="AE127">
         <v>0.29150609005683698</v>
       </c>
-      <c r="AF127">
+      <c r="AF127" s="2">
         <v>0.95787246051756902</v>
       </c>
       <c r="AG127">
         <v>0.10772518922584701</v>
       </c>
+      <c r="AH127" s="2">
+        <v>0.95787246051756902</v>
+      </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>160</v>
       </c>
@@ -14080,14 +14481,17 @@
       <c r="AE128">
         <v>1.2808430778706701</v>
       </c>
-      <c r="AF128">
+      <c r="AF128" s="2">
         <v>0.64534435623967901</v>
       </c>
       <c r="AG128">
         <v>0.53006044976175903</v>
       </c>
+      <c r="AH128" s="2">
+        <v>0.64534435623967901</v>
+      </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>161</v>
       </c>
@@ -14181,14 +14585,17 @@
       <c r="AE129">
         <v>1.0795650143753901</v>
       </c>
-      <c r="AF129">
+      <c r="AF129" s="2">
         <v>1.77720417891967</v>
       </c>
       <c r="AG129">
         <v>1.02547498866681</v>
       </c>
+      <c r="AH129" s="2">
+        <v>1.77720417891967</v>
+      </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>162</v>
       </c>
@@ -14282,14 +14689,17 @@
       <c r="AE130">
         <v>1.37238789170096</v>
       </c>
-      <c r="AF130">
+      <c r="AF130" s="2">
         <v>2.1795048088705999</v>
       </c>
       <c r="AG130">
         <v>1.38998145113688</v>
       </c>
+      <c r="AH130" s="2">
+        <v>2.1795048088705999</v>
+      </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>163</v>
       </c>
@@ -14383,14 +14793,17 @@
       <c r="AE131">
         <v>1.8188243459022799</v>
       </c>
-      <c r="AF131">
+      <c r="AF131" s="2">
         <v>1.910826255825</v>
       </c>
       <c r="AG131">
         <v>1.6282198999637401</v>
       </c>
+      <c r="AH131" s="2">
+        <v>1.910826255825</v>
+      </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>164</v>
       </c>
@@ -14484,14 +14897,17 @@
       <c r="AE132">
         <v>1.4860544825245501</v>
       </c>
-      <c r="AF132">
+      <c r="AF132" s="2">
         <v>1.39623409154216</v>
       </c>
       <c r="AG132">
         <v>1.8159423337893601</v>
       </c>
+      <c r="AH132" s="2">
+        <v>1.39623409154216</v>
+      </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>165</v>
       </c>
@@ -14585,14 +15001,17 @@
       <c r="AE133">
         <v>1.08960316205111</v>
       </c>
-      <c r="AF133">
+      <c r="AF133" s="2">
         <v>1.18036364446622</v>
       </c>
       <c r="AG133">
         <v>1.6667322001760001</v>
       </c>
+      <c r="AH133" s="2">
+        <v>1.18036364446622</v>
+      </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>166</v>
       </c>
@@ -14686,14 +15105,17 @@
       <c r="AE134">
         <v>1.2245498898949201</v>
       </c>
-      <c r="AF134">
+      <c r="AF134" s="2">
         <v>0.81405446659453695</v>
       </c>
       <c r="AG134">
         <v>1.32536961460698</v>
       </c>
+      <c r="AH134" s="2">
+        <v>0.81405446659453695</v>
+      </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>167</v>
       </c>
@@ -14787,14 +15209,17 @@
       <c r="AE135">
         <v>1.1108805052787301</v>
       </c>
-      <c r="AF135">
+      <c r="AF135" s="2">
         <v>1.3479738167887001</v>
       </c>
       <c r="AG135">
         <v>1.1846565048479001</v>
       </c>
+      <c r="AH135" s="2">
+        <v>1.3479738167887001</v>
+      </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>168</v>
       </c>
@@ -14888,14 +15313,17 @@
       <c r="AE136">
         <v>0.95992159312877101</v>
       </c>
-      <c r="AF136">
+      <c r="AF136" s="2">
         <v>0.66124676940973304</v>
       </c>
       <c r="AG136">
         <v>1.0009096743148</v>
       </c>
+      <c r="AH136" s="2">
+        <v>0.66124676940973304</v>
+      </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>169</v>
       </c>
@@ -14989,14 +15417,17 @@
       <c r="AE137">
         <v>0.666126717469951</v>
       </c>
-      <c r="AF137">
+      <c r="AF137" s="2">
         <v>0.65276509774160396</v>
       </c>
       <c r="AG137">
         <v>0.86901003763364204</v>
       </c>
+      <c r="AH137" s="2">
+        <v>0.65276509774160396</v>
+      </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>170</v>
       </c>
@@ -15090,14 +15521,17 @@
       <c r="AE138">
         <v>0.24520268632471201</v>
       </c>
-      <c r="AF138">
+      <c r="AF138" s="2">
         <v>0.11665698390193301</v>
       </c>
       <c r="AG138">
         <v>0.694660666960492</v>
       </c>
+      <c r="AH138" s="2">
+        <v>0.11665698390193301</v>
+      </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>171</v>
       </c>
@@ -15191,14 +15625,17 @@
       <c r="AE139">
         <v>0.24336675964268201</v>
       </c>
-      <c r="AF139">
+      <c r="AF139" s="2">
         <v>-3.7143002916385101E-2</v>
       </c>
       <c r="AG139">
         <v>0.34838146203421999</v>
       </c>
+      <c r="AH139" s="2">
+        <v>-3.7143002916385101E-2</v>
+      </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>172</v>
       </c>
@@ -15292,14 +15729,17 @@
       <c r="AE140">
         <v>-4.1204119906332499E-2</v>
       </c>
-      <c r="AF140">
+      <c r="AF140" s="2">
         <v>-0.39340245663513101</v>
       </c>
       <c r="AG140">
         <v>8.4719155523004103E-2</v>
       </c>
+      <c r="AH140" s="2">
+        <v>-0.39340245663513101</v>
+      </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>173</v>
       </c>
@@ -15393,14 +15833,17 @@
       <c r="AE141">
         <v>-2.8859688288987999E-3</v>
       </c>
-      <c r="AF141">
+      <c r="AF141" s="2">
         <v>-0.55513615241539904</v>
       </c>
       <c r="AG141">
         <v>-0.21725615701624701</v>
       </c>
+      <c r="AH141" s="2">
+        <v>-0.55513615241539904</v>
+      </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>174</v>
       </c>
@@ -15494,14 +15937,17 @@
       <c r="AE142">
         <v>-0.48719467992779197</v>
       </c>
-      <c r="AF142">
+      <c r="AF142" s="2">
         <v>-0.59372965827472102</v>
       </c>
       <c r="AG142">
         <v>-0.39485281756041002</v>
       </c>
+      <c r="AH142" s="2">
+        <v>-0.59372965827472102</v>
+      </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>175</v>
       </c>
@@ -15595,14 +16041,17 @@
       <c r="AE143">
         <v>-0.52428532802901795</v>
       </c>
-      <c r="AF143">
+      <c r="AF143" s="2">
         <v>-1.0361184366832601</v>
       </c>
       <c r="AG143">
         <v>-0.644596676002128</v>
       </c>
+      <c r="AH143" s="2">
+        <v>-1.0361184366832601</v>
+      </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>176</v>
       </c>
@@ -15696,14 +16145,17 @@
       <c r="AE144">
         <v>-0.47946789504089898</v>
       </c>
-      <c r="AF144">
+      <c r="AF144" s="2">
         <v>-0.68749309448380502</v>
       </c>
       <c r="AG144">
         <v>-0.71811933546429696</v>
       </c>
+      <c r="AH144" s="2">
+        <v>-0.68749309448380502</v>
+      </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>177</v>
       </c>
@@ -15797,14 +16249,17 @@
       <c r="AE145">
         <v>-0.48239823998012699</v>
       </c>
-      <c r="AF145">
+      <c r="AF145" s="2">
         <v>-0.86078705595840599</v>
       </c>
       <c r="AG145">
         <v>-0.79453206135004895</v>
       </c>
+      <c r="AH145" s="2">
+        <v>-0.86078705595840599</v>
+      </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>178</v>
       </c>
@@ -15898,14 +16353,17 @@
       <c r="AE146">
         <v>-0.63267981849363297</v>
       </c>
-      <c r="AF146">
+      <c r="AF146" s="2">
         <v>-9.1252546629022699E-2</v>
       </c>
       <c r="AG146">
         <v>-0.66891278343862404</v>
       </c>
+      <c r="AH146" s="2">
+        <v>-9.1252546629022699E-2</v>
+      </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>179</v>
       </c>
@@ -15999,14 +16457,17 @@
       <c r="AE147">
         <v>-0.62042626820374502</v>
       </c>
-      <c r="AF147">
+      <c r="AF147" s="2">
         <v>-1.0615033952022499</v>
       </c>
       <c r="AG147">
         <v>-0.67525902306837304</v>
       </c>
+      <c r="AH147" s="2">
+        <v>-1.0615033952022499</v>
+      </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>180</v>
       </c>
@@ -16100,14 +16561,17 @@
       <c r="AE148">
         <v>-0.324698869575194</v>
       </c>
-      <c r="AF148">
+      <c r="AF148" s="2">
         <v>-0.83850525191755598</v>
       </c>
       <c r="AG148">
         <v>-0.71301206242681103</v>
       </c>
+      <c r="AH148" s="2">
+        <v>-0.83850525191755598</v>
+      </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>181</v>
       </c>
@@ -16201,14 +16665,17 @@
       <c r="AE149">
         <v>-0.470006005833778</v>
       </c>
-      <c r="AF149">
+      <c r="AF149" s="2">
         <v>-0.20938126729151499</v>
       </c>
       <c r="AG149">
         <v>-0.55016061526008797</v>
       </c>
+      <c r="AH149" s="2">
+        <v>-0.20938126729151499</v>
+      </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>182</v>
       </c>
@@ -16302,14 +16769,17 @@
       <c r="AE150">
         <v>-0.32559024654271501</v>
       </c>
-      <c r="AF150">
+      <c r="AF150" s="2">
         <v>-0.60074713521993595</v>
       </c>
       <c r="AG150">
         <v>-0.677534262407816</v>
       </c>
+      <c r="AH150" s="2">
+        <v>-0.60074713521993595</v>
+      </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>183</v>
       </c>
@@ -16403,14 +16873,17 @@
       <c r="AE151">
         <v>-0.34079485744990601</v>
       </c>
-      <c r="AF151">
+      <c r="AF151" s="2">
         <v>-1.52544758262392E-2</v>
       </c>
       <c r="AG151">
         <v>-0.41597203256381299</v>
       </c>
+      <c r="AH151" s="2">
+        <v>-1.52544758262392E-2</v>
+      </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>184</v>
       </c>
@@ -16504,14 +16977,17 @@
       <c r="AE152">
         <v>-0.120364963970391</v>
       </c>
-      <c r="AF152">
+      <c r="AF152" s="2">
         <v>-0.15585247468409899</v>
       </c>
       <c r="AG152">
         <v>-0.245308838255449</v>
       </c>
+      <c r="AH152" s="2">
+        <v>-0.15585247468409899</v>
+      </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>185</v>
       </c>
@@ -16605,14 +17081,17 @@
       <c r="AE153">
         <v>0.15896891061113899</v>
       </c>
-      <c r="AF153">
+      <c r="AF153" s="2">
         <v>0.400612120877404</v>
       </c>
       <c r="AG153">
         <v>-9.2810491213219201E-2</v>
       </c>
+      <c r="AH153" s="2">
+        <v>0.400612120877404</v>
+      </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>186</v>
       </c>
@@ -16706,14 +17185,17 @@
       <c r="AE154">
         <v>0.16553847145929401</v>
       </c>
-      <c r="AF154">
+      <c r="AF154" s="2">
         <v>-3.6117434128018502E-2</v>
       </c>
       <c r="AG154">
         <v>4.8346934059760198E-2</v>
       </c>
+      <c r="AH154" s="2">
+        <v>-3.6117434128018502E-2</v>
+      </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>187</v>
       </c>
@@ -16807,14 +17289,17 @@
       <c r="AE155">
         <v>2.33846356091883</v>
       </c>
-      <c r="AF155">
+      <c r="AF155" s="2">
         <v>2.64967091314199</v>
       </c>
       <c r="AG155">
         <v>0.714578281301818</v>
       </c>
+      <c r="AH155" s="2">
+        <v>2.64967091314199</v>
+      </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>188</v>
       </c>
@@ -16908,14 +17393,17 @@
       <c r="AE156">
         <v>1.2126447540035099</v>
       </c>
-      <c r="AF156">
+      <c r="AF156" s="2">
         <v>1.4961630782231099</v>
       </c>
       <c r="AG156">
         <v>1.1275821695286199</v>
       </c>
+      <c r="AH156" s="2">
+        <v>1.4961630782231099</v>
+      </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>189</v>
       </c>
@@ -17009,14 +17497,17 @@
       <c r="AE157">
         <v>1.0654731907830901</v>
       </c>
-      <c r="AF157">
+      <c r="AF157" s="2">
         <v>1.2694885070476101</v>
       </c>
       <c r="AG157">
         <v>1.3448012660711699</v>
       </c>
+      <c r="AH157" s="2">
+        <v>1.2694885070476101</v>
+      </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>190</v>
       </c>
@@ -17110,14 +17601,17 @@
       <c r="AE158">
         <v>2.7126386866082699</v>
       </c>
-      <c r="AF158">
+      <c r="AF158" s="2">
         <v>3.3087951075511399</v>
       </c>
       <c r="AG158">
         <v>2.1810294014909601</v>
       </c>
+      <c r="AH158" s="2">
+        <v>3.3087951075511399</v>
+      </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>191</v>
       </c>
@@ -17211,14 +17705,17 @@
       <c r="AE159">
         <v>1.7193259301714701</v>
       </c>
-      <c r="AF159">
+      <c r="AF159" s="2">
         <v>2.627762792755</v>
       </c>
       <c r="AG159">
         <v>2.1755523713942102</v>
       </c>
+      <c r="AH159" s="2">
+        <v>2.627762792755</v>
+      </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>192</v>
       </c>
@@ -17312,14 +17809,17 @@
       <c r="AE160">
         <v>2.4607238104840299</v>
       </c>
-      <c r="AF160">
+      <c r="AF160" s="2">
         <v>2.3885678519982498</v>
       </c>
       <c r="AG160">
         <v>2.3986535648379999</v>
       </c>
+      <c r="AH160" s="2">
+        <v>2.3885678519982498</v>
+      </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>193</v>
       </c>
@@ -17413,14 +17913,17 @@
       <c r="AE161">
         <v>2.3033459744979399</v>
       </c>
-      <c r="AF161">
+      <c r="AF161" s="2">
         <v>2.17109979711877</v>
       </c>
       <c r="AG161">
         <v>2.6240563873557901</v>
       </c>
+      <c r="AH161" s="2">
+        <v>2.17109979711877</v>
+      </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>194</v>
       </c>
@@ -17514,14 +18017,17 @@
       <c r="AE162">
         <v>2.16234091354193</v>
       </c>
-      <c r="AF162">
+      <c r="AF162" s="2">
         <v>1.498744259817</v>
       </c>
       <c r="AG162">
         <v>2.1715436754222499</v>
       </c>
+      <c r="AH162" s="2">
+        <v>1.498744259817</v>
+      </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>195</v>
       </c>
@@ -17615,14 +18121,17 @@
       <c r="AE163">
         <v>1.28953603567754</v>
       </c>
-      <c r="AF163">
+      <c r="AF163" s="2">
         <v>1.2454291079145301</v>
       </c>
       <c r="AG163">
         <v>1.82596025421214</v>
       </c>
+      <c r="AH163" s="2">
+        <v>1.2454291079145301</v>
+      </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>196</v>
       </c>
@@ -17716,14 +18225,17 @@
       <c r="AE164">
         <v>1.16918009307753</v>
       </c>
-      <c r="AF164">
+      <c r="AF164" s="2">
         <v>0.25619292584307102</v>
       </c>
       <c r="AG164">
         <v>1.29286652267334</v>
       </c>
+      <c r="AH164" s="2">
+        <v>0.25619292584307102</v>
+      </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>197</v>
       </c>
@@ -17817,14 +18329,17 @@
       <c r="AE165">
         <v>1.0103314525268401</v>
       </c>
-      <c r="AF165">
+      <c r="AF165" s="2">
         <v>0.15477904096350201</v>
       </c>
       <c r="AG165">
         <v>0.788786333634524</v>
       </c>
+      <c r="AH165" s="2">
+        <v>0.15477904096350201</v>
+      </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>198</v>
       </c>
@@ -17918,14 +18433,17 @@
       <c r="AE166">
         <v>-0.18531550927093501</v>
       </c>
-      <c r="AF166">
+      <c r="AF166" s="2">
         <v>-1.53678881135372</v>
       </c>
       <c r="AG166">
         <v>2.9903065841844701E-2</v>
       </c>
+      <c r="AH166" s="2">
+        <v>-1.53678881135372</v>
+      </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>199</v>
       </c>
@@ -18019,14 +18537,17 @@
       <c r="AE167">
         <v>-0.45050270463481101</v>
       </c>
-      <c r="AF167">
+      <c r="AF167" s="2">
         <v>-1.35981709617502</v>
       </c>
       <c r="AG167">
         <v>-0.62140848518054403</v>
       </c>
+      <c r="AH167" s="2">
+        <v>-1.35981709617502</v>
+      </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>200</v>
       </c>
@@ -18120,14 +18641,17 @@
       <c r="AE168">
         <v>-0.61057806753739396</v>
       </c>
-      <c r="AF168">
+      <c r="AF168" s="2">
         <v>-2.11845301321677</v>
       </c>
       <c r="AG168">
         <v>-1.2150699699455001</v>
       </c>
+      <c r="AH168" s="2">
+        <v>-2.11845301321677</v>
+      </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>201</v>
       </c>
@@ -18221,14 +18745,17 @@
       <c r="AE169">
         <v>-0.62466899172139501</v>
       </c>
-      <c r="AF169">
+      <c r="AF169" s="2">
         <v>-1.02534588743541</v>
       </c>
       <c r="AG169">
         <v>-1.51010120204523</v>
       </c>
+      <c r="AH169" s="2">
+        <v>-1.02534588743541</v>
+      </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>202</v>
       </c>
@@ -18322,14 +18849,17 @@
       <c r="AE170">
         <v>-0.74938574233967503</v>
       </c>
-      <c r="AF170">
+      <c r="AF170" s="2">
         <v>-1.4360404960917501</v>
       </c>
       <c r="AG170">
         <v>-1.48491412322974</v>
       </c>
+      <c r="AH170" s="2">
+        <v>-1.4360404960917501</v>
+      </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>203</v>
       </c>
@@ -18423,14 +18953,17 @@
       <c r="AE171">
         <v>-0.61174742372156199</v>
       </c>
-      <c r="AF171">
+      <c r="AF171" s="2">
         <v>-1.37241564140301</v>
       </c>
       <c r="AG171">
         <v>-1.4880637595367401</v>
       </c>
+      <c r="AH171" s="2">
+        <v>-1.37241564140301</v>
+      </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>204</v>
       </c>
@@ -18524,14 +19057,17 @@
       <c r="AE172">
         <v>-0.47734517360182799</v>
       </c>
-      <c r="AF172">
+      <c r="AF172" s="2">
         <v>-0.93861922972386003</v>
       </c>
       <c r="AG172">
         <v>-1.1931053136635099</v>
       </c>
+      <c r="AH172" s="2">
+        <v>-0.93861922972386003</v>
+      </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>205</v>
       </c>
@@ -18625,14 +19161,17 @@
       <c r="AE173">
         <v>-0.52658745403523799</v>
       </c>
-      <c r="AF173">
+      <c r="AF173" s="2">
         <v>-1.6315831047685101</v>
       </c>
       <c r="AG173">
         <v>-1.34466461799679</v>
       </c>
+      <c r="AH173" s="2">
+        <v>-1.6315831047685101</v>
+      </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>206</v>
       </c>
@@ -18726,14 +19265,17 @@
       <c r="AE174">
         <v>-0.84367258028493397</v>
       </c>
-      <c r="AF174">
+      <c r="AF174" s="2">
         <v>-1.9011853826099301</v>
       </c>
       <c r="AG174">
         <v>-1.46095083962633</v>
       </c>
+      <c r="AH174" s="2">
+        <v>-1.9011853826099301</v>
+      </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>207</v>
       </c>
@@ -18827,14 +19369,17 @@
       <c r="AE175">
         <v>-0.86589641654650495</v>
       </c>
-      <c r="AF175">
+      <c r="AF175" s="2">
         <v>-1.30200284007373</v>
       </c>
       <c r="AG175">
         <v>-1.4433476392940101</v>
       </c>
+      <c r="AH175" s="2">
+        <v>-1.30200284007373</v>
+      </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>208</v>
       </c>
@@ -18928,14 +19473,17 @@
       <c r="AE176">
         <v>-0.41248036541513999</v>
       </c>
-      <c r="AF176">
+      <c r="AF176" s="2">
         <v>-1.11993328101173</v>
       </c>
       <c r="AG176">
         <v>-1.4886761521159799</v>
       </c>
+      <c r="AH176" s="2">
+        <v>-1.11993328101173</v>
+      </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>209</v>
       </c>
@@ -19029,14 +19577,17 @@
       <c r="AE177">
         <v>-0.49517746634652199</v>
       </c>
-      <c r="AF177">
+      <c r="AF177" s="2">
         <v>-1.40989974521991</v>
       </c>
       <c r="AG177">
         <v>-1.4332553122288301</v>
       </c>
+      <c r="AH177" s="2">
+        <v>-1.40989974521991</v>
+      </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>210</v>
       </c>
@@ -19130,14 +19681,17 @@
       <c r="AE178">
         <v>-0.66823051832957503</v>
       </c>
-      <c r="AF178">
+      <c r="AF178" s="2">
         <v>-1.3248488942465499</v>
       </c>
       <c r="AG178">
         <v>-1.2891711901379801</v>
       </c>
+      <c r="AH178" s="2">
+        <v>-1.3248488942465499</v>
+      </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>211</v>
       </c>
@@ -19231,14 +19785,17 @@
       <c r="AE179">
         <v>-0.49543044173234102</v>
       </c>
-      <c r="AF179">
+      <c r="AF179" s="2">
         <v>-0.73243696100130096</v>
       </c>
       <c r="AG179">
         <v>-1.14677972036988</v>
       </c>
+      <c r="AH179" s="2">
+        <v>-0.73243696100130096</v>
+      </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>212</v>
       </c>
@@ -19332,14 +19889,17 @@
       <c r="AE180">
         <v>-0.328976605597949</v>
       </c>
-      <c r="AF180">
+      <c r="AF180" s="2">
         <v>-0.18028540673101301</v>
       </c>
       <c r="AG180">
         <v>-0.91186775179969504</v>
       </c>
+      <c r="AH180" s="2">
+        <v>-0.18028540673101301</v>
+      </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>213</v>
       </c>
@@ -19433,14 +19993,17 @@
       <c r="AE181">
         <v>-0.20205480056581601</v>
       </c>
-      <c r="AF181">
+      <c r="AF181" s="2">
         <v>-0.59302760957952505</v>
       </c>
       <c r="AG181">
         <v>-0.70764971788959996</v>
       </c>
+      <c r="AH181" s="2">
+        <v>-0.59302760957952505</v>
+      </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>214</v>
       </c>
@@ -19534,14 +20097,17 @@
       <c r="AE182">
         <v>-3.9116982298838997E-2</v>
       </c>
-      <c r="AF182">
+      <c r="AF182" s="2">
         <v>5.4629579442504898E-2</v>
       </c>
       <c r="AG182">
         <v>-0.36278009946733603</v>
       </c>
+      <c r="AH182" s="2">
+        <v>5.4629579442504898E-2</v>
+      </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>215</v>
       </c>
@@ -19635,14 +20201,17 @@
       <c r="AE183">
         <v>-5.8316668605893102E-2</v>
       </c>
-      <c r="AF183">
+      <c r="AF183" s="2">
         <v>0.30664372095595799</v>
       </c>
       <c r="AG183">
         <v>-0.103009928978021</v>
       </c>
+      <c r="AH183" s="2">
+        <v>0.30664372095595799</v>
+      </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>216</v>
       </c>
@@ -19736,14 +20305,17 @@
       <c r="AE184">
         <v>-9.0094124498687506E-2</v>
       </c>
-      <c r="AF184">
+      <c r="AF184" s="2">
         <v>-4.6814730890804297E-2</v>
       </c>
       <c r="AG184">
         <v>-6.9642260017968902E-2</v>
       </c>
+      <c r="AH184" s="2">
+        <v>-4.6814730890804297E-2</v>
+      </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>217</v>
       </c>
@@ -19837,14 +20409,17 @@
       <c r="AE185">
         <v>-0.12167551980030999</v>
       </c>
-      <c r="AF185">
+      <c r="AF185" s="2">
         <v>-0.14665499193062201</v>
       </c>
       <c r="AG185">
         <v>4.19508943942569E-2</v>
       </c>
+      <c r="AH185" s="2">
+        <v>-0.14665499193062201</v>
+      </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>218</v>
       </c>
@@ -19938,14 +20513,17 @@
       <c r="AE186">
         <v>7.22015700052747E-3</v>
       </c>
-      <c r="AF186">
+      <c r="AF186" s="2">
         <v>0.323238243562957</v>
       </c>
       <c r="AG186">
         <v>0.10910306042437</v>
       </c>
+      <c r="AH186" s="2">
+        <v>0.323238243562957</v>
+      </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>219</v>
       </c>
@@ -20039,14 +20617,17 @@
       <c r="AE187">
         <v>-9.7901418362532407E-3</v>
       </c>
-      <c r="AF187">
+      <c r="AF187" s="2">
         <v>-0.386426586425204</v>
       </c>
       <c r="AG187">
         <v>-6.4164516420920401E-2</v>
       </c>
+      <c r="AH187" s="2">
+        <v>-0.386426586425204</v>
+      </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>220</v>
       </c>
@@ -20140,14 +20721,17 @@
       <c r="AE188">
         <v>-0.11934580273708</v>
       </c>
-      <c r="AF188">
+      <c r="AF188" s="2">
         <v>-0.13225664700211101</v>
       </c>
       <c r="AG188">
         <v>-8.5524995448747101E-2</v>
       </c>
+      <c r="AH188" s="2">
+        <v>-0.13225664700211101</v>
+      </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>221</v>
       </c>
@@ -20241,14 +20825,17 @@
       <c r="AE189">
         <v>-2.7759123904434201E-2</v>
       </c>
-      <c r="AF189">
+      <c r="AF189" s="2">
         <v>-0.22151295461759599</v>
       </c>
       <c r="AG189">
         <v>-0.104239486120491</v>
       </c>
+      <c r="AH189" s="2">
+        <v>-0.22151295461759599</v>
+      </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>222</v>
       </c>
@@ -20342,14 +20929,17 @@
       <c r="AE190">
         <v>0.168890885561431</v>
       </c>
-      <c r="AF190">
+      <c r="AF190" s="2">
         <v>-0.34554352734323601</v>
       </c>
       <c r="AG190">
         <v>-0.27143492884703901</v>
       </c>
+      <c r="AH190" s="2">
+        <v>-0.34554352734323601</v>
+      </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>223</v>
       </c>
@@ -20443,14 +21033,17 @@
       <c r="AE191">
         <v>0.13282791575505301</v>
       </c>
-      <c r="AF191">
+      <c r="AF191" s="2">
         <v>1.15045640465811E-2</v>
       </c>
       <c r="AG191">
         <v>-0.171952141229093</v>
       </c>
+      <c r="AH191" s="2">
+        <v>1.15045640465811E-2</v>
+      </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>224</v>
       </c>
@@ -20544,14 +21137,17 @@
       <c r="AE192">
         <v>6.9509524740031706E-2</v>
       </c>
-      <c r="AF192">
+      <c r="AF192" s="2">
         <v>-0.17336696965218501</v>
       </c>
       <c r="AG192">
         <v>-0.18222972189161099</v>
       </c>
+      <c r="AH192" s="2">
+        <v>-0.17336696965218501</v>
+      </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>225</v>
       </c>
@@ -20645,14 +21241,17 @@
       <c r="AE193">
         <v>-0.12638622560396501</v>
       </c>
-      <c r="AF193">
+      <c r="AF193" s="2">
         <v>0.16361762656272</v>
       </c>
       <c r="AG193">
         <v>-8.5947076596532196E-2</v>
       </c>
+      <c r="AH193" s="2">
+        <v>0.16361762656272</v>
+      </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>226</v>
       </c>
@@ -20746,14 +21345,17 @@
       <c r="AE194">
         <v>8.9892495494773794E-2</v>
       </c>
-      <c r="AF194">
+      <c r="AF194" s="2">
         <v>-0.10766200469182501</v>
       </c>
       <c r="AG194">
         <v>-2.64766959336796E-2</v>
       </c>
+      <c r="AH194" s="2">
+        <v>-0.10766200469182501</v>
+      </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>227</v>
       </c>
@@ -20847,14 +21449,17 @@
       <c r="AE195">
         <v>0.248395944677654</v>
       </c>
-      <c r="AF195">
+      <c r="AF195" s="2">
         <v>0.393163169761368</v>
       </c>
       <c r="AG195">
         <v>6.8937955495017203E-2</v>
       </c>
+      <c r="AH195" s="2">
+        <v>0.393163169761368</v>
+      </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>228</v>
       </c>
@@ -20948,14 +21553,17 @@
       <c r="AE196">
         <v>6.5564867030635701E-2</v>
       </c>
-      <c r="AF196">
+      <c r="AF196" s="2">
         <v>0.257914978397348</v>
       </c>
       <c r="AG196">
         <v>0.1767584425074</v>
       </c>
+      <c r="AH196" s="2">
+        <v>0.257914978397348</v>
+      </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>229</v>
       </c>
@@ -21049,2236 +21657,2481 @@
       <c r="AE197">
         <v>7.1167005580134807E-2</v>
       </c>
-      <c r="AF197">
+      <c r="AF197" s="2">
         <v>-0.19645321664245199</v>
       </c>
       <c r="AG197">
         <v>8.6740731706107299E-2</v>
       </c>
+      <c r="AH197" s="2">
+        <v>-0.19645321664245199</v>
+      </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A198" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="3">
         <v>-1</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="3">
         <v>8.0603283939960704E-2</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="3">
         <v>-0.212612058639434</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="3">
         <v>7.7705864578080201E-3</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="3">
         <v>0.49550142928115498</v>
       </c>
-      <c r="H198">
+      <c r="H198" s="3">
         <v>-0.183808232471243</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="3">
         <v>-0.10263451085480101</v>
       </c>
-      <c r="J198">
+      <c r="J198" s="3">
         <v>8.5275366579606507E-2</v>
       </c>
-      <c r="K198">
-        <v>0</v>
-      </c>
-      <c r="L198">
+      <c r="K198" s="3">
+        <v>0</v>
+      </c>
+      <c r="L198" s="3">
         <v>-9.5312140675622992E-3</v>
       </c>
-      <c r="M198">
+      <c r="M198" s="3">
         <v>0.13535095541904599</v>
       </c>
-      <c r="N198">
+      <c r="N198" s="3">
         <v>1.05234573424795E-2</v>
       </c>
-      <c r="O198">
-        <v>0</v>
-      </c>
-      <c r="P198">
-        <v>0</v>
-      </c>
-      <c r="Q198">
-        <v>0</v>
-      </c>
-      <c r="R198">
+      <c r="O198" s="3">
+        <v>0</v>
+      </c>
+      <c r="P198" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q198" s="3">
+        <v>0</v>
+      </c>
+      <c r="R198" s="3">
         <v>1.9634526908361601E-2</v>
       </c>
-      <c r="S198">
+      <c r="S198" s="3">
         <v>3.0146653014207201E-3</v>
       </c>
-      <c r="T198">
-        <v>0</v>
-      </c>
-      <c r="U198">
-        <v>0</v>
-      </c>
-      <c r="V198">
-        <v>0</v>
-      </c>
-      <c r="W198">
-        <v>0</v>
-      </c>
-      <c r="X198">
+      <c r="T198" s="3">
+        <v>0</v>
+      </c>
+      <c r="U198" s="3">
+        <v>0</v>
+      </c>
+      <c r="V198" s="3">
+        <v>0</v>
+      </c>
+      <c r="W198" s="3">
+        <v>0</v>
+      </c>
+      <c r="X198" s="3">
         <v>2.8254640740991901E-5</v>
       </c>
-      <c r="Y198">
+      <c r="Y198" s="3">
         <v>0.17224349350222301</v>
       </c>
-      <c r="Z198">
+      <c r="Z198" s="3">
         <v>-2.38932762022484E-2</v>
       </c>
-      <c r="AA198">
+      <c r="AA198" s="3">
         <v>-0.12423818824166601</v>
       </c>
-      <c r="AB198">
+      <c r="AB198" s="3">
         <v>0.700342901462781</v>
       </c>
-      <c r="AC198">
+      <c r="AC198" s="3">
         <v>-0.210698590814</v>
       </c>
-      <c r="AD198">
+      <c r="AD198" s="3">
         <v>0.31690207691202299</v>
       </c>
-      <c r="AE198">
+      <c r="AE198" s="3">
         <v>0.10620348609802301</v>
       </c>
-      <c r="AF198">
+      <c r="AF198" s="3">
         <v>0.682308199319138</v>
       </c>
-      <c r="AG198">
+      <c r="AG198" s="3">
         <v>0.28423328270884801</v>
       </c>
+      <c r="AH198" s="3">
+        <v>0.70853755297075804</v>
+      </c>
+      <c r="AI198">
+        <f>AH198-AF198</f>
+        <v>2.6229353651620047E-2</v>
+      </c>
+      <c r="AJ198">
+        <f>ABS(AI198)</f>
+        <v>2.6229353651620047E-2</v>
+      </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A199" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="3">
         <v>-1</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="3">
         <v>0.22760510820837099</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="3">
         <v>0.129994470607524</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="3">
         <v>-1.38381818745107E-2</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="3">
         <v>0.46845417082264201</v>
       </c>
-      <c r="H199">
+      <c r="H199" s="3">
         <v>-1.35176460567184E-2</v>
       </c>
-      <c r="I199">
+      <c r="I199" s="3">
         <v>-0.19908489381254199</v>
       </c>
-      <c r="J199">
+      <c r="J199" s="3">
         <v>8.5624278076562296E-2</v>
       </c>
-      <c r="K199">
-        <v>0</v>
-      </c>
-      <c r="L199">
+      <c r="K199" s="3">
+        <v>0</v>
+      </c>
+      <c r="L199" s="3">
         <v>-9.4805436341132403E-3</v>
       </c>
-      <c r="M199">
+      <c r="M199" s="3">
         <v>6.2125034818997102E-2</v>
       </c>
-      <c r="N199">
+      <c r="N199" s="3">
         <v>5.7957346992937404E-3</v>
       </c>
-      <c r="O199">
-        <v>0</v>
-      </c>
-      <c r="P199">
-        <v>0</v>
-      </c>
-      <c r="Q199">
-        <v>0</v>
-      </c>
-      <c r="R199">
+      <c r="O199" s="3">
+        <v>0</v>
+      </c>
+      <c r="P199" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q199" s="3">
+        <v>0</v>
+      </c>
+      <c r="R199" s="3">
         <v>-4.6172620301476704E-3</v>
       </c>
-      <c r="S199">
+      <c r="S199" s="3">
         <v>-8.3103685153908605E-3</v>
       </c>
-      <c r="T199">
-        <v>0</v>
-      </c>
-      <c r="U199">
-        <v>0</v>
-      </c>
-      <c r="V199">
-        <v>0</v>
-      </c>
-      <c r="W199">
-        <v>0</v>
-      </c>
-      <c r="X199">
+      <c r="T199" s="3">
+        <v>0</v>
+      </c>
+      <c r="U199" s="3">
+        <v>0</v>
+      </c>
+      <c r="V199" s="3">
+        <v>0</v>
+      </c>
+      <c r="W199" s="3">
+        <v>0</v>
+      </c>
+      <c r="X199" s="3">
         <v>2.88542078026649E-8</v>
       </c>
-      <c r="Y199">
+      <c r="Y199" s="3">
         <v>0.173766140914003</v>
       </c>
-      <c r="Z199">
+      <c r="Z199" s="3">
         <v>-6.82948224801182E-2</v>
       </c>
-      <c r="AA199">
+      <c r="AA199" s="3">
         <v>0.34376139694138502</v>
       </c>
-      <c r="AB199">
+      <c r="AB199" s="3">
         <v>0.35229788208962798</v>
       </c>
-      <c r="AC199">
+      <c r="AC199" s="3">
         <v>-0.13645880542681099</v>
       </c>
-      <c r="AD199">
+      <c r="AD199" s="3">
         <v>0.160464486260845</v>
       </c>
-      <c r="AE199">
+      <c r="AE199" s="3">
         <v>2.4005680834033299E-2</v>
       </c>
-      <c r="AF199">
+      <c r="AF199" s="3">
         <v>0.72006495986504704</v>
       </c>
-      <c r="AG199">
+      <c r="AG199" s="3">
         <v>0.36595873023476799</v>
       </c>
+      <c r="AH199" s="3">
+        <v>0.62520820973372404</v>
+      </c>
+      <c r="AI199">
+        <f t="shared" ref="AI199:AI218" si="0">AH199-AF199</f>
+        <v>-9.4856750131322998E-2</v>
+      </c>
+      <c r="AJ199">
+        <f t="shared" ref="AJ199:AJ219" si="1">ABS(AI199)</f>
+        <v>9.4856750131322998E-2</v>
+      </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A200" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="3">
         <v>-1</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="3">
         <v>0.221122092028948</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="3">
         <v>-0.103529386514533</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="3">
         <v>5.72369057272153E-2</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="3">
         <v>0.19831101517361599</v>
       </c>
-      <c r="H200">
+      <c r="H200" s="3">
         <v>-3.8644424814765599E-2</v>
       </c>
-      <c r="I200">
+      <c r="I200" s="3">
         <v>-0.14261073476779701</v>
       </c>
-      <c r="J200">
+      <c r="J200" s="3">
         <v>9.1224346112147595E-2</v>
       </c>
-      <c r="K200">
-        <v>0</v>
-      </c>
-      <c r="L200">
+      <c r="K200" s="3">
+        <v>0</v>
+      </c>
+      <c r="L200" s="3">
         <v>-9.8659320814040892E-3</v>
       </c>
-      <c r="M200">
+      <c r="M200" s="3">
         <v>0.137657871719847</v>
       </c>
-      <c r="N200">
+      <c r="N200" s="3">
         <v>1.28338797258312E-2</v>
       </c>
-      <c r="O200">
-        <v>0</v>
-      </c>
-      <c r="P200">
-        <v>0</v>
-      </c>
-      <c r="Q200">
-        <v>0</v>
-      </c>
-      <c r="R200">
+      <c r="O200" s="3">
+        <v>0</v>
+      </c>
+      <c r="P200" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q200" s="3">
+        <v>0</v>
+      </c>
+      <c r="R200" s="3">
         <v>-3.1714618752833698E-2</v>
       </c>
-      <c r="S200">
+      <c r="S200" s="3">
         <v>1.3871815364187899E-2</v>
       </c>
-      <c r="T200">
-        <v>0</v>
-      </c>
-      <c r="U200">
-        <v>0</v>
-      </c>
-      <c r="V200">
-        <v>0</v>
-      </c>
-      <c r="W200">
-        <v>0</v>
-      </c>
-      <c r="X200">
+      <c r="T200" s="3">
+        <v>0</v>
+      </c>
+      <c r="U200" s="3">
+        <v>0</v>
+      </c>
+      <c r="V200" s="3">
+        <v>0</v>
+      </c>
+      <c r="W200" s="3">
+        <v>0</v>
+      </c>
+      <c r="X200" s="3">
         <v>1.3403913054319401E-5</v>
       </c>
-      <c r="Y200">
+      <c r="Y200" s="3">
         <v>0.19554692602740301</v>
       </c>
-      <c r="Z200">
+      <c r="Z200" s="3">
         <v>-2.61132946627456E-2</v>
       </c>
-      <c r="AA200">
+      <c r="AA200" s="3">
         <v>0.17482961124162999</v>
       </c>
-      <c r="AB200">
+      <c r="AB200" s="3">
         <v>0.244603495960934</v>
       </c>
-      <c r="AC200">
+      <c r="AC200" s="3">
         <v>-9.9896745551819502E-2</v>
       </c>
-      <c r="AD200">
+      <c r="AD200" s="3">
         <v>0.30209598333474402</v>
       </c>
-      <c r="AE200">
+      <c r="AE200" s="3">
         <v>0.20219923778292401</v>
       </c>
-      <c r="AF200">
+      <c r="AF200" s="3">
         <v>0.62163234498548803</v>
       </c>
-      <c r="AG200">
+      <c r="AG200" s="3">
         <v>0.45688807188180303</v>
       </c>
+      <c r="AH200" s="3">
+        <v>0.65913756322890504</v>
+      </c>
+      <c r="AI200">
+        <f t="shared" si="0"/>
+        <v>3.7505218243417016E-2</v>
+      </c>
+      <c r="AJ200">
+        <f t="shared" si="1"/>
+        <v>3.7505218243417016E-2</v>
+      </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A201" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="3">
         <v>1</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="3">
         <v>-7.1160666299229597E-2</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="3">
         <v>0.229369629564047</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="3">
         <v>7.1803370869258903E-3</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="3">
         <v>0.16368760336906099</v>
       </c>
-      <c r="H201">
+      <c r="H201" s="3">
         <v>-3.6272831161231499E-2</v>
       </c>
-      <c r="I201">
+      <c r="I201" s="3">
         <v>5.6978916083998001E-2</v>
       </c>
-      <c r="J201">
+      <c r="J201" s="3">
         <v>5.5721047758221599E-2</v>
       </c>
-      <c r="K201">
-        <v>0</v>
-      </c>
-      <c r="L201">
+      <c r="K201" s="3">
+        <v>0</v>
+      </c>
+      <c r="L201" s="3">
         <v>-6.6926479529780397E-3</v>
       </c>
-      <c r="M201">
+      <c r="M201" s="3">
         <v>0.113797267309498</v>
       </c>
-      <c r="N201">
+      <c r="N201" s="3">
         <v>1.00230702127633E-2</v>
       </c>
-      <c r="O201">
-        <v>0</v>
-      </c>
-      <c r="P201">
-        <v>0</v>
-      </c>
-      <c r="Q201">
-        <v>0</v>
-      </c>
-      <c r="R201">
+      <c r="O201" s="3">
+        <v>0</v>
+      </c>
+      <c r="P201" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q201" s="3">
+        <v>0</v>
+      </c>
+      <c r="R201" s="3">
         <v>-9.1535014905442195E-3</v>
       </c>
-      <c r="S201">
+      <c r="S201" s="3">
         <v>1.1308628223391201E-2</v>
       </c>
-      <c r="T201">
-        <v>0</v>
-      </c>
-      <c r="U201">
-        <v>0</v>
-      </c>
-      <c r="V201">
-        <v>0</v>
-      </c>
-      <c r="W201">
-        <v>0</v>
-      </c>
-      <c r="X201">
+      <c r="T201" s="3">
+        <v>0</v>
+      </c>
+      <c r="U201" s="3">
+        <v>0</v>
+      </c>
+      <c r="V201" s="3">
+        <v>0</v>
+      </c>
+      <c r="W201" s="3">
+        <v>0</v>
+      </c>
+      <c r="X201" s="3">
         <v>6.4712444029497102E-6</v>
       </c>
-      <c r="Y201">
+      <c r="Y201" s="3">
         <v>9.6711703315957701E-2</v>
       </c>
-      <c r="Z201">
+      <c r="Z201" s="3">
         <v>3.76432540780946E-3</v>
       </c>
-      <c r="AA201">
+      <c r="AA201" s="3">
         <v>0.16538930035174301</v>
       </c>
-      <c r="AB201">
+      <c r="AB201" s="3">
         <v>-7.2862363281911702E-2</v>
       </c>
-      <c r="AC201">
+      <c r="AC201" s="3">
         <v>6.9734484728009999E-2</v>
       </c>
-      <c r="AD201">
+      <c r="AD201" s="3">
         <v>0.22645796422327899</v>
       </c>
-      <c r="AE201">
+      <c r="AE201" s="3">
         <v>0.29619244895128799</v>
       </c>
-      <c r="AF201">
+      <c r="AF201" s="3">
         <v>0.38871938602111999</v>
       </c>
-      <c r="AG201">
+      <c r="AG201" s="3">
         <v>0.60318122254769602</v>
       </c>
+      <c r="AH201" s="3">
+        <v>0.50798333563379905</v>
+      </c>
+      <c r="AI201">
+        <f t="shared" si="0"/>
+        <v>0.11926394961267905</v>
+      </c>
+      <c r="AJ201">
+        <f t="shared" si="1"/>
+        <v>0.11926394961267905</v>
+      </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A202" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="3">
         <v>1</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="3">
         <v>0.20029998043592401</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="3">
         <v>5.6414430531667503E-2</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="3">
         <v>4.66364996198637E-2</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="3">
         <v>0.22190189876083</v>
       </c>
-      <c r="H202">
+      <c r="H202" s="3">
         <v>-0.19597771721635199</v>
       </c>
-      <c r="I202">
+      <c r="I202" s="3">
         <v>3.8850472254434103E-2</v>
       </c>
-      <c r="J202">
+      <c r="J202" s="3">
         <v>2.68465650302817E-2</v>
       </c>
-      <c r="K202">
-        <v>0</v>
-      </c>
-      <c r="L202">
+      <c r="K202" s="3">
+        <v>0</v>
+      </c>
+      <c r="L202" s="3">
         <v>-2.7489270613434902E-3</v>
       </c>
-      <c r="M202">
+      <c r="M202" s="3">
         <v>8.5848631368519196E-2</v>
       </c>
-      <c r="N202">
+      <c r="N202" s="3">
         <v>2.0169332273973099E-2</v>
       </c>
-      <c r="O202">
-        <v>0</v>
-      </c>
-      <c r="P202">
-        <v>0</v>
-      </c>
-      <c r="Q202">
-        <v>0</v>
-      </c>
-      <c r="R202">
+      <c r="O202" s="3">
+        <v>0</v>
+      </c>
+      <c r="P202" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q202" s="3">
+        <v>0</v>
+      </c>
+      <c r="R202" s="3">
         <v>8.3116011153001601E-2</v>
       </c>
-      <c r="S202">
+      <c r="S202" s="3">
         <v>1.00348118563703E-2</v>
       </c>
-      <c r="T202">
-        <v>0</v>
-      </c>
-      <c r="U202">
-        <v>0</v>
-      </c>
-      <c r="V202">
-        <v>0</v>
-      </c>
-      <c r="W202">
-        <v>0</v>
-      </c>
-      <c r="X202">
+      <c r="T202" s="3">
+        <v>0</v>
+      </c>
+      <c r="U202" s="3">
+        <v>0</v>
+      </c>
+      <c r="V202" s="3">
+        <v>0</v>
+      </c>
+      <c r="W202" s="3">
+        <v>0</v>
+      </c>
+      <c r="X202" s="3">
         <v>9.7039715044860196E-6</v>
       </c>
-      <c r="Y202">
+      <c r="Y202" s="3">
         <v>1.9953587695535201E-2</v>
       </c>
-      <c r="Z202">
+      <c r="Z202" s="3">
         <v>-6.8835608929562295E-2</v>
       </c>
-      <c r="AA202">
+      <c r="AA202" s="3">
         <v>0.303350910587455</v>
       </c>
-      <c r="AB202">
+      <c r="AB202" s="3">
         <v>0.118850968609299</v>
       </c>
-      <c r="AC202">
+      <c r="AC202" s="3">
         <v>-0.133029606992979</v>
       </c>
-      <c r="AD202">
+      <c r="AD202" s="3">
         <v>0.15029646938934199</v>
       </c>
-      <c r="AE202">
+      <c r="AE202" s="3">
         <v>1.72668623963621E-2</v>
       </c>
-      <c r="AF202">
+      <c r="AF202" s="3">
         <v>0.439468741593116</v>
       </c>
-      <c r="AG202">
+      <c r="AG202" s="3">
         <v>0.54247135811618996</v>
       </c>
+      <c r="AH202" s="3">
+        <v>0.45766772623729401</v>
+      </c>
+      <c r="AI202">
+        <f t="shared" si="0"/>
+        <v>1.8198984644178018E-2</v>
+      </c>
+      <c r="AJ202">
+        <f t="shared" si="1"/>
+        <v>1.8198984644178018E-2</v>
+      </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A203" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="3">
         <v>1</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="3">
         <v>1.7966764883929101</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="3">
         <v>1.9436999456258699</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="3">
         <v>1.1176238092441899E-2</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="3">
         <v>-0.638244104277229</v>
       </c>
-      <c r="H203">
+      <c r="H203" s="3">
         <v>0.18657458499457999</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="3">
         <v>7.9236774969679194E-2</v>
       </c>
-      <c r="J203">
+      <c r="J203" s="3">
         <v>1.68883952247979E-2</v>
       </c>
-      <c r="K203">
-        <v>0</v>
-      </c>
-      <c r="L203">
+      <c r="K203" s="3">
+        <v>0</v>
+      </c>
+      <c r="L203" s="3">
         <v>-5.7983262598135998E-3</v>
       </c>
-      <c r="M203">
+      <c r="M203" s="3">
         <v>0.57967850021700795</v>
       </c>
-      <c r="N203">
+      <c r="N203" s="3">
         <v>3.91197776958261E-2</v>
       </c>
-      <c r="O203">
+      <c r="O203" s="3">
         <v>4.8673807384884702</v>
       </c>
-      <c r="P203">
-        <v>0</v>
-      </c>
-      <c r="Q203">
+      <c r="P203" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q203" s="3">
         <v>4.5253541565890396</v>
       </c>
-      <c r="R203">
+      <c r="R203" s="3">
         <v>0.84078443506131595</v>
       </c>
-      <c r="S203">
+      <c r="S203" s="3">
         <v>0.83172634600623396</v>
       </c>
-      <c r="T203">
-        <v>0</v>
-      </c>
-      <c r="U203">
+      <c r="T203" s="3">
+        <v>0</v>
+      </c>
+      <c r="U203" s="3">
         <v>0.41510146730242098</v>
       </c>
-      <c r="V203">
-        <v>0</v>
-      </c>
-      <c r="W203">
+      <c r="V203" s="3">
+        <v>0</v>
+      </c>
+      <c r="W203" s="3">
         <v>0.16584893925782601</v>
       </c>
-      <c r="X203">
+      <c r="X203" s="3">
         <v>1.36215404556346E-5</v>
       </c>
-      <c r="Y203">
+      <c r="Y203" s="3">
         <v>0.47039598080639899</v>
       </c>
-      <c r="Z203">
+      <c r="Z203" s="3">
         <v>-0.21085945334872799</v>
       </c>
-      <c r="AA203">
+      <c r="AA203" s="3">
         <v>3.75155267211123</v>
       </c>
-      <c r="AB203">
+      <c r="AB203" s="3">
         <v>-2.5931202879955499</v>
       </c>
-      <c r="AC203">
+      <c r="AC203" s="3">
         <v>0.27690142892924302</v>
       </c>
-      <c r="AD203">
+      <c r="AD203" s="3">
         <v>12.5245445096163</v>
       </c>
-      <c r="AE203">
+      <c r="AE203" s="3">
         <v>12.8014459385455</v>
       </c>
-      <c r="AF203">
+      <c r="AF203" s="3">
         <v>13.959878322661201</v>
       </c>
-      <c r="AG203">
+      <c r="AG203" s="3">
         <v>3.8524246988152302</v>
       </c>
+      <c r="AH203" s="3">
+        <v>14.0679201288727</v>
+      </c>
+      <c r="AI203">
+        <f t="shared" si="0"/>
+        <v>0.10804180621149939</v>
+      </c>
+      <c r="AJ203">
+        <f t="shared" si="1"/>
+        <v>0.10804180621149939</v>
+      </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A204" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="3">
         <v>-1</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="3">
         <v>-1.17697898081639</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="3">
         <v>-0.555505739024997</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="3">
         <v>5.10295226414594E-2</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="3">
         <v>-0.48808818765499901</v>
       </c>
-      <c r="H204">
+      <c r="H204" s="3">
         <v>0.37525563191647299</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="3">
         <v>8.1145891757563607E-2</v>
       </c>
-      <c r="J204">
+      <c r="J204" s="3">
         <v>1.9285881639248902E-2</v>
       </c>
-      <c r="K204">
-        <v>0</v>
-      </c>
-      <c r="L204">
+      <c r="K204" s="3">
+        <v>0</v>
+      </c>
+      <c r="L204" s="3">
         <v>-1.0260494321737999E-2</v>
       </c>
-      <c r="M204">
+      <c r="M204" s="3">
         <v>0.96258750318587605</v>
       </c>
-      <c r="N204">
+      <c r="N204" s="3">
         <v>7.1730673293451102E-3</v>
       </c>
-      <c r="O204">
+      <c r="O204" s="3">
         <v>-3.0242765182304501</v>
       </c>
-      <c r="P204">
-        <v>0</v>
-      </c>
-      <c r="Q204">
+      <c r="P204" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="3">
         <v>4.29277734497271</v>
       </c>
-      <c r="R204">
+      <c r="R204" s="3">
         <v>0.46495722695406</v>
       </c>
-      <c r="S204">
+      <c r="S204" s="3">
         <v>0.894131857468353</v>
       </c>
-      <c r="T204">
-        <v>0</v>
-      </c>
-      <c r="U204">
+      <c r="T204" s="3">
+        <v>0</v>
+      </c>
+      <c r="U204" s="3">
         <v>2.90506118247894E-2</v>
       </c>
-      <c r="V204">
-        <v>0</v>
-      </c>
-      <c r="W204">
+      <c r="V204" s="3">
+        <v>0</v>
+      </c>
+      <c r="W204" s="3">
         <v>0.15130990902553601</v>
       </c>
-      <c r="X204">
+      <c r="X204" s="3">
         <v>-5.1947427689951199E-5</v>
       </c>
-      <c r="Y204">
+      <c r="Y204" s="3">
         <v>0.135417507810353</v>
       </c>
-      <c r="Z204">
+      <c r="Z204" s="3">
         <v>-3.0596493973462299E-2</v>
       </c>
-      <c r="AA204">
+      <c r="AA204" s="3">
         <v>-1.6814551971999301</v>
       </c>
-      <c r="AB204">
+      <c r="AB204" s="3">
         <v>1.6388028728538399E-2</v>
       </c>
-      <c r="AC204">
+      <c r="AC204" s="3">
         <v>0.46542691099154698</v>
       </c>
-      <c r="AD204">
+      <c r="AD204" s="3">
         <v>3.8824800689394201</v>
       </c>
-      <c r="AE204">
+      <c r="AE204" s="3">
         <v>4.3479069799309702</v>
       </c>
-      <c r="AF204">
+      <c r="AF204" s="3">
         <v>2.6828398114595799</v>
       </c>
-      <c r="AG204">
+      <c r="AG204" s="3">
         <v>4.3677265654337498</v>
       </c>
+      <c r="AH204" s="3">
+        <v>2.7227627026697201</v>
+      </c>
+      <c r="AI204">
+        <f t="shared" si="0"/>
+        <v>3.9922891210140143E-2</v>
+      </c>
+      <c r="AJ204">
+        <f t="shared" si="1"/>
+        <v>3.9922891210140143E-2</v>
+      </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A205" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="3">
         <v>-1</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="3">
         <v>-0.27258950348746203</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="3">
         <v>-0.26272064371465098</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="3">
         <v>-9.3501678786864703E-2</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="3">
         <v>-0.44606526463494001</v>
       </c>
-      <c r="H205">
+      <c r="H205" s="3">
         <v>-0.38291279501451297</v>
       </c>
-      <c r="I205">
+      <c r="I205" s="3">
         <v>-0.15965380457859901</v>
       </c>
-      <c r="J205">
+      <c r="J205" s="3">
         <v>1.0600706729107401E-2</v>
       </c>
-      <c r="K205">
-        <v>0</v>
-      </c>
-      <c r="L205">
+      <c r="K205" s="3">
+        <v>0</v>
+      </c>
+      <c r="L205" s="3">
         <v>-1.2299771898242801E-2</v>
       </c>
-      <c r="M205">
+      <c r="M205" s="3">
         <v>0.46396919488904997</v>
       </c>
-      <c r="N205">
+      <c r="N205" s="3">
         <v>9.4663641489879102E-3</v>
       </c>
-      <c r="O205">
+      <c r="O205" s="3">
         <v>-1.0150630212891101</v>
       </c>
-      <c r="P205">
-        <v>0</v>
-      </c>
-      <c r="Q205">
+      <c r="P205" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q205" s="3">
         <v>-1.85536804664698</v>
       </c>
-      <c r="R205">
+      <c r="R205" s="3">
         <v>-0.364076251380272</v>
       </c>
-      <c r="S205">
+      <c r="S205" s="3">
         <v>0.170887123873084</v>
       </c>
-      <c r="T205">
-        <v>0</v>
-      </c>
-      <c r="U205">
+      <c r="T205" s="3">
+        <v>0</v>
+      </c>
+      <c r="U205" s="3">
         <v>4.1683832117565899E-2</v>
       </c>
-      <c r="V205">
-        <v>0</v>
-      </c>
-      <c r="W205">
+      <c r="V205" s="3">
+        <v>0</v>
+      </c>
+      <c r="W205" s="3">
         <v>0.130021251599101</v>
       </c>
-      <c r="X205">
+      <c r="X205" s="3">
         <v>-3.1998759133959599E-5</v>
       </c>
-      <c r="Y205">
+      <c r="Y205" s="3">
         <v>0.32737957153646402</v>
       </c>
-      <c r="Z205">
+      <c r="Z205" s="3">
         <v>-0.17081446775203901</v>
       </c>
-      <c r="AA205">
+      <c r="AA205" s="3">
         <v>-0.628811825988978</v>
       </c>
-      <c r="AB205">
+      <c r="AB205" s="3">
         <v>-8.9842942133424003E-2</v>
       </c>
-      <c r="AC205">
+      <c r="AC205" s="3">
         <v>-0.54426566476224703</v>
       </c>
-      <c r="AD205">
+      <c r="AD205" s="3">
         <v>-2.26194644766329</v>
       </c>
-      <c r="AE205">
+      <c r="AE205" s="3">
         <v>-2.8062121124255301</v>
       </c>
-      <c r="AF205">
+      <c r="AF205" s="3">
         <v>-3.5248668805479402</v>
       </c>
-      <c r="AG205">
+      <c r="AG205" s="3">
         <v>3.3893299987914798</v>
       </c>
+      <c r="AH205" s="3">
+        <v>-3.4227976163523799</v>
+      </c>
+      <c r="AI205">
+        <f t="shared" si="0"/>
+        <v>0.10206926419556028</v>
+      </c>
+      <c r="AJ205">
+        <f t="shared" si="1"/>
+        <v>0.10206926419556028</v>
+      </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A206" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="3">
         <v>-1</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="3">
         <v>1.06722114444715</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="3">
         <v>0.41126481365849399</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="3">
         <v>-7.1006025094518394E-2</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="3">
         <v>-0.35658828715173502</v>
       </c>
-      <c r="H206">
+      <c r="H206" s="3">
         <v>-0.211712668377182</v>
       </c>
-      <c r="I206">
+      <c r="I206" s="3">
         <v>4.6440773447949099E-2</v>
       </c>
-      <c r="J206">
+      <c r="J206" s="3">
         <v>3.4831599594744699E-3</v>
       </c>
-      <c r="K206">
-        <v>0</v>
-      </c>
-      <c r="L206">
+      <c r="K206" s="3">
+        <v>0</v>
+      </c>
+      <c r="L206" s="3">
         <v>-1.10373332212705E-2</v>
       </c>
-      <c r="M206">
+      <c r="M206" s="3">
         <v>1.06928559748134</v>
       </c>
-      <c r="N206">
+      <c r="N206" s="3">
         <v>-1.8132576990750101E-2</v>
       </c>
-      <c r="O206">
+      <c r="O206" s="3">
         <v>2.56049255437458</v>
       </c>
-      <c r="P206">
+      <c r="P206" s="3">
         <v>3.4277100501714002</v>
       </c>
-      <c r="Q206">
+      <c r="Q206" s="3">
         <v>-6.5776226774194493E-2</v>
       </c>
-      <c r="R206">
+      <c r="R206" s="3">
         <v>-5.9622344658195402E-2</v>
       </c>
-      <c r="S206">
+      <c r="S206" s="3">
         <v>0.12273140357892599</v>
       </c>
-      <c r="T206">
-        <v>0</v>
-      </c>
-      <c r="U206">
+      <c r="T206" s="3">
+        <v>0</v>
+      </c>
+      <c r="U206" s="3">
         <v>-0.124628356707065</v>
       </c>
-      <c r="V206">
-        <v>0</v>
-      </c>
-      <c r="W206">
+      <c r="V206" s="3">
+        <v>0</v>
+      </c>
+      <c r="W206" s="3">
         <v>0.115578818430376</v>
       </c>
-      <c r="X206">
+      <c r="X206" s="3">
         <v>1.6453274638311001E-3</v>
       </c>
-      <c r="Y206">
+      <c r="Y206" s="3">
         <v>0.181426905209946</v>
       </c>
-      <c r="Z206">
+      <c r="Z206" s="3">
         <v>3.9770858794105399E-2</v>
       </c>
-      <c r="AA206">
+      <c r="AA206" s="3">
         <v>1.4074799330111201</v>
       </c>
-      <c r="AB206">
+      <c r="AB206" s="3">
         <v>-0.69684707571571103</v>
       </c>
-      <c r="AC206">
+      <c r="AC206" s="3">
         <v>-0.172826068191029</v>
       </c>
-      <c r="AD206">
+      <c r="AD206" s="3">
         <v>7.2504820103743004</v>
       </c>
-      <c r="AE206">
+      <c r="AE206" s="3">
         <v>7.0776559421832701</v>
       </c>
-      <c r="AF206">
+      <c r="AF206" s="3">
         <v>7.7882887994786802</v>
       </c>
-      <c r="AG206">
+      <c r="AG206" s="3">
         <v>5.2265350132628701</v>
       </c>
+      <c r="AH206" s="3">
+        <v>7.8491553773838296</v>
+      </c>
+      <c r="AI206">
+        <f t="shared" si="0"/>
+        <v>6.0866577905149377E-2</v>
+      </c>
+      <c r="AJ206">
+        <f t="shared" si="1"/>
+        <v>6.0866577905149377E-2</v>
+      </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A207" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="3">
         <v>-1</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="3">
         <v>-0.78283097189457895</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="3">
         <v>0.47845815405372599</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="3">
         <v>1.2050568708721801E-3</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="3">
         <v>-0.35772615929627599</v>
       </c>
-      <c r="H207">
+      <c r="H207" s="3">
         <v>-0.22118395905278099</v>
       </c>
-      <c r="I207">
+      <c r="I207" s="3">
         <v>3.2670591684254603E-2</v>
       </c>
-      <c r="J207">
+      <c r="J207" s="3">
         <v>-1.1205268923833501E-3</v>
       </c>
-      <c r="K207">
-        <v>0</v>
-      </c>
-      <c r="L207">
+      <c r="K207" s="3">
+        <v>0</v>
+      </c>
+      <c r="L207" s="3">
         <v>-1.0607670541464E-2</v>
       </c>
-      <c r="M207">
+      <c r="M207" s="3">
         <v>-0.16575228531691899</v>
       </c>
-      <c r="N207">
+      <c r="N207" s="3">
         <v>-3.10384558494739E-2</v>
       </c>
-      <c r="O207">
+      <c r="O207" s="3">
         <v>-0.269108538015711</v>
       </c>
-      <c r="P207">
+      <c r="P207" s="3">
         <v>-1.02031763333716</v>
       </c>
-      <c r="Q207">
+      <c r="Q207" s="3">
         <v>5.1932343229067E-2</v>
       </c>
-      <c r="R207">
+      <c r="R207" s="3">
         <v>-0.11789214277309799</v>
       </c>
-      <c r="S207">
+      <c r="S207" s="3">
         <v>0.33709288282825201</v>
       </c>
-      <c r="T207">
+      <c r="T207" s="3">
         <v>4.1615886585074501E-2</v>
       </c>
-      <c r="U207">
+      <c r="U207" s="3">
         <v>-4.0976801369079198E-2</v>
       </c>
-      <c r="V207">
+      <c r="V207" s="3">
         <v>0.120076247112857</v>
       </c>
-      <c r="W207">
+      <c r="W207" s="3">
         <v>6.0993139768839501E-2</v>
       </c>
-      <c r="X207">
+      <c r="X207" s="3">
         <v>6.6546468877810702E-3</v>
       </c>
-      <c r="Y207">
+      <c r="Y207" s="3">
         <v>-0.11732586890592001</v>
       </c>
-      <c r="Z207">
+      <c r="Z207" s="3">
         <v>0.221928755207836</v>
       </c>
-      <c r="AA207">
+      <c r="AA207" s="3">
         <v>-0.30316776096998099</v>
       </c>
-      <c r="AB207">
+      <c r="AB207" s="3">
         <v>-0.83738937022087501</v>
       </c>
-      <c r="AC207">
+      <c r="AC207" s="3">
         <v>-0.20024156480237401</v>
       </c>
-      <c r="AD207">
+      <c r="AD207" s="3">
         <v>-0.92211782394765696</v>
       </c>
-      <c r="AE207">
+      <c r="AE207" s="3">
         <v>-1.1223593887500301</v>
       </c>
-      <c r="AF207">
+      <c r="AF207" s="3">
         <v>-2.26291651994089</v>
       </c>
-      <c r="AG207">
+      <c r="AG207" s="3">
         <v>1.17083630261236</v>
       </c>
+      <c r="AH207" s="3">
+        <v>-2.2163764595006201</v>
+      </c>
+      <c r="AI207">
+        <f t="shared" si="0"/>
+        <v>4.6540060440269926E-2</v>
+      </c>
+      <c r="AJ207">
+        <f t="shared" si="1"/>
+        <v>4.6540060440269926E-2</v>
+      </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A208" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="3">
         <v>-1</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="3">
         <v>-0.61024715421484499</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="3">
         <v>0.246053361387543</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="3">
         <v>-0.11728267584640099</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="3">
         <v>1.40269161781804E-2</v>
       </c>
-      <c r="H208">
+      <c r="H208" s="3">
         <v>-0.29451517404412703</v>
       </c>
-      <c r="I208">
+      <c r="I208" s="3">
         <v>2.8816133120996901E-2</v>
       </c>
-      <c r="J208">
+      <c r="J208" s="3">
         <v>-2.35389679659205E-3</v>
       </c>
-      <c r="K208">
-        <v>0</v>
-      </c>
-      <c r="L208">
+      <c r="K208" s="3">
+        <v>0</v>
+      </c>
+      <c r="L208" s="3">
         <v>-1.92542250005589E-2</v>
       </c>
-      <c r="M208">
+      <c r="M208" s="3">
         <v>-8.3009379671634895E-2</v>
       </c>
-      <c r="N208">
+      <c r="N208" s="3">
         <v>-1.8795170346060801E-2</v>
       </c>
-      <c r="O208">
+      <c r="O208" s="3">
         <v>-1.08806535625023</v>
       </c>
-      <c r="P208">
+      <c r="P208" s="3">
         <v>-4.271673411265E-2</v>
       </c>
-      <c r="Q208">
+      <c r="Q208" s="3">
         <v>-0.988402065950162</v>
       </c>
-      <c r="R208">
+      <c r="R208" s="3">
         <v>-0.26623698340830798</v>
       </c>
-      <c r="S208">
+      <c r="S208" s="3">
         <v>0.17849546169199501</v>
       </c>
-      <c r="T208">
+      <c r="T208" s="3">
         <v>0.18320441685757399</v>
       </c>
-      <c r="U208">
+      <c r="U208" s="3">
         <v>7.8264136869932097E-3</v>
       </c>
-      <c r="V208">
+      <c r="V208" s="3">
         <v>0.13481471149699201</v>
       </c>
-      <c r="W208">
+      <c r="W208" s="3">
         <v>2.7659798525892999E-2</v>
       </c>
-      <c r="X208">
+      <c r="X208" s="3">
         <v>-1.1525196987993199E-3</v>
       </c>
-      <c r="Y208">
+      <c r="Y208" s="3">
         <v>6.8890122959342395E-2</v>
       </c>
-      <c r="Z208">
+      <c r="Z208" s="3">
         <v>-5.4841717900651198E-2</v>
       </c>
-      <c r="AA208">
+      <c r="AA208" s="3">
         <v>-0.48147646867370397</v>
       </c>
-      <c r="AB208">
+      <c r="AB208" s="3">
         <v>-0.114743769362961</v>
       </c>
-      <c r="AC208">
+      <c r="AC208" s="3">
         <v>-0.28730716272028101</v>
       </c>
-      <c r="AD208">
+      <c r="AD208" s="3">
         <v>-1.9423290021196999</v>
       </c>
-      <c r="AE208">
+      <c r="AE208" s="3">
         <v>-2.2296361648399898</v>
       </c>
-      <c r="AF208">
+      <c r="AF208" s="3">
         <v>-2.8258564028766502</v>
       </c>
-      <c r="AG208">
+      <c r="AG208" s="3">
         <v>-0.20633775097170201</v>
       </c>
+      <c r="AH208" s="3">
+        <v>-2.7961050466794499</v>
+      </c>
+      <c r="AI208">
+        <f t="shared" si="0"/>
+        <v>2.9751356197200263E-2</v>
+      </c>
+      <c r="AJ208">
+        <f t="shared" si="1"/>
+        <v>2.9751356197200263E-2</v>
+      </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A209" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="3">
         <v>-1</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="3">
         <v>8.8129520259376207E-3</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="3">
         <v>0.202033010034363</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="3">
         <v>-8.50276604708452E-4</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="3">
         <v>-0.39798802903921099</v>
       </c>
-      <c r="H209">
+      <c r="H209" s="3">
         <v>-0.19919072278997499</v>
       </c>
-      <c r="I209">
+      <c r="I209" s="3">
         <v>-1.70205854197845E-2</v>
       </c>
-      <c r="J209">
+      <c r="J209" s="3">
         <v>-8.4245505262885902E-3</v>
       </c>
-      <c r="K209">
-        <v>0</v>
-      </c>
-      <c r="L209">
+      <c r="K209" s="3">
+        <v>0</v>
+      </c>
+      <c r="L209" s="3">
         <v>-3.7158905086339199E-2</v>
       </c>
-      <c r="M209">
+      <c r="M209" s="3">
         <v>0.15447819649539099</v>
       </c>
-      <c r="N209">
+      <c r="N209" s="3">
         <v>-2.7409080170705799E-2</v>
       </c>
-      <c r="O209">
+      <c r="O209" s="3">
         <v>-0.37809766541102102</v>
       </c>
-      <c r="P209">
+      <c r="P209" s="3">
         <v>-1.1463501454279901</v>
       </c>
-      <c r="Q209">
+      <c r="Q209" s="3">
         <v>-1.05316686241799</v>
       </c>
-      <c r="R209">
+      <c r="R209" s="3">
         <v>-0.148813804018332</v>
       </c>
-      <c r="S209">
+      <c r="S209" s="3">
         <v>1.4499519757437899E-3</v>
       </c>
-      <c r="T209">
+      <c r="T209" s="3">
         <v>4.6656279293808403E-2</v>
       </c>
-      <c r="U209">
+      <c r="U209" s="3">
         <v>8.2536698301424502E-2</v>
       </c>
-      <c r="V209">
+      <c r="V209" s="3">
         <v>0.143498044221473</v>
       </c>
-      <c r="W209">
+      <c r="W209" s="3">
         <v>2.45641555501156E-2</v>
       </c>
-      <c r="X209">
+      <c r="X209" s="3">
         <v>-5.5047030062011198E-4</v>
       </c>
-      <c r="Y209">
+      <c r="Y209" s="3">
         <v>1.98550517480525E-2</v>
       </c>
-      <c r="Z209">
+      <c r="Z209" s="3">
         <v>-2.4509671557757701E-2</v>
       </c>
-      <c r="AA209">
+      <c r="AA209" s="3">
         <v>0.209995685455593</v>
       </c>
-      <c r="AB209">
+      <c r="AB209" s="3">
         <v>-0.59917076246886602</v>
       </c>
-      <c r="AC209">
+      <c r="AC209" s="3">
         <v>-0.26179476382238798</v>
       </c>
-      <c r="AD209">
+      <c r="AD209" s="3">
         <v>-2.30585932171841</v>
       </c>
-      <c r="AE209">
+      <c r="AE209" s="3">
         <v>-2.5676540855407999</v>
       </c>
-      <c r="AF209">
+      <c r="AF209" s="3">
         <v>-2.9568291625540701</v>
       </c>
-      <c r="AG209">
+      <c r="AG209" s="3">
         <v>-6.4328321473236305E-2</v>
       </c>
+      <c r="AH209" s="3">
+        <v>-2.7827832769275198</v>
+      </c>
+      <c r="AI209">
+        <f t="shared" si="0"/>
+        <v>0.17404588562655032</v>
+      </c>
+      <c r="AJ209">
+        <f t="shared" si="1"/>
+        <v>0.17404588562655032</v>
+      </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A210" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="3">
         <v>-1</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="3">
         <v>-0.60342756457531299</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="3">
         <v>0.440434462262626</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="3">
         <v>7.4906267579857404E-3</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="3">
         <v>-0.27054481354267601</v>
       </c>
-      <c r="H210">
+      <c r="H210" s="3">
         <v>-0.47800871798838102</v>
       </c>
-      <c r="I210">
+      <c r="I210" s="3">
         <v>-3.76697642458333E-2</v>
       </c>
-      <c r="J210">
+      <c r="J210" s="3">
         <v>-3.36394820819996E-2</v>
       </c>
-      <c r="K210">
-        <v>0</v>
-      </c>
-      <c r="L210">
+      <c r="K210" s="3">
+        <v>0</v>
+      </c>
+      <c r="L210" s="3">
         <v>-4.67901442994006E-2</v>
       </c>
-      <c r="M210">
+      <c r="M210" s="3">
         <v>-0.95216912685571597</v>
       </c>
-      <c r="N210">
+      <c r="N210" s="3">
         <v>-2.7592329781993299E-2</v>
       </c>
-      <c r="O210">
+      <c r="O210" s="3">
         <v>-7.5001685662465997E-2</v>
       </c>
-      <c r="P210">
+      <c r="P210" s="3">
         <v>-3.5893027553702203E-2</v>
       </c>
-      <c r="Q210">
+      <c r="Q210" s="3">
         <v>-0.97961800350778305</v>
       </c>
-      <c r="R210">
+      <c r="R210" s="3">
         <v>-0.14521218401060501</v>
       </c>
-      <c r="S210">
+      <c r="S210" s="3">
         <v>-9.0129252683330593E-2</v>
       </c>
-      <c r="T210">
+      <c r="T210" s="3">
         <v>-3.4577279751596898E-2</v>
       </c>
-      <c r="U210">
+      <c r="U210" s="3">
         <v>5.1972906789177403E-2</v>
       </c>
-      <c r="V210">
+      <c r="V210" s="3">
         <v>0.12362871774661099</v>
       </c>
-      <c r="W210">
+      <c r="W210" s="3">
         <v>1.41525003898761E-2</v>
       </c>
-      <c r="X210">
+      <c r="X210" s="3">
         <v>-6.2488900551603403E-4</v>
       </c>
-      <c r="Y210">
+      <c r="Y210" s="3">
         <v>0.103930751703524</v>
       </c>
-      <c r="Z210">
+      <c r="Z210" s="3">
         <v>-9.4779750182914194E-2</v>
       </c>
-      <c r="AA210">
+      <c r="AA210" s="3">
         <v>-0.15550247555470201</v>
       </c>
-      <c r="AB210">
+      <c r="AB210" s="3">
         <v>-0.71846990256328702</v>
       </c>
-      <c r="AC210">
+      <c r="AC210" s="3">
         <v>-0.59610810861561503</v>
       </c>
-      <c r="AD210">
+      <c r="AD210" s="3">
         <v>-2.14191265236644</v>
       </c>
-      <c r="AE210">
+      <c r="AE210" s="3">
         <v>-2.7380207609820499</v>
       </c>
-      <c r="AF210">
+      <c r="AF210" s="3">
         <v>-3.6119931391000399</v>
       </c>
-      <c r="AG210">
+      <c r="AG210" s="3">
         <v>-2.9143988061179198</v>
       </c>
+      <c r="AH210" s="3">
+        <v>-3.7379427216790302</v>
+      </c>
+      <c r="AI210">
+        <f t="shared" si="0"/>
+        <v>-0.12594958257899025</v>
+      </c>
+      <c r="AJ210">
+        <f t="shared" si="1"/>
+        <v>0.12594958257899025</v>
+      </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A211" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="3">
         <v>-1</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="3">
         <v>-0.39097459757893299</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="3">
         <v>0.80663675668178703</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="3">
         <v>-3.7280101842927203E-2</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="3">
         <v>-0.311858423681036</v>
       </c>
-      <c r="H211">
+      <c r="H211" s="3">
         <v>-0.64698675841449904</v>
       </c>
-      <c r="I211">
+      <c r="I211" s="3">
         <v>-9.3909188486611894E-2</v>
       </c>
-      <c r="J211">
+      <c r="J211" s="3">
         <v>-5.9053332394058002E-2</v>
       </c>
-      <c r="K211">
-        <v>0</v>
-      </c>
-      <c r="L211">
+      <c r="K211" s="3">
+        <v>0</v>
+      </c>
+      <c r="L211" s="3">
         <v>-2.2879570111674501E-2</v>
       </c>
-      <c r="M211">
+      <c r="M211" s="3">
         <v>-0.21866299063491099</v>
       </c>
-      <c r="N211">
+      <c r="N211" s="3">
         <v>-2.7804596549467998E-3</v>
       </c>
-      <c r="O211">
+      <c r="O211" s="3">
         <v>-1.00572010303443</v>
       </c>
-      <c r="P211">
+      <c r="P211" s="3">
         <v>-2.4946378770945202E-2</v>
       </c>
-      <c r="Q211">
+      <c r="Q211" s="3">
         <v>-1.4250504712108301</v>
       </c>
-      <c r="R211">
+      <c r="R211" s="3">
         <v>-0.19834691207378999</v>
       </c>
-      <c r="S211">
+      <c r="S211" s="3">
         <v>-0.188794091106158</v>
       </c>
-      <c r="T211">
+      <c r="T211" s="3">
         <v>2.4743459631738799E-2</v>
       </c>
-      <c r="U211">
+      <c r="U211" s="3">
         <v>3.1376396815683001E-2</v>
       </c>
-      <c r="V211">
+      <c r="V211" s="3">
         <v>8.3660239822953494E-2</v>
       </c>
-      <c r="W211">
+      <c r="W211" s="3">
         <v>-1.48427782153317E-2</v>
       </c>
-      <c r="X211">
+      <c r="X211" s="3">
         <v>-7.5103349112316104E-4</v>
       </c>
-      <c r="Y211">
+      <c r="Y211" s="3">
         <v>-1.10692262145508E-2</v>
       </c>
-      <c r="Z211">
+      <c r="Z211" s="3">
         <v>-5.2104878308346703E-2</v>
       </c>
-      <c r="AA211">
+      <c r="AA211" s="3">
         <v>0.37838205725992602</v>
       </c>
-      <c r="AB211">
+      <c r="AB211" s="3">
         <v>-1.0812150785199</v>
       </c>
-      <c r="AC211">
+      <c r="AC211" s="3">
         <v>-0.82282884940684398</v>
       </c>
-      <c r="AD211">
+      <c r="AD211" s="3">
         <v>-3.00328922644499</v>
       </c>
-      <c r="AE211">
+      <c r="AE211" s="3">
         <v>-3.8261180758518401</v>
       </c>
-      <c r="AF211">
+      <c r="AF211" s="3">
         <v>-4.5289510971118103</v>
       </c>
-      <c r="AG211">
+      <c r="AG211" s="3">
         <v>-3.4809074504106499</v>
       </c>
+      <c r="AH211" s="3">
+        <v>-4.5379700532204099</v>
+      </c>
+      <c r="AI211">
+        <f t="shared" si="0"/>
+        <v>-9.0189561085995962E-3</v>
+      </c>
+      <c r="AJ211">
+        <f t="shared" si="1"/>
+        <v>9.0189561085995962E-3</v>
+      </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A212" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="3">
         <v>-1</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="3">
         <v>-5.4200402242451103E-2</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="3">
         <v>-0.27008450436006698</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="3">
         <v>-2.8348587853531899E-2</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="3">
         <v>0.18580500188575499</v>
       </c>
-      <c r="H212">
+      <c r="H212" s="3">
         <v>-0.47044190960763099</v>
       </c>
-      <c r="I212">
+      <c r="I212" s="3">
         <v>9.4542225446902399E-4</v>
       </c>
-      <c r="J212">
+      <c r="J212" s="3">
         <v>-6.9315632891072093E-2</v>
       </c>
-      <c r="K212">
+      <c r="K212" s="3">
         <v>7.4149880334402202E-2</v>
       </c>
-      <c r="L212">
+      <c r="L212" s="3">
         <v>-2.7068862537097501E-2</v>
       </c>
-      <c r="M212">
+      <c r="M212" s="3">
         <v>-0.72368566270147106</v>
       </c>
-      <c r="N212">
+      <c r="N212" s="3">
         <v>6.6189906650514399E-2</v>
       </c>
-      <c r="O212">
+      <c r="O212" s="3">
         <v>-2.73461607686457E-2</v>
       </c>
-      <c r="P212">
+      <c r="P212" s="3">
         <v>-2.9077997367013001E-2</v>
       </c>
-      <c r="Q212">
+      <c r="Q212" s="3">
         <v>-0.953827268737232</v>
       </c>
-      <c r="R212">
+      <c r="R212" s="3">
         <v>-9.6912457057997697E-2</v>
       </c>
-      <c r="S212">
+      <c r="S212" s="3">
         <v>-0.16905931411178499</v>
       </c>
-      <c r="T212">
+      <c r="T212" s="3">
         <v>2.5109103650605001E-2</v>
       </c>
-      <c r="U212">
+      <c r="U212" s="3">
         <v>-6.3003975720043695E-2</v>
       </c>
-      <c r="V212">
+      <c r="V212" s="3">
         <v>5.0570430461520897E-2</v>
       </c>
-      <c r="W212">
+      <c r="W212" s="3">
         <v>-1.06860056774442E-2</v>
       </c>
-      <c r="X212">
+      <c r="X212" s="3">
         <v>-1.09260865331328E-4</v>
       </c>
-      <c r="Y212">
+      <c r="Y212" s="3">
         <v>4.30029309983882E-2</v>
       </c>
-      <c r="Z212">
+      <c r="Z212" s="3">
         <v>-3.5156260838052199E-2</v>
       </c>
-      <c r="AA212">
+      <c r="AA212" s="3">
         <v>-0.35263349445605002</v>
       </c>
-      <c r="AB212">
+      <c r="AB212" s="3">
         <v>0.48423809409935398</v>
       </c>
-      <c r="AC212">
+      <c r="AC212" s="3">
         <v>-0.49173110244692902</v>
       </c>
-      <c r="AD212">
+      <c r="AD212" s="3">
         <v>-1.9239919920839901</v>
       </c>
-      <c r="AE212">
+      <c r="AE212" s="3">
         <v>-2.4157230945309198</v>
       </c>
-      <c r="AF212">
+      <c r="AF212" s="3">
         <v>-2.2841184948876099</v>
       </c>
-      <c r="AG212">
+      <c r="AG212" s="3">
         <v>-3.3454729734133899</v>
       </c>
+      <c r="AH212" s="3">
+        <v>-2.2733111238651902</v>
+      </c>
+      <c r="AI212">
+        <f t="shared" si="0"/>
+        <v>1.0807371022419687E-2</v>
+      </c>
+      <c r="AJ212">
+        <f t="shared" si="1"/>
+        <v>1.0807371022419687E-2</v>
+      </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A213" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="3">
         <v>-1</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="3">
         <v>0.47150778692895601</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="3">
         <v>-0.72154152216941003</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="3">
         <v>-4.8189512007447196E-3</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="3">
         <v>8.2203436913156902E-2</v>
       </c>
-      <c r="H213">
+      <c r="H213" s="3">
         <v>-0.260181768377172</v>
       </c>
-      <c r="I213">
+      <c r="I213" s="3">
         <v>3.6822986387215199E-2</v>
       </c>
-      <c r="J213">
+      <c r="J213" s="3">
         <v>-4.5811294801182199E-2</v>
       </c>
-      <c r="K213">
+      <c r="K213" s="3">
         <v>4.8702773022956898E-2</v>
       </c>
-      <c r="L213">
+      <c r="L213" s="3">
         <v>-3.5487450160346802E-2</v>
       </c>
-      <c r="M213">
+      <c r="M213" s="3">
         <v>-0.36234560378696801</v>
       </c>
-      <c r="N213">
+      <c r="N213" s="3">
         <v>0.24977023381136501</v>
       </c>
-      <c r="O213">
+      <c r="O213" s="3">
         <v>-1.6445635311568601E-2</v>
       </c>
-      <c r="P213">
+      <c r="P213" s="3">
         <v>-1.6053467235212601E-2</v>
       </c>
-      <c r="Q213">
+      <c r="Q213" s="3">
         <v>-0.38783284845039301</v>
       </c>
-      <c r="R213">
+      <c r="R213" s="3">
         <v>-4.4357079682196598E-2</v>
       </c>
-      <c r="S213">
+      <c r="S213" s="3">
         <v>-7.9171532978873096E-2</v>
       </c>
-      <c r="T213">
+      <c r="T213" s="3">
         <v>-3.5456476883416202E-2</v>
       </c>
-      <c r="U213">
+      <c r="U213" s="3">
         <v>-6.38203800197122E-2</v>
       </c>
-      <c r="V213">
+      <c r="V213" s="3">
         <v>-3.4458547702087602E-2</v>
       </c>
-      <c r="W213">
+      <c r="W213" s="3">
         <v>-9.6511705686258796E-3</v>
       </c>
-      <c r="X213">
+      <c r="X213" s="3">
         <v>-9.52730021894337E-5</v>
       </c>
-      <c r="Y213">
+      <c r="Y213" s="3">
         <v>-5.1917202094055502E-2</v>
       </c>
-      <c r="Z213">
+      <c r="Z213" s="3">
         <v>9.1220247352123696E-2</v>
       </c>
-      <c r="AA213">
+      <c r="AA213" s="3">
         <v>-0.25485268644119902</v>
       </c>
-      <c r="AB213">
+      <c r="AB213" s="3">
         <v>0.80856391028331198</v>
       </c>
-      <c r="AC213">
+      <c r="AC213" s="3">
         <v>-0.25595475392852901</v>
       </c>
-      <c r="AD213">
+      <c r="AD213" s="3">
         <v>-0.76061473655181</v>
       </c>
-      <c r="AE213">
+      <c r="AE213" s="3">
         <v>-1.01656949048034</v>
       </c>
-      <c r="AF213">
+      <c r="AF213" s="3">
         <v>-0.46285826663822599</v>
       </c>
-      <c r="AG213">
+      <c r="AG213" s="3">
         <v>-2.7219802494344298</v>
       </c>
+      <c r="AH213" s="3">
+        <v>-0.183149820299123</v>
+      </c>
+      <c r="AI213">
+        <f t="shared" si="0"/>
+        <v>0.27970844633910297</v>
+      </c>
+      <c r="AJ213">
+        <f t="shared" si="1"/>
+        <v>0.27970844633910297</v>
+      </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A214" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="3">
         <v>-1</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="3">
         <v>0.196844236724602</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="3">
         <v>-0.104618753895572</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="3">
         <v>-2.0527134852824602E-2</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="3">
         <v>0.272988034883341</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="3">
         <v>0.44604496066425298</v>
       </c>
-      <c r="I214">
+      <c r="I214" s="3">
         <v>8.8419928897741404E-2</v>
       </c>
-      <c r="J214">
+      <c r="J214" s="3">
         <v>-7.3517990709943207E-2</v>
       </c>
-      <c r="K214">
+      <c r="K214" s="3">
         <v>0.33692205155225602</v>
       </c>
-      <c r="L214">
+      <c r="L214" s="3">
         <v>-4.3272379110103502E-2</v>
       </c>
-      <c r="M214">
+      <c r="M214" s="3">
         <v>-5.1360557174179302E-3</v>
       </c>
-      <c r="N214">
+      <c r="N214" s="3">
         <v>1.0082028179655299E-2</v>
       </c>
-      <c r="O214">
+      <c r="O214" s="3">
         <v>-0.50860764714750195</v>
       </c>
-      <c r="P214">
+      <c r="P214" s="3">
         <v>-1.5816620497420501E-2</v>
       </c>
-      <c r="Q214">
+      <c r="Q214" s="3">
         <v>-0.38409681634068499</v>
       </c>
-      <c r="R214">
+      <c r="R214" s="3">
         <v>-4.9330803192594599E-2</v>
       </c>
-      <c r="S214">
+      <c r="S214" s="3">
         <v>-6.1985319350436198E-2</v>
       </c>
-      <c r="T214">
+      <c r="T214" s="3">
         <v>-3.4434209696666003E-2</v>
       </c>
-      <c r="U214">
+      <c r="U214" s="3">
         <v>-4.68576704874821E-2</v>
       </c>
-      <c r="V214">
+      <c r="V214" s="3">
         <v>-8.7601177765797802E-2</v>
       </c>
-      <c r="W214">
+      <c r="W214" s="3">
         <v>-9.5087808760092093E-3</v>
       </c>
-      <c r="X214">
+      <c r="X214" s="3">
         <v>-2.8895499693671201E-4</v>
       </c>
-      <c r="Y214">
+      <c r="Y214" s="3">
         <v>-0.12732520064550401</v>
       </c>
-      <c r="Z214">
+      <c r="Z214" s="3">
         <v>0.104399312660779</v>
       </c>
-      <c r="AA214">
+      <c r="AA214" s="3">
         <v>7.1698347976205404E-2</v>
       </c>
-      <c r="AB214">
+      <c r="AB214" s="3">
         <v>0.398133923631737</v>
       </c>
-      <c r="AC214">
+      <c r="AC214" s="3">
         <v>0.75459657129420399</v>
       </c>
-      <c r="AD214">
+      <c r="AD214" s="3">
         <v>-1.21650791587402</v>
       </c>
-      <c r="AE214">
+      <c r="AE214" s="3">
         <v>-0.46191134457981398</v>
       </c>
-      <c r="AF214">
+      <c r="AF214" s="3">
         <v>7.9209270281293005E-3</v>
       </c>
-      <c r="AG214">
+      <c r="AG214" s="3">
         <v>-1.81700173290238</v>
       </c>
+      <c r="AH214" s="3">
+        <v>3.5024999369363902E-2</v>
+      </c>
+      <c r="AI214">
+        <f t="shared" si="0"/>
+        <v>2.7104072341234603E-2</v>
+      </c>
+      <c r="AJ214">
+        <f t="shared" si="1"/>
+        <v>2.7104072341234603E-2</v>
+      </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A215" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="3">
         <v>-1</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="3">
         <v>-5.7649172103795603E-2</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="3">
         <v>-0.129749293652794</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="3">
         <v>-6.7156974038821904E-3</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="3">
         <v>0.27978965472629502</v>
       </c>
-      <c r="H215">
+      <c r="H215" s="3">
         <v>0.37373324138430902</v>
       </c>
-      <c r="I215">
+      <c r="I215" s="3">
         <v>0.202388454863592</v>
       </c>
-      <c r="J215">
+      <c r="J215" s="3">
         <v>-8.0710207925922303E-2</v>
       </c>
-      <c r="K215">
+      <c r="K215" s="3">
         <v>0.23145864486392301</v>
       </c>
-      <c r="L215">
+      <c r="L215" s="3">
         <v>-3.5049267275973003E-2</v>
       </c>
-      <c r="M215">
+      <c r="M215" s="3">
         <v>3.49122459558667E-2</v>
       </c>
-      <c r="N215">
+      <c r="N215" s="3">
         <v>-3.1988074401138197E-2</v>
       </c>
-      <c r="O215">
+      <c r="O215" s="3">
         <v>-0.245423746116399</v>
       </c>
-      <c r="P215">
+      <c r="P215" s="3">
         <v>-0.41358264511554099</v>
       </c>
-      <c r="Q215">
+      <c r="Q215" s="3">
         <v>-0.27757854773822399</v>
       </c>
-      <c r="R215">
+      <c r="R215" s="3">
         <v>-1.8177128378328199E-2</v>
       </c>
-      <c r="S215">
+      <c r="S215" s="3">
         <v>-0.31915347207536099</v>
       </c>
-      <c r="T215">
+      <c r="T215" s="3">
         <v>8.7952756533408603E-4</v>
       </c>
-      <c r="U215">
+      <c r="U215" s="3">
         <v>-4.0522744086646301E-2</v>
       </c>
-      <c r="V215">
+      <c r="V215" s="3">
         <v>-9.3380596400536905E-2</v>
       </c>
-      <c r="W215">
+      <c r="W215" s="3">
         <v>-6.8348253333008098E-3</v>
       </c>
-      <c r="X215">
+      <c r="X215" s="3">
         <v>-8.5844967783676302E-4</v>
       </c>
-      <c r="Y215">
+      <c r="Y215" s="3">
         <v>-2.5737726442283101E-2</v>
       </c>
-      <c r="Z215">
+      <c r="Z215" s="3">
         <v>0.12941896407095799</v>
       </c>
-      <c r="AA215">
+      <c r="AA215" s="3">
         <v>-0.194114163160472</v>
       </c>
-      <c r="AB215">
+      <c r="AB215" s="3">
         <v>0.416254645782971</v>
       </c>
-      <c r="AC215">
+      <c r="AC215" s="3">
         <v>0.69182086590992897</v>
       </c>
-      <c r="AD215">
+      <c r="AD215" s="3">
         <v>-1.30802721817344</v>
       </c>
-      <c r="AE215">
+      <c r="AE215" s="3">
         <v>-0.61620635226350695</v>
       </c>
-      <c r="AF215">
+      <c r="AF215" s="3">
         <v>-0.39406586964100698</v>
       </c>
-      <c r="AG215">
+      <c r="AG215" s="3">
         <v>-0.78328042603468395</v>
       </c>
+      <c r="AH215" s="3">
+        <v>-0.54746052944027801</v>
+      </c>
+      <c r="AI215">
+        <f t="shared" si="0"/>
+        <v>-0.15339465979927103</v>
+      </c>
+      <c r="AJ215">
+        <f t="shared" si="1"/>
+        <v>0.15339465979927103</v>
+      </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A216" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="3">
         <v>-1</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="3">
         <v>0.32224262581770302</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="3">
         <v>-0.33730873739487699</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="3">
         <v>-8.7742301441565401E-3</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="3">
         <v>0.32000497341276002</v>
       </c>
-      <c r="H216">
+      <c r="H216" s="3">
         <v>0.18786518146324099</v>
       </c>
-      <c r="I216">
+      <c r="I216" s="3">
         <v>0.100638316515202</v>
       </c>
-      <c r="J216">
+      <c r="J216" s="3">
         <v>-6.2493466190642798E-2</v>
       </c>
-      <c r="K216">
+      <c r="K216" s="3">
         <v>0.225633448790169</v>
       </c>
-      <c r="L216">
+      <c r="L216" s="3">
         <v>-2.5251659519603498E-2</v>
       </c>
-      <c r="M216">
+      <c r="M216" s="3">
         <v>6.7121354530985305E-2</v>
       </c>
-      <c r="N216">
+      <c r="N216" s="3">
         <v>-9.5474014459248996E-2</v>
       </c>
-      <c r="O216">
+      <c r="O216" s="3">
         <v>-3.2565066984734603E-2</v>
       </c>
-      <c r="P216">
+      <c r="P216" s="3">
         <v>-6.9445085031157204E-3</v>
       </c>
-      <c r="Q216">
+      <c r="Q216" s="3">
         <v>-0.126985868854541</v>
       </c>
-      <c r="R216">
+      <c r="R216" s="3">
         <v>-1.3137450508278201E-3</v>
       </c>
-      <c r="S216">
+      <c r="S216" s="3">
         <v>-0.33331152274139297</v>
       </c>
-      <c r="T216">
+      <c r="T216" s="3">
         <v>7.8736855940592999E-4</v>
       </c>
-      <c r="U216">
+      <c r="U216" s="3">
         <v>-2.5831729409316599E-2</v>
       </c>
-      <c r="V216">
+      <c r="V216" s="3">
         <v>-9.3304344812100898E-2</v>
       </c>
-      <c r="W216">
+      <c r="W216" s="3">
         <v>-0.13378012506997899</v>
       </c>
-      <c r="X216">
+      <c r="X216" s="3">
         <v>-5.59254096722068E-5</v>
       </c>
-      <c r="Y216">
+      <c r="Y216" s="3">
         <v>-0.22945837651947701</v>
       </c>
-      <c r="Z216">
+      <c r="Z216" s="3">
         <v>0.22553404893856699</v>
       </c>
-      <c r="AA216">
+      <c r="AA216" s="3">
         <v>-2.3840341721330701E-2</v>
       </c>
-      <c r="AB216">
+      <c r="AB216" s="3">
         <v>0.66608794095179402</v>
       </c>
-      <c r="AC216">
+      <c r="AC216" s="3">
         <v>0.42639182105836498</v>
       </c>
-      <c r="AD216">
+      <c r="AD216" s="3">
         <v>-0.78558245578544805</v>
       </c>
-      <c r="AE216">
+      <c r="AE216" s="3">
         <v>-0.35919063472708301</v>
       </c>
-      <c r="AF216">
+      <c r="AF216" s="3">
         <v>0.28305696450338003</v>
       </c>
-      <c r="AG216">
+      <c r="AG216" s="3">
         <v>-0.14148656118693501</v>
       </c>
+      <c r="AH216" s="3">
+        <v>0.14395868296991801</v>
+      </c>
+      <c r="AI216">
+        <f t="shared" si="0"/>
+        <v>-0.13909828153346201</v>
+      </c>
+      <c r="AJ216">
+        <f t="shared" si="1"/>
+        <v>0.13909828153346201</v>
+      </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A217" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="3">
         <v>-1</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="3">
         <v>2.230836930048E-2</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="3">
         <v>0.13360001222316001</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="3">
         <v>1.56959040427978E-2</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="3">
         <v>0.41727628592570398</v>
       </c>
-      <c r="H217">
+      <c r="H217" s="3">
         <v>0.20411919363060399</v>
       </c>
-      <c r="I217">
+      <c r="I217" s="3">
         <v>3.2947182202997902E-2</v>
       </c>
-      <c r="J217">
+      <c r="J217" s="3">
         <v>-6.7558944624861395E-2</v>
       </c>
-      <c r="K217">
+      <c r="K217" s="3">
         <v>8.2083272215552797E-2</v>
       </c>
-      <c r="L217">
+      <c r="L217" s="3">
         <v>-3.2773887709103999E-2</v>
       </c>
-      <c r="M217">
+      <c r="M217" s="3">
         <v>-7.7534776458933294E-2</v>
       </c>
-      <c r="N217">
+      <c r="N217" s="3">
         <v>-0.26204745667317098</v>
       </c>
-      <c r="O217">
-        <v>0</v>
-      </c>
-      <c r="P217">
+      <c r="O217" s="3">
+        <v>0</v>
+      </c>
+      <c r="P217" s="3">
         <v>-5.67390167737778E-3</v>
       </c>
-      <c r="Q217">
+      <c r="Q217" s="3">
         <v>-7.2781513592662097E-3</v>
       </c>
-      <c r="R217">
+      <c r="R217" s="3">
         <v>6.9451280644709801E-4</v>
       </c>
-      <c r="S217">
+      <c r="S217" s="3">
         <v>-0.12810478866439801</v>
       </c>
-      <c r="T217">
+      <c r="T217" s="3">
         <v>-5.4485074886032204E-3</v>
       </c>
-      <c r="U217">
+      <c r="U217" s="3">
         <v>-2.58850707020899E-2</v>
       </c>
-      <c r="V217">
+      <c r="V217" s="3">
         <v>-9.4495260957415894E-2</v>
       </c>
-      <c r="W217">
+      <c r="W217" s="3">
         <v>-0.110109610329983</v>
       </c>
-      <c r="X217">
+      <c r="X217" s="3">
         <v>-3.9554408867249202E-5</v>
       </c>
-      <c r="Y217">
+      <c r="Y217" s="3">
         <v>-0.105360056184582</v>
       </c>
-      <c r="Z217">
+      <c r="Z217" s="3">
         <v>6.6181286705111697E-2</v>
       </c>
-      <c r="AA217">
+      <c r="AA217" s="3">
         <v>0.171604285566438</v>
       </c>
-      <c r="AB217">
+      <c r="AB217" s="3">
         <v>0.26798036965974598</v>
       </c>
-      <c r="AC217">
+      <c r="AC217" s="3">
         <v>0.21881681571518899</v>
       </c>
-      <c r="AD217">
+      <c r="AD217" s="3">
         <v>-0.75510133539312796</v>
       </c>
-      <c r="AE217">
+      <c r="AE217" s="3">
         <v>-0.536284519677939</v>
       </c>
-      <c r="AF217">
+      <c r="AF217" s="3">
         <v>-9.6699864451754894E-2</v>
       </c>
-      <c r="AG217">
+      <c r="AG217" s="3">
         <v>-4.9946960640317603E-2</v>
       </c>
+      <c r="AH217" s="3">
+        <v>-0.40289042581888002</v>
+      </c>
+      <c r="AI217">
+        <f t="shared" si="0"/>
+        <v>-0.30619056136712514</v>
+      </c>
+      <c r="AJ217">
+        <f t="shared" si="1"/>
+        <v>0.30619056136712514</v>
+      </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A218" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="3">
         <v>-1</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="3">
         <v>-0.14860680832082601</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="3">
         <v>-9.7863976140519796E-2</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="3">
         <v>-1.2380254340253799E-2</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="3">
         <v>0.10613617573699501</v>
       </c>
-      <c r="H218">
+      <c r="H218" s="3">
         <v>0.27975637992849001</v>
       </c>
-      <c r="I218">
+      <c r="I218" s="3">
         <v>0.19914709174415601</v>
       </c>
-      <c r="J218">
+      <c r="J218" s="3">
         <v>-6.8824689602487193E-2</v>
       </c>
-      <c r="K218">
+      <c r="K218" s="3">
         <v>0.12541495481735601</v>
       </c>
-      <c r="L218">
+      <c r="L218" s="3">
         <v>-2.83438253096952E-2</v>
       </c>
-      <c r="M218">
+      <c r="M218" s="3">
         <v>-0.101332651564252</v>
       </c>
-      <c r="N218">
+      <c r="N218" s="3">
         <v>-5.1331752214718099E-2</v>
       </c>
-      <c r="O218">
-        <v>0</v>
-      </c>
-      <c r="P218">
+      <c r="O218" s="3">
+        <v>0</v>
+      </c>
+      <c r="P218" s="3">
         <v>-0.108456215001673</v>
       </c>
-      <c r="Q218">
+      <c r="Q218" s="3">
         <v>-1.3785440505030501E-3</v>
       </c>
-      <c r="R218">
+      <c r="R218" s="3">
         <v>-3.07086235308492E-3</v>
       </c>
-      <c r="S218">
+      <c r="S218" s="3">
         <v>-9.9621406419282299E-2</v>
       </c>
-      <c r="T218">
+      <c r="T218" s="3">
         <v>-6.1622903541149396E-3</v>
       </c>
-      <c r="U218">
+      <c r="U218" s="3">
         <v>-3.6401264716206999E-2</v>
       </c>
-      <c r="V218">
+      <c r="V218" s="3">
         <v>-6.1601967380046301E-2</v>
       </c>
-      <c r="W218">
+      <c r="W218" s="3">
         <v>-0.101672634525887</v>
       </c>
-      <c r="X218">
+      <c r="X218" s="3">
         <v>-5.6146914991712297E-4</v>
       </c>
-      <c r="Y218">
+      <c r="Y218" s="3">
         <v>-0.24042798042341201</v>
       </c>
-      <c r="Z218">
+      <c r="Z218" s="3">
         <v>0.15636008927974501</v>
       </c>
-      <c r="AA218">
+      <c r="AA218" s="3">
         <v>-0.25885103880159899</v>
       </c>
-      <c r="AB218">
+      <c r="AB218" s="3">
         <v>0.216380406217768</v>
       </c>
-      <c r="AC218">
+      <c r="AC218" s="3">
         <v>0.50714991157781997</v>
       </c>
-      <c r="AD218">
+      <c r="AD218" s="3">
         <v>-0.65565894887335296</v>
       </c>
-      <c r="AE218">
+      <c r="AE218" s="3">
         <v>-0.148509037295533</v>
       </c>
-      <c r="AF218">
+      <c r="AF218" s="3">
         <v>-0.19097966987936399</v>
       </c>
-      <c r="AG218">
+      <c r="AG218" s="3">
         <v>-9.9672109867190994E-2</v>
       </c>
+      <c r="AH218" s="3">
+        <v>3.3519227978927903E-2</v>
+      </c>
+      <c r="AI218">
+        <f t="shared" si="0"/>
+        <v>0.22449889785829188</v>
+      </c>
+      <c r="AJ218">
+        <f t="shared" si="1"/>
+        <v>0.22449889785829188</v>
+      </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A219" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="3">
         <v>-1</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="3">
         <v>7.6660462729029696E-2</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="3">
         <v>2.0785718221354801E-2</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="3">
         <v>-6.6588268881837102E-3</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="3">
         <v>2.9405684967238398E-2</v>
       </c>
-      <c r="H219">
+      <c r="H219" s="3">
         <v>0.14496691782770699</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="3">
         <v>0.14364970749081499</v>
       </c>
-      <c r="J219">
+      <c r="J219" s="3">
         <v>-6.4152952423125895E-2</v>
       </c>
-      <c r="K219">
+      <c r="K219" s="3">
         <v>9.4271910701821102E-2</v>
       </c>
-      <c r="L219">
+      <c r="L219" s="3">
         <v>-2.2137944165573901E-2</v>
       </c>
-      <c r="M219">
+      <c r="M219" s="3">
         <v>8.8311302808767006E-2</v>
       </c>
-      <c r="N219">
+      <c r="N219" s="3">
         <v>-1.1320637834244101E-2</v>
       </c>
-      <c r="O219">
-        <v>0</v>
-      </c>
-      <c r="P219">
+      <c r="O219" s="3">
+        <v>0</v>
+      </c>
+      <c r="P219" s="3">
         <v>-0.100871325972164</v>
       </c>
-      <c r="Q219">
+      <c r="Q219" s="3">
         <v>-6.4961714814589704E-4</v>
       </c>
-      <c r="R219">
+      <c r="R219" s="3">
         <v>-4.2409806772021E-4</v>
       </c>
-      <c r="S219">
+      <c r="S219" s="3">
         <v>-0.285958850337448</v>
       </c>
-      <c r="T219">
+      <c r="T219" s="3">
         <v>-1.6069610142208399E-2</v>
       </c>
-      <c r="U219">
+      <c r="U219" s="3">
         <v>-3.4603309143777301E-2</v>
       </c>
-      <c r="V219">
+      <c r="V219" s="3">
         <v>-4.8474434701135799E-2</v>
       </c>
-      <c r="W219">
+      <c r="W219" s="3">
         <v>-9.2776363245696505E-2</v>
       </c>
-      <c r="X219">
+      <c r="X219" s="3">
         <v>-2.0865908428207599E-3</v>
       </c>
-      <c r="Y219">
+      <c r="Y219" s="3">
         <v>-0.14873432562720401</v>
       </c>
-      <c r="Z219">
+      <c r="Z219" s="3">
         <v>0.112419754787877</v>
       </c>
-      <c r="AA219">
+      <c r="AA219" s="3">
         <v>9.0787354062200704E-2</v>
       </c>
-      <c r="AB219">
+      <c r="AB219" s="3">
         <v>1.5278793634067299E-2</v>
       </c>
-      <c r="AC219">
+      <c r="AC219" s="3">
         <v>0.29659763943164402</v>
       </c>
-      <c r="AD219">
+      <c r="AD219" s="3">
         <v>-0.54123810546592199</v>
       </c>
-      <c r="AE219">
+      <c r="AE219" s="3">
         <v>-0.244640466034278</v>
       </c>
-      <c r="AF219">
+      <c r="AF219" s="3">
         <v>-0.13857431833801001</v>
       </c>
-      <c r="AG219">
+      <c r="AG219" s="3">
         <v>-3.57992220414418E-2</v>
       </c>
+      <c r="AH219" s="3">
+        <v>0.115254270699962</v>
+      </c>
+      <c r="AI219">
+        <f>AH219-AF219</f>
+        <v>0.25382858903797201</v>
+      </c>
+      <c r="AJ219">
+        <f t="shared" si="1"/>
+        <v>0.25382858903797201</v>
+      </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>252</v>
       </c>
@@ -23372,14 +24225,17 @@
       <c r="AE220">
         <v>-0.10184907579142501</v>
       </c>
-      <c r="AF220">
+      <c r="AF220" s="2">
         <v>-0.48090006654614598</v>
       </c>
       <c r="AG220">
         <v>-0.226788479803823</v>
       </c>
+      <c r="AH220" s="2">
+        <v>-0.47940136989673898</v>
+      </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>254</v>
       </c>
@@ -23473,14 +24329,25 @@
       <c r="AE221">
         <v>0.131342574079129</v>
       </c>
-      <c r="AF221">
+      <c r="AF221" s="2">
         <v>3.7386077283803498E-2</v>
       </c>
       <c r="AG221">
         <v>-0.193266994369934</v>
       </c>
+      <c r="AH221" s="2">
+        <v>-2.1089457117036199E-2</v>
+      </c>
+      <c r="AI221">
+        <f>AVERAGE(AI198:AI218)</f>
+        <v>2.2668825903835326E-2</v>
+      </c>
+      <c r="AJ221">
+        <f>MAX(AJ198:AJ219)</f>
+        <v>0.30619056136712514</v>
+      </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>255</v>
       </c>
@@ -23574,14 +24441,17 @@
       <c r="AE222">
         <v>-0.231993230183413</v>
       </c>
-      <c r="AF222">
+      <c r="AF222" s="2">
         <v>-0.31568464725144402</v>
       </c>
       <c r="AG222">
         <v>-0.22444323871295399</v>
       </c>
+      <c r="AH222" s="2">
+        <v>-0.41251808805656598</v>
+      </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>256</v>
       </c>
@@ -23675,14 +24545,17 @@
       <c r="AE223">
         <v>-0.29577818228983699</v>
       </c>
-      <c r="AF223">
+      <c r="AF223" s="2">
         <v>-0.36567917759767099</v>
       </c>
       <c r="AG223">
         <v>-0.28121945352786898</v>
       </c>
+      <c r="AH223" s="2">
+        <v>-0.37861011221531599</v>
+      </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>257</v>
       </c>
@@ -23776,14 +24649,17 @@
       <c r="AE224">
         <v>-0.17085709346195499</v>
       </c>
-      <c r="AF224">
+      <c r="AF224" s="2">
         <v>-0.249205634939519</v>
       </c>
       <c r="AG224">
         <v>-0.22329584562621199</v>
       </c>
+      <c r="AH224" s="2">
+        <v>-0.238094418567562</v>
+      </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>258</v>
       </c>
@@ -23877,14 +24753,17 @@
       <c r="AE225">
         <v>-0.25274341306201198</v>
       </c>
-      <c r="AF225">
+      <c r="AF225" s="2">
         <v>-0.46616086119265998</v>
       </c>
       <c r="AG225">
         <v>-0.349182580245328</v>
       </c>
+      <c r="AH225" s="2">
+        <v>-0.41910818369554498</v>
+      </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>259</v>
       </c>
@@ -23978,14 +24857,17 @@
       <c r="AE226">
         <v>9.2339637957928197E-2</v>
       </c>
-      <c r="AF226">
+      <c r="AF226" s="2">
         <v>-9.1138447392625901E-2</v>
       </c>
       <c r="AG226">
         <v>-0.29304603028062298</v>
       </c>
+      <c r="AH226" s="2">
+        <v>-8.4539134015483006E-2</v>
+      </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>260</v>
       </c>
@@ -24079,14 +24961,17 @@
       <c r="AE227">
         <v>8.3813964184436707E-2</v>
       </c>
-      <c r="AF227">
+      <c r="AF227" s="2">
         <v>-8.2882389395558004E-2</v>
       </c>
       <c r="AG227">
         <v>-0.22234683323009499</v>
       </c>
+      <c r="AH227" s="2">
+        <v>-7.0340256006564794E-2</v>
+      </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>261</v>
       </c>
@@ -24180,14 +25065,17 @@
       <c r="AE228">
         <v>-3.6026556100697</v>
       </c>
-      <c r="AF228">
+      <c r="AF228" s="2">
         <v>-73.466638769368899</v>
       </c>
       <c r="AG228">
         <v>-18.526705116837402</v>
       </c>
+      <c r="AH228" s="2">
+        <v>-72.002652637510295</v>
+      </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>262</v>
       </c>
@@ -24281,14 +25169,17 @@
       <c r="AE229">
         <v>-1.4618265632081899</v>
       </c>
-      <c r="AF229">
+      <c r="AF229" s="2">
         <v>-1.4618265632081899</v>
       </c>
       <c r="AG229">
         <v>-18.775621542341302</v>
       </c>
+      <c r="AH229" s="2">
+        <v>-1.68861740436495</v>
+      </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>263</v>
       </c>
@@ -24382,14 +25273,17 @@
       <c r="AE230">
         <v>-7.1362974550129801</v>
       </c>
-      <c r="AF230">
+      <c r="AF230" s="2">
         <v>-7.1362974550129801</v>
       </c>
       <c r="AG230">
         <v>-20.536911294246401</v>
       </c>
+      <c r="AH230" s="2">
+        <v>-7.3992989774466897</v>
+      </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>264</v>
       </c>
@@ -24483,14 +25377,17 @@
       <c r="AE231">
         <v>-7.0435911097922901</v>
       </c>
-      <c r="AF231">
+      <c r="AF231" s="2">
         <v>-7.0435911097922901</v>
       </c>
       <c r="AG231">
         <v>-22.2770884743456</v>
       </c>
+      <c r="AH231" s="2">
+        <v>-7.3004104492313999</v>
+      </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>265</v>
       </c>
@@ -24584,14 +25481,17 @@
       <c r="AE232">
         <v>5.7691384428381101</v>
       </c>
-      <c r="AF232">
+      <c r="AF232" s="2">
         <v>5.7691384428381101</v>
       </c>
       <c r="AG232">
         <v>-2.4681441712938401</v>
       </c>
+      <c r="AH232" s="2">
+        <v>5.7979888900856</v>
+      </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>266</v>
       </c>
@@ -24685,14 +25585,17 @@
       <c r="AE233">
         <v>5.72264130521972</v>
       </c>
-      <c r="AF233">
+      <c r="AF233" s="2">
         <v>5.72264130521972</v>
       </c>
       <c r="AG233">
         <v>-0.67202720418686401</v>
       </c>
+      <c r="AH233" s="2">
+        <v>5.7515424507862596</v>
+      </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>267</v>
       </c>
@@ -24786,14 +25689,17 @@
       <c r="AE234">
         <v>5.70046442709722</v>
       </c>
-      <c r="AF234">
+      <c r="AF234" s="2">
         <v>5.70046442709722</v>
       </c>
       <c r="AG234">
         <v>2.53716326634069</v>
       </c>
+      <c r="AH234" s="2">
+        <v>5.7286386985155797</v>
+      </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>268</v>
       </c>
@@ -24887,14 +25793,17 @@
       <c r="AE235">
         <v>5.6467464113658696</v>
       </c>
-      <c r="AF235">
+      <c r="AF235" s="2">
         <v>5.6467464113658696</v>
       </c>
       <c r="AG235">
         <v>5.7097476466302304</v>
       </c>
+      <c r="AH235" s="2">
+        <v>5.6747877074647599</v>
+      </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>269</v>
       </c>
@@ -24988,14 +25897,17 @@
       <c r="AE236">
         <v>0.25612984626824098</v>
       </c>
-      <c r="AF236">
+      <c r="AF236" s="2">
         <v>0.25612984626824098</v>
       </c>
       <c r="AG236">
         <v>4.3314954974877597</v>
       </c>
+      <c r="AH236" s="2">
+        <v>0.261732333526489</v>
+      </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>270</v>
       </c>
@@ -25089,14 +26001,17 @@
       <c r="AE237">
         <v>0.24948125380075301</v>
       </c>
-      <c r="AF237">
+      <c r="AF237" s="2">
         <v>0.24948125380075301</v>
       </c>
       <c r="AG237">
         <v>2.9632054846330198</v>
       </c>
+      <c r="AH237" s="2">
+        <v>0.25497879233341902</v>
+      </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>271</v>
       </c>
@@ -25190,14 +26105,17 @@
       <c r="AE238">
         <v>0.24414724783439101</v>
       </c>
-      <c r="AF238">
+      <c r="AF238" s="2">
         <v>0.24414724783439101</v>
       </c>
       <c r="AG238">
         <v>1.5991261898173099</v>
       </c>
+      <c r="AH238" s="2">
+        <v>0.249534157419638</v>
+      </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>272</v>
       </c>
@@ -25291,14 +26209,17 @@
       <c r="AE239">
         <v>0.239955531074939</v>
       </c>
-      <c r="AF239">
+      <c r="AF239" s="2">
         <v>0.239955531074939</v>
       </c>
       <c r="AG239">
         <v>0.247428469744576</v>
       </c>
+      <c r="AH239" s="2">
+        <v>0.24521315357934201</v>
+      </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>273</v>
       </c>
@@ -25392,14 +26313,17 @@
       <c r="AE240">
         <v>-1.02456913869911E-2</v>
       </c>
-      <c r="AF240">
+      <c r="AF240" s="2">
         <v>-1.02456913869911E-2</v>
       </c>
       <c r="AG240">
         <v>0.18083458533076799</v>
       </c>
+      <c r="AH240" s="2">
+        <v>-1.0084899454174401E-2</v>
+      </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>274</v>
       </c>
@@ -25493,14 +26417,17 @@
       <c r="AE241">
         <v>-1.04088887112326E-2</v>
       </c>
-      <c r="AF241">
+      <c r="AF241" s="2">
         <v>-1.04088887112326E-2</v>
       </c>
       <c r="AG241">
         <v>0.115862049702772</v>
       </c>
+      <c r="AH241" s="2">
+        <v>-1.02466486873324E-2</v>
+      </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>275</v>
       </c>
@@ -25594,14 +26521,17 @@
       <c r="AE242">
         <v>-9.9002445989524596E-3</v>
       </c>
-      <c r="AF242">
+      <c r="AF242" s="2">
         <v>-9.9002445989524596E-3</v>
       </c>
       <c r="AG242">
         <v>5.23501765944357E-2</v>
       </c>
+      <c r="AH242" s="2">
+        <v>-9.7449847578835406E-3</v>
+      </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>276</v>
       </c>
@@ -25695,14 +26625,17 @@
       <c r="AE243">
         <v>-9.6203447569879006E-3</v>
       </c>
-      <c r="AF243">
+      <c r="AF243" s="2">
         <v>-9.6203447569879006E-3</v>
       </c>
       <c r="AG243">
         <v>-1.0043792363546101E-2</v>
       </c>
+      <c r="AH243" s="2">
+        <v>-9.4691801098704398E-3</v>
+      </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>277</v>
       </c>
@@ -25796,14 +26729,17 @@
       <c r="AE244">
         <v>0</v>
       </c>
-      <c r="AF244">
+      <c r="AF244" s="2">
         <v>0</v>
       </c>
       <c r="AG244">
         <v>-7.4823695167983099E-3</v>
       </c>
+      <c r="AH244" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>278</v>
       </c>
@@ -25897,14 +26833,17 @@
       <c r="AE245">
         <v>0</v>
       </c>
-      <c r="AF245">
+      <c r="AF245" s="2">
         <v>0</v>
       </c>
       <c r="AG245">
         <v>-4.8801473389901498E-3</v>
       </c>
+      <c r="AH245" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>279</v>
       </c>
@@ -25998,14 +26937,17 @@
       <c r="AE246">
         <v>0</v>
       </c>
-      <c r="AF246">
+      <c r="AF246" s="2">
         <v>0</v>
       </c>
       <c r="AG246">
         <v>-2.4050861892520301E-3</v>
       </c>
+      <c r="AH246" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>280</v>
       </c>
@@ -26099,14 +27041,17 @@
       <c r="AE247">
         <v>0</v>
       </c>
-      <c r="AF247">
+      <c r="AF247" s="2">
         <v>0</v>
       </c>
       <c r="AG247">
         <v>-5.06105574116233E-15</v>
       </c>
+      <c r="AH247" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>281</v>
       </c>
@@ -26200,14 +27145,17 @@
       <c r="AE248">
         <v>0</v>
       </c>
-      <c r="AF248">
+      <c r="AF248" s="2">
         <v>0</v>
       </c>
       <c r="AG248">
         <v>-5.06105574116233E-15</v>
       </c>
+      <c r="AH248" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>282</v>
       </c>
@@ -26301,14 +27249,17 @@
       <c r="AE249">
         <v>0</v>
       </c>
-      <c r="AF249">
+      <c r="AF249" s="2">
         <v>0</v>
       </c>
       <c r="AG249">
         <v>-5.06105574116233E-15</v>
       </c>
+      <c r="AH249" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>283</v>
       </c>
@@ -26402,14 +27353,17 @@
       <c r="AE250">
         <v>0</v>
       </c>
-      <c r="AF250">
+      <c r="AF250" s="2">
         <v>0</v>
       </c>
       <c r="AG250">
         <v>-5.06105574116233E-15</v>
       </c>
+      <c r="AH250" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>284</v>
       </c>
@@ -26503,14 +27457,17 @@
       <c r="AE251">
         <v>0</v>
       </c>
-      <c r="AF251">
+      <c r="AF251" s="2">
         <v>0</v>
       </c>
       <c r="AG251">
         <v>-5.06105574116233E-15</v>
       </c>
+      <c r="AH251" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>285</v>
       </c>
@@ -26604,14 +27561,17 @@
       <c r="AE252">
         <v>0</v>
       </c>
-      <c r="AF252">
+      <c r="AF252" s="2">
         <v>0</v>
       </c>
       <c r="AG252">
         <v>-5.06105574116233E-15</v>
       </c>
+      <c r="AH252" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>286</v>
       </c>
@@ -26705,14 +27665,17 @@
       <c r="AE253">
         <v>0</v>
       </c>
-      <c r="AF253">
+      <c r="AF253" s="2">
         <v>0</v>
       </c>
       <c r="AG253">
         <v>-5.06105574116233E-15</v>
       </c>
+      <c r="AH253" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>287</v>
       </c>
@@ -26806,14 +27769,17 @@
       <c r="AE254">
         <v>0</v>
       </c>
-      <c r="AF254">
+      <c r="AF254" s="2">
         <v>0</v>
       </c>
       <c r="AG254">
         <v>-5.06105574116233E-15</v>
       </c>
+      <c r="AH254" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>288</v>
       </c>
@@ -26907,14 +27873,17 @@
       <c r="AE255">
         <v>0</v>
       </c>
-      <c r="AF255">
+      <c r="AF255" s="2">
         <v>0</v>
       </c>
       <c r="AG255">
         <v>-5.06105574116233E-15</v>
       </c>
+      <c r="AH255" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>289</v>
       </c>
@@ -27008,14 +27977,17 @@
       <c r="AE256">
         <v>0</v>
       </c>
-      <c r="AF256">
+      <c r="AF256" s="2">
         <v>0</v>
       </c>
       <c r="AG256">
         <v>-5.06105574116233E-15</v>
       </c>
+      <c r="AH256" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>290</v>
       </c>
@@ -27109,14 +28081,17 @@
       <c r="AE257">
         <v>0</v>
       </c>
-      <c r="AF257">
+      <c r="AF257" s="2">
         <v>0</v>
       </c>
       <c r="AG257">
         <v>-5.06105574116233E-15</v>
       </c>
+      <c r="AH257" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>291</v>
       </c>
@@ -27210,14 +28185,17 @@
       <c r="AE258">
         <v>0</v>
       </c>
-      <c r="AF258">
+      <c r="AF258" s="2">
         <v>0</v>
       </c>
       <c r="AG258">
         <v>-5.06105574116233E-15</v>
       </c>
+      <c r="AH258" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>292</v>
       </c>
@@ -27311,14 +28289,17 @@
       <c r="AE259">
         <v>0</v>
       </c>
-      <c r="AF259">
+      <c r="AF259" s="2">
         <v>0</v>
       </c>
       <c r="AG259">
         <v>-5.06105574116233E-15</v>
       </c>
+      <c r="AH259" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>293</v>
       </c>
@@ -27412,15 +28393,46 @@
       <c r="AE260">
         <v>0</v>
       </c>
-      <c r="AF260">
+      <c r="AF260" s="2">
         <v>0</v>
       </c>
       <c r="AG260">
         <v>-5.06105574116233E-15</v>
+      </c>
+      <c r="AH260" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA8BB6A-B001-4EBB-A57E-DD33F94260A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C3CDBD-B120-47C3-BE8E-911C754E56B5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>